--- a/Dom/OD_with_london.xlsx
+++ b/Dom/OD_with_london.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K334"/>
+  <dimension ref="A1:L334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>Rail</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Mode Share Other</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>11560778.61546394</v>
       </c>
+      <c r="L2" t="n">
+        <v>-1.110223024625157e-16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -557,6 +565,9 @@
       </c>
       <c r="K3" t="n">
         <v>146191.2545131854</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2568286549347619</v>
       </c>
     </row>
     <row r="4">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>253194.8537670959</v>
       </c>
+      <c r="L4" t="n">
+        <v>0.1062583833205682</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>27118.86173598836</v>
       </c>
+      <c r="L5" t="n">
+        <v>0.557771242006569</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>10747.56591764413</v>
       </c>
+      <c r="L6" t="n">
+        <v>0.3177713382929004</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -706,6 +726,9 @@
       <c r="K7" t="n">
         <v>9163.658767731462</v>
       </c>
+      <c r="L7" t="n">
+        <v>0.02549790842720493</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -743,6 +766,9 @@
       <c r="K8" t="n">
         <v>13558.86212252593</v>
       </c>
+      <c r="L8" t="n">
+        <v>0.5664826771537923</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -780,6 +806,9 @@
       <c r="K9" t="n">
         <v>47928.26001978511</v>
       </c>
+      <c r="L9" t="n">
+        <v>0.4543062833040695</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -817,6 +846,9 @@
       <c r="K10" t="n">
         <v>55337.7231448919</v>
       </c>
+      <c r="L10" t="n">
+        <v>0.5251715388045135</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -854,6 +886,9 @@
       <c r="K11" t="n">
         <v>114387.7642072191</v>
       </c>
+      <c r="L11" t="n">
+        <v>0.2580140782063075</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -891,6 +926,9 @@
       <c r="K12" t="n">
         <v>17098.17305168841</v>
       </c>
+      <c r="L12" t="n">
+        <v>0.1645331379329783</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,6 +966,9 @@
       <c r="K13" t="n">
         <v>3013.538237735982</v>
       </c>
+      <c r="L13" t="n">
+        <v>0.06401505761242882</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -965,6 +1006,9 @@
       <c r="K14" t="n">
         <v>3241.944996434155</v>
       </c>
+      <c r="L14" t="n">
+        <v>0.452541856016475</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1002,6 +1046,9 @@
       <c r="K15" t="n">
         <v>3115.354903023215</v>
       </c>
+      <c r="L15" t="n">
+        <v>0.06903965748740287</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1038,6 +1085,9 @@
       </c>
       <c r="K16" t="n">
         <v>15737.69511898396</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.1269766377985806</v>
       </c>
     </row>
     <row r="17">
@@ -1072,6 +1122,9 @@
       <c r="K17" t="n">
         <v>14145.9482867696</v>
       </c>
+      <c r="L17" t="n">
+        <v>0.01965367791230405</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1109,6 +1162,9 @@
       <c r="K18" t="n">
         <v>7172.356361966687</v>
       </c>
+      <c r="L18" t="n">
+        <v>0.07651008031572537</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1146,6 +1202,9 @@
       <c r="K19" t="n">
         <v>26701.9620683992</v>
       </c>
+      <c r="L19" t="n">
+        <v>0.05642785792262454</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1183,6 +1242,9 @@
       <c r="K20" t="n">
         <v>2018.370945017177</v>
       </c>
+      <c r="L20" t="n">
+        <v>0.01941402726055882</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1220,6 +1282,9 @@
       <c r="K21" t="n">
         <v>8541.54601451204</v>
       </c>
+      <c r="L21" t="n">
+        <v>0.1461541718900135</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1257,6 +1322,9 @@
       <c r="K22" t="n">
         <v>2401.423028252206</v>
       </c>
+      <c r="L22" t="n">
+        <v>0.1604036878937529</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1294,6 +1362,9 @@
       <c r="K23" t="n">
         <v>56634.44490414051</v>
       </c>
+      <c r="L23" t="n">
+        <v>0.3020988454294885</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1331,6 +1402,9 @@
       <c r="K24" t="n">
         <v>35047.41232584594</v>
       </c>
+      <c r="L24" t="n">
+        <v>0.2506531315457368</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1368,6 +1442,9 @@
       <c r="K25" t="n">
         <v>32722.06697376205</v>
       </c>
+      <c r="L25" t="n">
+        <v>0.5239256584783955</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1405,6 +1482,9 @@
       <c r="K26" t="n">
         <v>2416.979202530733</v>
       </c>
+      <c r="L26" t="n">
+        <v>0.06931202623183261</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1442,6 +1522,9 @@
       <c r="K27" t="n">
         <v>9969.968719027207</v>
       </c>
+      <c r="L27" t="n">
+        <v>0.1603852664046307</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1479,6 +1562,9 @@
       <c r="K28" t="n">
         <v>7108.217709649919</v>
       </c>
+      <c r="L28" t="n">
+        <v>0.0491103598798948</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1516,6 +1602,9 @@
       <c r="K29" t="n">
         <v>27435.49658784738</v>
       </c>
+      <c r="L29" t="n">
+        <v>0.448818483734738</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1553,6 +1642,9 @@
       <c r="K30" t="n">
         <v>22764.17654830662</v>
       </c>
+      <c r="L30" t="n">
+        <v>0.2523516513758749</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1590,6 +1682,9 @@
       <c r="K31" t="n">
         <v>19056.23660395202</v>
       </c>
+      <c r="L31" t="n">
+        <v>0.1060057338955038</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1626,6 +1721,9 @@
       </c>
       <c r="K32" t="n">
         <v>14787.56978606614</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.2419265601885421</v>
       </c>
     </row>
     <row r="33">
@@ -1660,6 +1758,9 @@
       <c r="K33" t="n">
         <v>952.8823828140338</v>
       </c>
+      <c r="L33" t="n">
+        <v>0.05865613308286646</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1697,6 +1798,9 @@
       <c r="K34" t="n">
         <v>38003.62927808804</v>
       </c>
+      <c r="L34" t="n">
+        <v>0.2569051880469488</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1734,6 +1838,9 @@
       <c r="K35" t="n">
         <v>0</v>
       </c>
+      <c r="L35" t="n">
+        <v>0.0490516228440025</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1771,6 +1878,9 @@
       <c r="K36" t="n">
         <v>6705.100880800178</v>
       </c>
+      <c r="L36" t="n">
+        <v>0.05817477011190146</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1808,6 +1918,9 @@
       <c r="K37" t="n">
         <v>11189.7482309332</v>
       </c>
+      <c r="L37" t="n">
+        <v>0.1714682836997937</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1844,6 +1957,9 @@
       </c>
       <c r="K38" t="n">
         <v>41083.36646020364</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.3945486652869495</v>
       </c>
     </row>
     <row r="39">
@@ -1878,6 +1994,9 @@
       <c r="K39" t="n">
         <v>6870.037475423024</v>
       </c>
+      <c r="L39" t="n">
+        <v>0.01469026279038413</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1915,6 +2034,9 @@
       <c r="K40" t="n">
         <v>3076.106191997442</v>
       </c>
+      <c r="L40" t="n">
+        <v>0.004540127122604209</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1952,6 +2074,9 @@
       <c r="K41" t="n">
         <v>22462.02714682848</v>
       </c>
+      <c r="L41" t="n">
+        <v>0.1048582060269963</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1989,6 +2114,9 @@
       <c r="K42" t="n">
         <v>34150.7784845518</v>
       </c>
+      <c r="L42" t="n">
+        <v>0.3175150027730774</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2026,6 +2154,9 @@
       <c r="K43" t="n">
         <v>9885.31490399607</v>
       </c>
+      <c r="L43" t="n">
+        <v>0.05304572405775529</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2063,6 +2194,9 @@
       <c r="K44" t="n">
         <v>7043.216398288227</v>
       </c>
+      <c r="L44" t="n">
+        <v>0.05967027991456242</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2100,6 +2234,9 @@
       <c r="K45" t="n">
         <v>5083.19509963825</v>
       </c>
+      <c r="L45" t="n">
+        <v>0.3115641910536096</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2137,6 +2274,9 @@
       <c r="K46" t="n">
         <v>7379.180855351117</v>
       </c>
+      <c r="L46" t="n">
+        <v>0.3031942156927058</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2174,6 +2314,9 @@
       <c r="K47" t="n">
         <v>51963.41255007328</v>
       </c>
+      <c r="L47" t="n">
+        <v>0.1937595976277895</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2211,6 +2354,9 @@
       <c r="K48" t="n">
         <v>2787.817636868106</v>
       </c>
+      <c r="L48" t="n">
+        <v>0.1605702580713813</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2248,6 +2394,9 @@
       <c r="K49" t="n">
         <v>38906.31685423815</v>
       </c>
+      <c r="L49" t="n">
+        <v>0.3020313473099315</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2285,6 +2434,9 @@
       <c r="K50" t="n">
         <v>14377.27412658014</v>
       </c>
+      <c r="L50" t="n">
+        <v>0.1311988089774173</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2321,6 +2473,9 @@
       </c>
       <c r="K51" t="n">
         <v>5212.937469889953</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.0922563834314695</v>
       </c>
     </row>
     <row r="52">
@@ -2355,6 +2510,9 @@
       <c r="K52" t="n">
         <v>4080.715472190348</v>
       </c>
+      <c r="L52" t="n">
+        <v>0.07969290481861196</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2392,6 +2550,9 @@
       <c r="K53" t="n">
         <v>1903.091282658017</v>
       </c>
+      <c r="L53" t="n">
+        <v>0.04191088172776899</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2429,6 +2590,9 @@
       <c r="K54" t="n">
         <v>43692.28586030868</v>
       </c>
+      <c r="L54" t="n">
+        <v>0.1126411835524817</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2466,6 +2630,9 @@
       <c r="K55" t="n">
         <v>4600.338686145008</v>
       </c>
+      <c r="L55" t="n">
+        <v>0.2517213741662527</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2503,6 +2670,9 @@
       <c r="K56" t="n">
         <v>27648.91314654219</v>
       </c>
+      <c r="L56" t="n">
+        <v>0.1456015551442073</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2540,6 +2710,9 @@
       <c r="K57" t="n">
         <v>0</v>
       </c>
+      <c r="L57" t="n">
+        <v>0.06667198482589298</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2577,6 +2750,9 @@
       <c r="K58" t="n">
         <v>3711.705811782064</v>
       </c>
+      <c r="L58" t="n">
+        <v>0.01978810263068347</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2614,6 +2790,9 @@
       <c r="K59" t="n">
         <v>1633.562370638715</v>
       </c>
+      <c r="L59" t="n">
+        <v>0.07528751738900458</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2651,6 +2830,9 @@
       <c r="K60" t="n">
         <v>4547.356768395935</v>
       </c>
+      <c r="L60" t="n">
+        <v>0.07240904026580675</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2688,6 +2870,9 @@
       <c r="K61" t="n">
         <v>23057.29419091919</v>
       </c>
+      <c r="L61" t="n">
+        <v>0.02172908855838662</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2725,6 +2910,9 @@
       <c r="K62" t="n">
         <v>17571.90119315959</v>
       </c>
+      <c r="L62" t="n">
+        <v>0.03040657245565898</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2761,6 +2949,9 @@
       </c>
       <c r="K63" t="n">
         <v>30970.59615769935</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.4167443499950159</v>
       </c>
     </row>
     <row r="64">
@@ -2795,6 +2986,9 @@
       <c r="K64" t="n">
         <v>3648.378017794358</v>
       </c>
+      <c r="L64" t="n">
+        <v>0.09939661632201643</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2832,6 +3026,9 @@
       <c r="K65" t="n">
         <v>439.998677022748</v>
       </c>
+      <c r="L65" t="n">
+        <v>0.3447326730820697</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2869,6 +3066,9 @@
       <c r="K66" t="n">
         <v>4350.86310184493</v>
       </c>
+      <c r="L66" t="n">
+        <v>0.3045986939518995</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2906,6 +3106,9 @@
       <c r="K67" t="n">
         <v>30310.79842544036</v>
       </c>
+      <c r="L67" t="n">
+        <v>0.09111374105737075</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2943,6 +3146,9 @@
       <c r="K68" t="n">
         <v>7347.300078774931</v>
       </c>
+      <c r="L68" t="n">
+        <v>0.2864835098503623</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2980,6 +3186,9 @@
       <c r="K69" t="n">
         <v>4464.980516439015</v>
       </c>
+      <c r="L69" t="n">
+        <v>0.1039125799978342</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3017,6 +3226,9 @@
       <c r="K70" t="n">
         <v>10444.72965734208</v>
       </c>
+      <c r="L70" t="n">
+        <v>0.044262265379721</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3054,6 +3266,9 @@
       <c r="K71" t="n">
         <v>11893.36226931807</v>
       </c>
+      <c r="L71" t="n">
+        <v>0.07636777513579115</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3091,6 +3306,9 @@
       <c r="K72" t="n">
         <v>0</v>
       </c>
+      <c r="L72" t="n">
+        <v>0.02693413191062433</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3128,6 +3346,9 @@
       <c r="K73" t="n">
         <v>21146.41483997046</v>
       </c>
+      <c r="L73" t="n">
+        <v>1.387778780781446e-16</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3165,6 +3386,9 @@
       <c r="K74" t="n">
         <v>21281.56262833096</v>
       </c>
+      <c r="L74" t="n">
+        <v>0.02880311018230222</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3202,6 +3426,9 @@
       <c r="K75" t="n">
         <v>6399.96104809014</v>
       </c>
+      <c r="L75" t="n">
+        <v>0.07356968120798865</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3239,6 +3466,9 @@
       <c r="K76" t="n">
         <v>21765.46236209441</v>
       </c>
+      <c r="L76" t="n">
+        <v>0.1898998314902022</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3276,6 +3506,9 @@
       <c r="K77" t="n">
         <v>3099.901106921647</v>
       </c>
+      <c r="L77" t="n">
+        <v>0.1488954145710701</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3313,6 +3546,9 @@
       <c r="K78" t="n">
         <v>25075.60544419649</v>
       </c>
+      <c r="L78" t="n">
+        <v>0.06380920267179749</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3350,6 +3586,9 @@
       <c r="K79" t="n">
         <v>1727.454817501908</v>
       </c>
+      <c r="L79" t="n">
+        <v>0.05449249464679685</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3387,6 +3626,9 @@
       <c r="K80" t="n">
         <v>10700.32751914425</v>
       </c>
+      <c r="L80" t="n">
+        <v>0.04873389215488499</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3424,6 +3666,9 @@
       <c r="K81" t="n">
         <v>2190.25094919072</v>
       </c>
+      <c r="L81" t="n">
+        <v>0.1198499180708242</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3461,6 +3706,9 @@
       <c r="K82" t="n">
         <v>33055.93553220962</v>
       </c>
+      <c r="L82" t="n">
+        <v>0.1997520135801623</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3498,6 +3746,9 @@
       <c r="K83" t="n">
         <v>18581.19570126094</v>
       </c>
+      <c r="L83" t="n">
+        <v>0.08707469768407874</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3535,6 +3786,9 @@
       <c r="K84" t="n">
         <v>20593.55068289943</v>
       </c>
+      <c r="L84" t="n">
+        <v>0.4019701454638945</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3572,6 +3826,9 @@
       <c r="K85" t="n">
         <v>27322.84878309595</v>
       </c>
+      <c r="L85" t="n">
+        <v>0.01624231494894873</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3609,6 +3866,9 @@
       <c r="K86" t="n">
         <v>13040.82726442025</v>
       </c>
+      <c r="L86" t="n">
+        <v>-8.326672684688674e-17</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3646,6 +3906,9 @@
       <c r="K87" t="n">
         <v>27931.23429661725</v>
       </c>
+      <c r="L87" t="n">
+        <v>0.01293564783470924</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3683,6 +3946,9 @@
       <c r="K88" t="n">
         <v>3618.74221168297</v>
       </c>
+      <c r="L88" t="n">
+        <v>0.2856661265377257</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3720,6 +3986,9 @@
       <c r="K89" t="n">
         <v>2973.184556631846</v>
       </c>
+      <c r="L89" t="n">
+        <v>0.3865235831583809</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3757,6 +4026,9 @@
       <c r="K90" t="n">
         <v>22407.42286103595</v>
       </c>
+      <c r="L90" t="n">
+        <v>0.08636464850055164</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3794,6 +4066,9 @@
       <c r="K91" t="n">
         <v>13367.14443366439</v>
       </c>
+      <c r="L91" t="n">
+        <v>0.332497060019643</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3831,6 +4106,9 @@
       <c r="K92" t="n">
         <v>12307.37063746665</v>
       </c>
+      <c r="L92" t="n">
+        <v>0.08529191829688315</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3868,6 +4146,9 @@
       <c r="K93" t="n">
         <v>19192.94150435607</v>
       </c>
+      <c r="L93" t="n">
+        <v>0.2531324217515937</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3905,6 +4186,9 @@
       <c r="K94" t="n">
         <v>14296.41296883233</v>
       </c>
+      <c r="L94" t="n">
+        <v>0.275827719027207</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3942,6 +4226,9 @@
       <c r="K95" t="n">
         <v>12745.32628649625</v>
       </c>
+      <c r="L95" t="n">
+        <v>0.07842035175378989</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3979,6 +4266,9 @@
       <c r="K96" t="n">
         <v>5613.397734152763</v>
       </c>
+      <c r="L96" t="n">
+        <v>0.392485482572274</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4016,6 +4306,9 @@
       <c r="K97" t="n">
         <v>1453.312509120871</v>
       </c>
+      <c r="L97" t="n">
+        <v>0.09500001676620003</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4053,6 +4346,9 @@
       <c r="K98" t="n">
         <v>10605.94976712059</v>
       </c>
+      <c r="L98" t="n">
+        <v>0.1205344254432721</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4090,6 +4386,9 @@
       <c r="K99" t="n">
         <v>4782.740712290665</v>
       </c>
+      <c r="L99" t="n">
+        <v>2.081668171172169e-17</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4127,6 +4426,9 @@
       <c r="K100" t="n">
         <v>7808.977803434242</v>
       </c>
+      <c r="L100" t="n">
+        <v>0.04480577109587601</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4164,6 +4466,9 @@
       <c r="K101" t="n">
         <v>9392.146916246804</v>
       </c>
+      <c r="L101" t="n">
+        <v>0.2335310950303797</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4201,6 +4506,9 @@
       <c r="K102" t="n">
         <v>16947.76729346706</v>
       </c>
+      <c r="L102" t="n">
+        <v>0.09925506262984862</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4238,6 +4546,9 @@
       <c r="K103" t="n">
         <v>9672.602340062474</v>
       </c>
+      <c r="L103" t="n">
+        <v>0.1882468931665968</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4275,6 +4586,9 @@
       <c r="K104" t="n">
         <v>3372.658065122159</v>
       </c>
+      <c r="L104" t="n">
+        <v>0.09261670171641301</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4312,6 +4626,9 @@
       <c r="K105" t="n">
         <v>4810.185989720216</v>
       </c>
+      <c r="L105" t="n">
+        <v>0.1665536109120825</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4349,6 +4666,9 @@
       <c r="K106" t="n">
         <v>0</v>
       </c>
+      <c r="L106" t="n">
+        <v>0.2202141666118556</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4386,6 +4706,9 @@
       <c r="K107" t="n">
         <v>40187.51587594854</v>
       </c>
+      <c r="L107" t="n">
+        <v>0.08757901386716849</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4423,6 +4746,9 @@
       <c r="K108" t="n">
         <v>2499.022886053921</v>
       </c>
+      <c r="L108" t="n">
+        <v>0.4034681698673036</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4459,6 +4785,9 @@
       </c>
       <c r="K109" t="n">
         <v>3442.250371756895</v>
+      </c>
+      <c r="L109" t="n">
+        <v>-6.938893903907228e-18</v>
       </c>
     </row>
     <row r="110">
@@ -4493,6 +4822,9 @@
       <c r="K110" t="n">
         <v>11169.91051947757</v>
       </c>
+      <c r="L110" t="n">
+        <v>0.1257417738740342</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4530,6 +4862,9 @@
       <c r="K111" t="n">
         <v>2834.150013765901</v>
       </c>
+      <c r="L111" t="n">
+        <v>0.3192623951460154</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4567,6 +4902,9 @@
       <c r="K112" t="n">
         <v>14612.08162126421</v>
       </c>
+      <c r="L112" t="n">
+        <v>0.06912359922303099</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4604,6 +4942,9 @@
       <c r="K113" t="n">
         <v>16376.88381134536</v>
       </c>
+      <c r="L113" t="n">
+        <v>0.01632323257230672</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4641,6 +4982,9 @@
       <c r="K114" t="n">
         <v>3116.326315760014</v>
       </c>
+      <c r="L114" t="n">
+        <v>0.1256387361030662</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4678,6 +5022,9 @@
       <c r="K115" t="n">
         <v>15156.00523816391</v>
       </c>
+      <c r="L115" t="n">
+        <v>0.1219417216243435</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4715,6 +5062,9 @@
       <c r="K116" t="n">
         <v>25526.54081214358</v>
       </c>
+      <c r="L116" t="n">
+        <v>0.1570156707246917</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4752,6 +5102,9 @@
       <c r="K117" t="n">
         <v>0</v>
       </c>
+      <c r="L117" t="n">
+        <v>0.310367257659862</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4789,6 +5142,9 @@
       <c r="K118" t="n">
         <v>8997.103150724844</v>
       </c>
+      <c r="L118" t="n">
+        <v>0.03200533061265723</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4826,6 +5182,9 @@
       <c r="K119" t="n">
         <v>8307.257848266105</v>
       </c>
+      <c r="L119" t="n">
+        <v>0.2331857017602209</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4863,6 +5222,9 @@
       <c r="K120" t="n">
         <v>4359.155806702019</v>
       </c>
+      <c r="L120" t="n">
+        <v>0.08076740458146371</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4900,6 +5262,9 @@
       <c r="K121" t="n">
         <v>2414.185790835747</v>
       </c>
+      <c r="L121" t="n">
+        <v>0.6191964497384397</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4937,6 +5302,9 @@
       <c r="K122" t="n">
         <v>9931.659938573323</v>
       </c>
+      <c r="L122" t="n">
+        <v>0.04445550450219055</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4974,6 +5342,9 @@
       <c r="K123" t="n">
         <v>2252.474882282851</v>
       </c>
+      <c r="L123" t="n">
+        <v>0.133504300276897</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5011,6 +5382,9 @@
       <c r="K124" t="n">
         <v>10901.5981763584</v>
       </c>
+      <c r="L124" t="n">
+        <v>0.238934963504587</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5048,6 +5422,9 @@
       <c r="K125" t="n">
         <v>5582.316629779124</v>
       </c>
+      <c r="L125" t="n">
+        <v>0.1117409068446161</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5085,6 +5462,9 @@
       <c r="K126" t="n">
         <v>7472.712275958926</v>
       </c>
+      <c r="L126" t="n">
+        <v>0.1088785035787413</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5122,6 +5502,9 @@
       <c r="K127" t="n">
         <v>3334.014296221028</v>
       </c>
+      <c r="L127" t="n">
+        <v>0.4617694104298454</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5159,6 +5542,9 @@
       <c r="K128" t="n">
         <v>6418.169951068207</v>
       </c>
+      <c r="L128" t="n">
+        <v>0.2360116142086998</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5196,6 +5582,9 @@
       <c r="K129" t="n">
         <v>15512.07121564659</v>
       </c>
+      <c r="L129" t="n">
+        <v>0.1538294805196561</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5233,6 +5622,9 @@
       <c r="K130" t="n">
         <v>33062.7152245673</v>
       </c>
+      <c r="L130" t="n">
+        <v>0.09094036609215306</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5270,6 +5662,9 @@
       <c r="K131" t="n">
         <v>5103.088824604752</v>
       </c>
+      <c r="L131" t="n">
+        <v>5.551115123125783e-17</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5307,6 +5702,9 @@
       <c r="K132" t="n">
         <v>11331.60321980892</v>
       </c>
+      <c r="L132" t="n">
+        <v>0.04967012312883518</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5344,6 +5742,9 @@
       <c r="K133" t="n">
         <v>24854.61043604504</v>
       </c>
+      <c r="L133" t="n">
+        <v>0.1023398249158365</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5381,6 +5782,9 @@
       <c r="K134" t="n">
         <v>4849.826534307247</v>
       </c>
+      <c r="L134" t="n">
+        <v>0.3286429582334007</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5418,6 +5822,9 @@
       <c r="K135" t="n">
         <v>4869.137401007094</v>
       </c>
+      <c r="L135" t="n">
+        <v>0.2761778361985038</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5455,6 +5862,9 @@
       <c r="K136" t="n">
         <v>17321.95453242123</v>
       </c>
+      <c r="L136" t="n">
+        <v>0.09957914739633961</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5491,6 +5901,9 @@
       </c>
       <c r="K137" t="n">
         <v>2804.27383564511</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.0358882615367728</v>
       </c>
     </row>
     <row r="138">
@@ -5525,6 +5938,9 @@
       <c r="K138" t="n">
         <v>4273.026623926368</v>
       </c>
+      <c r="L138" t="n">
+        <v>0.01494639853906946</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5562,6 +5978,9 @@
       <c r="K139" t="n">
         <v>7538.001203386992</v>
       </c>
+      <c r="L139" t="n">
+        <v>0.3785134912730568</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5599,6 +6018,9 @@
       <c r="K140" t="n">
         <v>14123.75137993358</v>
       </c>
+      <c r="L140" t="n">
+        <v>0.02114324798505279</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5636,6 +6058,9 @@
       <c r="K141" t="n">
         <v>16409.3532108188</v>
       </c>
+      <c r="L141" t="n">
+        <v>0.06050812538688327</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5673,6 +6098,9 @@
       <c r="K142" t="n">
         <v>1446.106235139376</v>
       </c>
+      <c r="L142" t="n">
+        <v>0.1759797398587574</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5710,6 +6138,9 @@
       <c r="K143" t="n">
         <v>3710.548408836135</v>
       </c>
+      <c r="L143" t="n">
+        <v>-9.71445146547012e-17</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5747,6 +6178,9 @@
       <c r="K144" t="n">
         <v>5364.179437981989</v>
       </c>
+      <c r="L144" t="n">
+        <v>0.1758606188948575</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5784,6 +6218,9 @@
       <c r="K145" t="n">
         <v>13154.99362081718</v>
       </c>
+      <c r="L145" t="n">
+        <v>-5.551115123125783e-17</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5821,6 +6258,9 @@
       <c r="K146" t="n">
         <v>7866.273930792279</v>
       </c>
+      <c r="L146" t="n">
+        <v>0.3523568819871118</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5858,6 +6298,9 @@
       <c r="K147" t="n">
         <v>5017.70343131198</v>
       </c>
+      <c r="L147" t="n">
+        <v>0.08255172812114803</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5895,6 +6338,9 @@
       <c r="K148" t="n">
         <v>28166.66373664534</v>
       </c>
+      <c r="L148" t="n">
+        <v>0.1176147087172671</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5932,6 +6378,9 @@
       <c r="K149" t="n">
         <v>15259.13640282043</v>
       </c>
+      <c r="L149" t="n">
+        <v>0.04103092568972949</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5969,6 +6418,9 @@
       <c r="K150" t="n">
         <v>8749.243654164819</v>
       </c>
+      <c r="L150" t="n">
+        <v>0.129302709213044</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6006,6 +6458,9 @@
       <c r="K151" t="n">
         <v>445.7165021170451</v>
       </c>
+      <c r="L151" t="n">
+        <v>0.5712211050593788</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6043,6 +6498,9 @@
       <c r="K152" t="n">
         <v>5767.916789149355</v>
       </c>
+      <c r="L152" t="n">
+        <v>0.02491351930315239</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6080,6 +6538,9 @@
       <c r="K153" t="n">
         <v>4834.634089511052</v>
       </c>
+      <c r="L153" t="n">
+        <v>0.2365066709523756</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6117,6 +6578,9 @@
       <c r="K154" t="n">
         <v>3262.777655866939</v>
       </c>
+      <c r="L154" t="n">
+        <v>0.3664692018012767</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6154,6 +6618,9 @@
       <c r="K155" t="n">
         <v>5243.883240106992</v>
       </c>
+      <c r="L155" t="n">
+        <v>0.3179853004211689</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6191,6 +6658,9 @@
       <c r="K156" t="n">
         <v>4145.312410638633</v>
       </c>
+      <c r="L156" t="n">
+        <v>0.04417298960695155</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6228,6 +6698,9 @@
       <c r="K157" t="n">
         <v>6545.605586946586</v>
       </c>
+      <c r="L157" t="n">
+        <v>0.170815692379565</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6265,6 +6738,9 @@
       <c r="K158" t="n">
         <v>8567.362460447213</v>
       </c>
+      <c r="L158" t="n">
+        <v>0.1814189604395844</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6302,6 +6778,9 @@
       <c r="K159" t="n">
         <v>6689.186790146082</v>
       </c>
+      <c r="L159" t="n">
+        <v>0.1620022941559556</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6339,6 +6818,9 @@
       <c r="K160" t="n">
         <v>14385.89950663603</v>
       </c>
+      <c r="L160" t="n">
+        <v>0.09165937158135268</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6376,6 +6858,9 @@
       <c r="K161" t="n">
         <v>3275.938478736527</v>
       </c>
+      <c r="L161" t="n">
+        <v>0.2196821263428377</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6413,6 +6898,9 @@
       <c r="K162" t="n">
         <v>2584.866624087836</v>
       </c>
+      <c r="L162" t="n">
+        <v>0.173413343248109</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6450,6 +6938,9 @@
       <c r="K163" t="n">
         <v>11962.47695806373</v>
       </c>
+      <c r="L163" t="n">
+        <v>0.1720152367614707</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6487,6 +6978,9 @@
       <c r="K164" t="n">
         <v>16506.40674955054</v>
       </c>
+      <c r="L164" t="n">
+        <v>0.06002883582375523</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6524,6 +7018,9 @@
       <c r="K165" t="n">
         <v>6040.645021965309</v>
       </c>
+      <c r="L165" t="n">
+        <v>0.2112568121296259</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6561,6 +7058,9 @@
       <c r="K166" t="n">
         <v>0</v>
       </c>
+      <c r="L166" t="n">
+        <v>0.04478246473730452</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6598,6 +7098,9 @@
       <c r="K167" t="n">
         <v>5767.264706059809</v>
       </c>
+      <c r="L167" t="n">
+        <v>0.05775280637081806</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6634,6 +7137,9 @@
       </c>
       <c r="K168" t="n">
         <v>7954.29573205112</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0.05616073834695848</v>
       </c>
     </row>
     <row r="169">
@@ -6668,6 +7174,9 @@
       <c r="K169" t="n">
         <v>1727.674691606485</v>
       </c>
+      <c r="L169" t="n">
+        <v>-1.804112415015879e-16</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6705,6 +7214,9 @@
       <c r="K170" t="n">
         <v>3048.80720180117</v>
       </c>
+      <c r="L170" t="n">
+        <v>0.1345613408876481</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6742,6 +7254,9 @@
       <c r="K171" t="n">
         <v>0</v>
       </c>
+      <c r="L171" t="n">
+        <v>0.3658585532072834</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6779,6 +7294,9 @@
       <c r="K172" t="n">
         <v>15767.55129738432</v>
       </c>
+      <c r="L172" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6816,6 +7334,9 @@
       <c r="K173" t="n">
         <v>16676.62516254895</v>
       </c>
+      <c r="L173" t="n">
+        <v>0.08959431632202436</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6853,6 +7374,9 @@
       <c r="K174" t="n">
         <v>5951.292719654522</v>
       </c>
+      <c r="L174" t="n">
+        <v>0.2914936053180388</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6890,6 +7414,9 @@
       <c r="K175" t="n">
         <v>0</v>
       </c>
+      <c r="L175" t="n">
+        <v>0.1002259419370046</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6926,6 +7453,9 @@
       </c>
       <c r="K176" t="n">
         <v>9917.834156401694</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.1309979212264878</v>
       </c>
     </row>
     <row r="177">
@@ -6960,6 +7490,9 @@
       <c r="K177" t="n">
         <v>18208.32726287624</v>
       </c>
+      <c r="L177" t="n">
+        <v>0.02543239251560181</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6997,6 +7530,9 @@
       <c r="K178" t="n">
         <v>0</v>
       </c>
+      <c r="L178" t="n">
+        <v>0.02999208142687265</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7034,6 +7570,9 @@
       <c r="K179" t="n">
         <v>4427.110572230386</v>
       </c>
+      <c r="L179" t="n">
+        <v>0.2190619966808753</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7070,6 +7609,9 @@
       </c>
       <c r="K180" t="n">
         <v>7263.177107649142</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0.03705938627572375</v>
       </c>
     </row>
     <row r="181">
@@ -7104,6 +7646,9 @@
       <c r="K181" t="n">
         <v>3165.981556326787</v>
       </c>
+      <c r="L181" t="n">
+        <v>0.02907787209609855</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7141,6 +7686,9 @@
       <c r="K182" t="n">
         <v>0</v>
       </c>
+      <c r="L182" t="n">
+        <v>0.04664934595043357</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7178,6 +7726,9 @@
       <c r="K183" t="n">
         <v>20989.78212573353</v>
       </c>
+      <c r="L183" t="n">
+        <v>-1.110223024625157e-16</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7215,6 +7766,9 @@
       <c r="K184" t="n">
         <v>0</v>
       </c>
+      <c r="L184" t="n">
+        <v>0.1587078194948375</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7252,6 +7806,9 @@
       <c r="K185" t="n">
         <v>3073.448808106395</v>
       </c>
+      <c r="L185" t="n">
+        <v>0.6369401207704799</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7289,6 +7846,9 @@
       <c r="K186" t="n">
         <v>6971.397487335089</v>
       </c>
+      <c r="L186" t="n">
+        <v>0.02796052137597285</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7326,6 +7886,9 @@
       <c r="K187" t="n">
         <v>3301.443683462953</v>
       </c>
+      <c r="L187" t="n">
+        <v>-1.387778780781446e-17</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7363,6 +7926,9 @@
       <c r="K188" t="n">
         <v>6639.98521274796</v>
       </c>
+      <c r="L188" t="n">
+        <v>0.2013551409712557</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7400,6 +7966,9 @@
       <c r="K189" t="n">
         <v>2042.502330649579</v>
       </c>
+      <c r="L189" t="n">
+        <v>0.2693140343925948</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7437,6 +8006,9 @@
       <c r="K190" t="n">
         <v>2370.009305052637</v>
       </c>
+      <c r="L190" t="n">
+        <v>0.5029053785136255</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7474,6 +8046,9 @@
       <c r="K191" t="n">
         <v>3737.005496147787</v>
       </c>
+      <c r="L191" t="n">
+        <v>0.04123035648528026</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7511,6 +8086,9 @@
       <c r="K192" t="n">
         <v>8309.662792765046</v>
       </c>
+      <c r="L192" t="n">
+        <v>0.3481145530234225</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7548,6 +8126,9 @@
       <c r="K193" t="n">
         <v>1534.698068987388</v>
       </c>
+      <c r="L193" t="n">
+        <v>0.3089370350355012</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7585,6 +8166,9 @@
       <c r="K194" t="n">
         <v>13065.90275712214</v>
       </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7622,6 +8206,9 @@
       <c r="K195" t="n">
         <v>1130.347851171027</v>
       </c>
+      <c r="L195" t="n">
+        <v>0.5182026184207852</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7659,6 +8246,9 @@
       <c r="K196" t="n">
         <v>4637.139861006142</v>
       </c>
+      <c r="L196" t="n">
+        <v>0.03892269015103211</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7696,6 +8286,9 @@
       <c r="K197" t="n">
         <v>4781.66313457756</v>
       </c>
+      <c r="L197" t="n">
+        <v>-8.326672684688674e-17</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7733,6 +8326,9 @@
       <c r="K198" t="n">
         <v>5645.916273359449</v>
       </c>
+      <c r="L198" t="n">
+        <v>0.1847028204188629</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7770,6 +8366,9 @@
       <c r="K199" t="n">
         <v>1658.486717733186</v>
       </c>
+      <c r="L199" t="n">
+        <v>0.1127624746535624</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7807,6 +8406,9 @@
       <c r="K200" t="n">
         <v>904.6517755079446</v>
       </c>
+      <c r="L200" t="n">
+        <v>2.775557561562891e-17</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7844,6 +8446,9 @@
       <c r="K201" t="n">
         <v>3948.423298895801</v>
       </c>
+      <c r="L201" t="n">
+        <v>0.1220201719461332</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7881,6 +8486,9 @@
       <c r="K202" t="n">
         <v>15555.37618199587</v>
       </c>
+      <c r="L202" t="n">
+        <v>0.09264031898645819</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7918,6 +8526,9 @@
       <c r="K203" t="n">
         <v>2696.019852249871</v>
       </c>
+      <c r="L203" t="n">
+        <v>0.04726540088438191</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7954,6 +8565,9 @@
       </c>
       <c r="K204" t="n">
         <v>2505.012033723078</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0.1273849005354014</v>
       </c>
     </row>
     <row r="205">
@@ -7988,6 +8602,9 @@
       <c r="K205" t="n">
         <v>0</v>
       </c>
+      <c r="L205" t="n">
+        <v>0.04167275438771656</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8025,6 +8642,9 @@
       <c r="K206" t="n">
         <v>5771.160991519343</v>
       </c>
+      <c r="L206" t="n">
+        <v>0.1190304101217146</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8062,6 +8682,9 @@
       <c r="K207" t="n">
         <v>9013.401958516413</v>
       </c>
+      <c r="L207" t="n">
+        <v>0.1549869224280545</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8099,6 +8722,9 @@
       <c r="K208" t="n">
         <v>1069.277772470962</v>
       </c>
+      <c r="L208" t="n">
+        <v>0.06859813997023415</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8136,6 +8762,9 @@
       <c r="K209" t="n">
         <v>10078.91407716497</v>
       </c>
+      <c r="L209" t="n">
+        <v>0.07741366468826105</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8173,6 +8802,9 @@
       <c r="K210" t="n">
         <v>6637.835370011809</v>
       </c>
+      <c r="L210" t="n">
+        <v>0.2306415201003631</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8210,6 +8842,9 @@
       <c r="K211" t="n">
         <v>1517.301528671819</v>
       </c>
+      <c r="L211" t="n">
+        <v>0.2700526607552154</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8247,6 +8882,9 @@
       <c r="K212" t="n">
         <v>10625.818048254</v>
       </c>
+      <c r="L212" t="n">
+        <v>0.1238755393316602</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8284,6 +8922,9 @@
       <c r="K213" t="n">
         <v>2906.142001830197</v>
       </c>
+      <c r="L213" t="n">
+        <v>-2.775557561562891e-17</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8321,6 +8962,9 @@
       <c r="K214" t="n">
         <v>0</v>
       </c>
+      <c r="L214" t="n">
+        <v>0.2796315248078718</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8358,6 +9002,9 @@
       <c r="K215" t="n">
         <v>7623.973081649316</v>
       </c>
+      <c r="L215" t="n">
+        <v>0.04193060744527743</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8395,6 +9042,9 @@
       <c r="K216" t="n">
         <v>1078.50940202258</v>
       </c>
+      <c r="L216" t="n">
+        <v>0.1693239593804773</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8432,6 +9082,9 @@
       <c r="K217" t="n">
         <v>3851.650535333093</v>
       </c>
+      <c r="L217" t="n">
+        <v>0.08045839600715016</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8469,6 +9122,9 @@
       <c r="K218" t="n">
         <v>1195.407397597327</v>
       </c>
+      <c r="L218" t="n">
+        <v>0.08915652437968614</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8506,6 +9162,9 @@
       <c r="K219" t="n">
         <v>4377.430425076858</v>
       </c>
+      <c r="L219" t="n">
+        <v>0.06127185462143689</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8543,6 +9202,9 @@
       <c r="K220" t="n">
         <v>7088.941420870034</v>
       </c>
+      <c r="L220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8580,6 +9242,9 @@
       <c r="K221" t="n">
         <v>1435.22420137667</v>
       </c>
+      <c r="L221" t="n">
+        <v>0.1265029301431064</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8617,6 +9282,9 @@
       <c r="K222" t="n">
         <v>1833.452659323431</v>
       </c>
+      <c r="L222" t="n">
+        <v>0.1252165787283266</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8654,6 +9322,9 @@
       <c r="K223" t="n">
         <v>996.4090070365021</v>
       </c>
+      <c r="L223" t="n">
+        <v>0.1446871594297152</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8691,6 +9362,9 @@
       <c r="K224" t="n">
         <v>2953.245598332272</v>
       </c>
+      <c r="L224" t="n">
+        <v>0.1104826576819847</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8728,6 +9402,9 @@
       <c r="K225" t="n">
         <v>5329.866135134011</v>
       </c>
+      <c r="L225" t="n">
+        <v>0.5835397415445629</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8765,6 +9442,9 @@
       <c r="K226" t="n">
         <v>0</v>
       </c>
+      <c r="L226" t="n">
+        <v>0.0526706639966068</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8802,6 +9482,9 @@
       <c r="K227" t="n">
         <v>9261.003099724534</v>
       </c>
+      <c r="L227" t="n">
+        <v>0.08534996439970899</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8839,6 +9522,9 @@
       <c r="K228" t="n">
         <v>8921.715330942252</v>
       </c>
+      <c r="L228" t="n">
+        <v>-1.110223024625157e-16</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8876,6 +9562,9 @@
       <c r="K229" t="n">
         <v>2878.717295682888</v>
       </c>
+      <c r="L229" t="n">
+        <v>0.3522504916054247</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8913,6 +9602,9 @@
       <c r="K230" t="n">
         <v>10335.10159604288</v>
       </c>
+      <c r="L230" t="n">
+        <v>0.05790337653751243</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8950,6 +9642,9 @@
       <c r="K231" t="n">
         <v>3565.762631078992</v>
       </c>
+      <c r="L231" t="n">
+        <v>0.1697463483847247</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8987,6 +9682,9 @@
       <c r="K232" t="n">
         <v>6426.888071826416</v>
       </c>
+      <c r="L232" t="n">
+        <v>0.3681856767787025</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9024,6 +9722,9 @@
       <c r="K233" t="n">
         <v>13863.71380368516</v>
       </c>
+      <c r="L233" t="n">
+        <v>-1.110223024625157e-16</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9060,6 +9761,9 @@
       </c>
       <c r="K234" t="n">
         <v>2748.817494646218</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0.191919732259873</v>
       </c>
     </row>
     <row r="235">
@@ -9094,6 +9798,9 @@
       <c r="K235" t="n">
         <v>2274.712497146855</v>
       </c>
+      <c r="L235" t="n">
+        <v>0.06835076478777291</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9131,6 +9838,9 @@
       <c r="K236" t="n">
         <v>2257.509061045335</v>
       </c>
+      <c r="L236" t="n">
+        <v>5.551115123125783e-17</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9168,6 +9878,9 @@
       <c r="K237" t="n">
         <v>5442.871421058404</v>
       </c>
+      <c r="L237" t="n">
+        <v>0.05914686564753641</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9205,6 +9918,9 @@
       <c r="K238" t="n">
         <v>7502.383591876574</v>
       </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9242,6 +9958,9 @@
       <c r="K239" t="n">
         <v>1191.681937137752</v>
       </c>
+      <c r="L239" t="n">
+        <v>0.06161131934265691</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9279,6 +9998,9 @@
       <c r="K240" t="n">
         <v>816.5503563469456</v>
       </c>
+      <c r="L240" t="n">
+        <v>0.07923622800182585</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9316,6 +10038,9 @@
       <c r="K241" t="n">
         <v>1703.755638682015</v>
       </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9353,6 +10078,9 @@
       <c r="K242" t="n">
         <v>4141.772452407299</v>
       </c>
+      <c r="L242" t="n">
+        <v>-5.551115123125783e-17</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9390,6 +10118,9 @@
       <c r="K243" t="n">
         <v>0</v>
       </c>
+      <c r="L243" t="n">
+        <v>0.1128657236691015</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9427,6 +10158,9 @@
       <c r="K244" t="n">
         <v>5778.535721659304</v>
       </c>
+      <c r="L244" t="n">
+        <v>0.1139109145384434</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9464,6 +10198,9 @@
       <c r="K245" t="n">
         <v>1230.480231045808</v>
       </c>
+      <c r="L245" t="n">
+        <v>0.1067567825093569</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9501,6 +10238,9 @@
       <c r="K246" t="n">
         <v>0</v>
       </c>
+      <c r="L246" t="n">
+        <v>0.1464382342643988</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9538,6 +10278,9 @@
       <c r="K247" t="n">
         <v>2670.311322772343</v>
       </c>
+      <c r="L247" t="n">
+        <v>0.1201075227533708</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9575,6 +10318,9 @@
       <c r="K248" t="n">
         <v>7329.852938891619</v>
       </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9612,6 +10358,9 @@
       <c r="K249" t="n">
         <v>0</v>
       </c>
+      <c r="L249" t="n">
+        <v>0.2168341402850877</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9649,6 +10398,9 @@
       <c r="K250" t="n">
         <v>0</v>
       </c>
+      <c r="L250" t="n">
+        <v>0.527023854661812</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9686,6 +10438,9 @@
       <c r="K251" t="n">
         <v>7255.194778486994</v>
       </c>
+      <c r="L251" t="n">
+        <v>0.08617049865079307</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9723,6 +10478,9 @@
       <c r="K252" t="n">
         <v>4174.424092291993</v>
       </c>
+      <c r="L252" t="n">
+        <v>0.1865699382348694</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9760,6 +10518,9 @@
       <c r="K253" t="n">
         <v>3589.337098611751</v>
       </c>
+      <c r="L253" t="n">
+        <v>-5.551115123125783e-17</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9797,6 +10558,9 @@
       <c r="K254" t="n">
         <v>6532.467682641765</v>
       </c>
+      <c r="L254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9834,6 +10598,9 @@
       <c r="K255" t="n">
         <v>0</v>
       </c>
+      <c r="L255" t="n">
+        <v>0.2369157696183143</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9871,6 +10638,9 @@
       <c r="K256" t="n">
         <v>1130.55275428919</v>
       </c>
+      <c r="L256" t="n">
+        <v>0.3665239014231071</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9908,6 +10678,9 @@
       <c r="K257" t="n">
         <v>0</v>
       </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9945,6 +10718,9 @@
       <c r="K258" t="n">
         <v>1499.098992214651</v>
       </c>
+      <c r="L258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9982,6 +10758,9 @@
       <c r="K259" t="n">
         <v>0</v>
       </c>
+      <c r="L259" t="n">
+        <v>0.1127729786770896</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10019,6 +10798,9 @@
       <c r="K260" t="n">
         <v>3926.541174580969</v>
       </c>
+      <c r="L260" t="n">
+        <v>0.3004983072242743</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10056,6 +10838,9 @@
       <c r="K261" t="n">
         <v>0</v>
       </c>
+      <c r="L261" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10093,6 +10878,9 @@
       <c r="K262" t="n">
         <v>2484.218515963216</v>
       </c>
+      <c r="L262" t="n">
+        <v>0.07552963053972234</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10130,6 +10918,9 @@
       <c r="K263" t="n">
         <v>381.092711221843</v>
       </c>
+      <c r="L263" t="n">
+        <v>0.2524766363563594</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10167,6 +10958,9 @@
       <c r="K264" t="n">
         <v>0</v>
       </c>
+      <c r="L264" t="n">
+        <v>0.1228879848316027</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10204,6 +10998,9 @@
       <c r="K265" t="n">
         <v>0</v>
       </c>
+      <c r="L265" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10241,6 +11038,9 @@
       <c r="K266" t="n">
         <v>813.2195381607705</v>
       </c>
+      <c r="L266" t="n">
+        <v>0.2624573580325029</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10278,6 +11078,9 @@
       <c r="K267" t="n">
         <v>3882.05787825466</v>
       </c>
+      <c r="L267" t="n">
+        <v>0.4589337378570718</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10315,6 +11118,9 @@
       <c r="K268" t="n">
         <v>2395.431480127627</v>
       </c>
+      <c r="L268" t="n">
+        <v>0.2244276829373311</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10352,6 +11158,9 @@
       <c r="K269" t="n">
         <v>1751.121849138993</v>
       </c>
+      <c r="L269" t="n">
+        <v>0.4373190740746482</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10389,6 +11198,9 @@
       <c r="K270" t="n">
         <v>4836.621131912815</v>
       </c>
+      <c r="L270" t="n">
+        <v>-1.110223024625157e-16</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10426,6 +11238,9 @@
       <c r="K271" t="n">
         <v>402.5266139998164</v>
       </c>
+      <c r="L271" t="n">
+        <v>0.1613130691534328</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10463,6 +11278,9 @@
       <c r="K272" t="n">
         <v>1042.73202040089</v>
       </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10500,6 +11318,9 @@
       <c r="K273" t="n">
         <v>3497.533147685661</v>
       </c>
+      <c r="L273" t="n">
+        <v>0.314574779765157</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10537,6 +11358,9 @@
       <c r="K274" t="n">
         <v>3980.042011258218</v>
       </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10574,6 +11398,9 @@
       <c r="K275" t="n">
         <v>1543.39974693487</v>
       </c>
+      <c r="L275" t="n">
+        <v>0.2542654908472003</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10611,6 +11438,9 @@
       <c r="K276" t="n">
         <v>1904.444138877748</v>
       </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10648,6 +11478,9 @@
       <c r="K277" t="n">
         <v>0</v>
       </c>
+      <c r="L277" t="n">
+        <v>0.1775133151878209</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10685,6 +11518,9 @@
       <c r="K278" t="n">
         <v>6457.316612382861</v>
       </c>
+      <c r="L278" t="n">
+        <v>-1.110223024625157e-16</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10722,6 +11558,9 @@
       <c r="K279" t="n">
         <v>0</v>
       </c>
+      <c r="L279" t="n">
+        <v>-8.326672684688674e-17</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10759,6 +11598,9 @@
       <c r="K280" t="n">
         <v>0</v>
       </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10796,6 +11638,9 @@
       <c r="K281" t="n">
         <v>0</v>
       </c>
+      <c r="L281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10833,6 +11678,9 @@
       <c r="K282" t="n">
         <v>0</v>
       </c>
+      <c r="L282" t="n">
+        <v>0.3268241926198959</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10870,6 +11718,9 @@
       <c r="K283" t="n">
         <v>815.8575103969561</v>
       </c>
+      <c r="L283" t="n">
+        <v>0.1538591869138308</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10907,6 +11758,9 @@
       <c r="K284" t="n">
         <v>6000</v>
       </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10944,6 +11798,9 @@
       <c r="K285" t="n">
         <v>1761.252932710646</v>
       </c>
+      <c r="L285" t="n">
+        <v>0.4680110148248089</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10981,6 +11838,9 @@
       <c r="K286" t="n">
         <v>3121.691721834976</v>
       </c>
+      <c r="L286" t="n">
+        <v>0.3479062792248085</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11018,6 +11878,9 @@
       <c r="K287" t="n">
         <v>3748.394844957347</v>
       </c>
+      <c r="L287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11055,6 +11918,9 @@
       <c r="K288" t="n">
         <v>0</v>
       </c>
+      <c r="L288" t="n">
+        <v>0.2632386599557668</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11092,6 +11958,9 @@
       <c r="K289" t="n">
         <v>4091.015878231825</v>
       </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11129,6 +11998,9 @@
       <c r="K290" t="n">
         <v>2904.018625632998</v>
       </c>
+      <c r="L290" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11166,6 +12038,9 @@
       <c r="K291" t="n">
         <v>1643.168056055929</v>
       </c>
+      <c r="L291" t="n">
+        <v>0.2979706617594542</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11203,6 +12078,9 @@
       <c r="K292" t="n">
         <v>0</v>
       </c>
+      <c r="L292" t="n">
+        <v>0.2820435928444838</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11240,6 +12118,9 @@
       <c r="K293" t="n">
         <v>2728.292395867564</v>
       </c>
+      <c r="L293" t="n">
+        <v>-1.110223024625157e-16</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11277,6 +12158,9 @@
       <c r="K294" t="n">
         <v>1027.55411389854</v>
       </c>
+      <c r="L294" t="n">
+        <v>0.269662882641958</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11314,6 +12198,9 @@
       <c r="K295" t="n">
         <v>0</v>
       </c>
+      <c r="L295" t="n">
+        <v>-1.110223024625157e-16</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11351,6 +12238,9 @@
       <c r="K296" t="n">
         <v>1651.888922789382</v>
       </c>
+      <c r="L296" t="n">
+        <v>0.3094066357399542</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11388,6 +12278,9 @@
       <c r="K297" t="n">
         <v>1288.255167688509</v>
       </c>
+      <c r="L297" t="n">
+        <v>-5.551115123125783e-17</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11425,6 +12318,9 @@
       <c r="K298" t="n">
         <v>0</v>
       </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11462,6 +12358,9 @@
       <c r="K299" t="n">
         <v>0</v>
       </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11497,6 +12396,9 @@
         <v>4000</v>
       </c>
       <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11532,6 +12434,9 @@
       <c r="K301" t="n">
         <v>1580.293970182648</v>
       </c>
+      <c r="L301" t="n">
+        <v>0.2821729151720989</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11569,6 +12474,9 @@
       <c r="K302" t="n">
         <v>2238.744485250054</v>
       </c>
+      <c r="L302" t="n">
+        <v>0.4403138786874865</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11606,6 +12514,9 @@
       <c r="K303" t="n">
         <v>1424.399150163224</v>
       </c>
+      <c r="L303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11643,6 +12554,9 @@
       <c r="K304" t="n">
         <v>0</v>
       </c>
+      <c r="L304" t="n">
+        <v>0.2913425889446706</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11680,6 +12594,9 @@
       <c r="K305" t="n">
         <v>0</v>
       </c>
+      <c r="L305" t="n">
+        <v>-5.551115123125783e-17</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11717,6 +12634,9 @@
       <c r="K306" t="n">
         <v>933.0028207818798</v>
       </c>
+      <c r="L306" t="n">
+        <v>0.6889990597393734</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11754,6 +12674,9 @@
       <c r="K307" t="n">
         <v>2050.60716652028</v>
       </c>
+      <c r="L307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11791,6 +12714,9 @@
       <c r="K308" t="n">
         <v>1814.680700371504</v>
       </c>
+      <c r="L308" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11828,6 +12754,9 @@
       <c r="K309" t="n">
         <v>843.7445736965917</v>
       </c>
+      <c r="L309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11865,6 +12794,9 @@
       <c r="K310" t="n">
         <v>0</v>
       </c>
+      <c r="L310" t="n">
+        <v>0.7383778473044798</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11902,6 +12834,9 @@
       <c r="K311" t="n">
         <v>1043.635225413465</v>
       </c>
+      <c r="L311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11939,6 +12874,9 @@
       <c r="K312" t="n">
         <v>0</v>
       </c>
+      <c r="L312" t="n">
+        <v>0.7811572507492033</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11976,6 +12914,9 @@
       <c r="K313" t="n">
         <v>1523.719316497794</v>
       </c>
+      <c r="L313" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12013,6 +12954,9 @@
       <c r="K314" t="n">
         <v>1364.697813027326</v>
       </c>
+      <c r="L314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12050,6 +12994,9 @@
       <c r="K315" t="n">
         <v>0</v>
       </c>
+      <c r="L315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12087,6 +13034,9 @@
       <c r="K316" t="n">
         <v>0</v>
       </c>
+      <c r="L316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12124,6 +13074,9 @@
       <c r="K317" t="n">
         <v>0</v>
       </c>
+      <c r="L317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12161,6 +13114,9 @@
       <c r="K318" t="n">
         <v>2000</v>
       </c>
+      <c r="L318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12198,6 +13154,9 @@
       <c r="K319" t="n">
         <v>1038.95417400916</v>
       </c>
+      <c r="L319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12235,6 +13194,9 @@
       <c r="K320" t="n">
         <v>2000</v>
       </c>
+      <c r="L320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12272,6 +13234,9 @@
       <c r="K321" t="n">
         <v>0</v>
       </c>
+      <c r="L321" t="n">
+        <v>0.5334833670971781</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12309,6 +13274,9 @@
       <c r="K322" t="n">
         <v>2000</v>
       </c>
+      <c r="L322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12346,6 +13314,9 @@
       <c r="K323" t="n">
         <v>0</v>
       </c>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12383,6 +13354,9 @@
       <c r="K324" t="n">
         <v>532.890324695079</v>
       </c>
+      <c r="L324" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12420,6 +13394,9 @@
       <c r="K325" t="n">
         <v>0</v>
       </c>
+      <c r="L325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12457,6 +13434,9 @@
       <c r="K326" t="n">
         <v>0</v>
       </c>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12494,6 +13474,9 @@
       <c r="K327" t="n">
         <v>0</v>
       </c>
+      <c r="L327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12531,6 +13514,9 @@
       <c r="K328" t="n">
         <v>0</v>
       </c>
+      <c r="L328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12568,6 +13554,9 @@
       <c r="K329" t="n">
         <v>0</v>
       </c>
+      <c r="L329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12605,6 +13594,9 @@
       <c r="K330" t="n">
         <v>0</v>
       </c>
+      <c r="L330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12642,6 +13634,9 @@
       <c r="K331" t="n">
         <v>0</v>
       </c>
+      <c r="L331" t="n">
+        <v>-5.551115123125783e-17</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12679,6 +13674,9 @@
       <c r="K332" t="n">
         <v>0</v>
       </c>
+      <c r="L332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12714,6 +13712,9 @@
         <v>0</v>
       </c>
       <c r="K333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L333" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12735,6 +13736,7 @@
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Dom/OD_with_london.xlsx
+++ b/Dom/OD_with_london.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L334"/>
+  <dimension ref="A1:M334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>LONG</t>
+          <t>lat</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>LAT</t>
+          <t>lng</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -487,12 +487,17 @@
       <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Mode Share Other</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -500,10 +505,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1276</v>
+        <v>51.509865</v>
       </c>
       <c r="D2" t="n">
-        <v>51.5072</v>
+        <v>-0.118092</v>
       </c>
       <c r="E2" t="n">
         <v>25127000</v>
@@ -527,12 +532,15 @@
         <v>11560778.61546394</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.110223024625157e-16</v>
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -540,10 +548,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.44182</v>
+        <v>51.5351832</v>
       </c>
       <c r="D3" t="n">
-        <v>51.53663</v>
+        <v>-0.4481378</v>
       </c>
       <c r="E3" t="n">
         <v>1524000</v>
@@ -569,10 +577,13 @@
       <c r="L3" t="n">
         <v>0.2568286549347619</v>
       </c>
+      <c r="M3" t="n">
+        <v>391406.8701205772</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -580,10 +591,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.37847</v>
+        <v>51.4704124</v>
       </c>
       <c r="D4" t="n">
-        <v>51.46243</v>
+        <v>-0.3633719</v>
       </c>
       <c r="E4" t="n">
         <v>1103000</v>
@@ -607,12 +618,15 @@
         <v>253194.8537670959</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1062583833205682</v>
+        <v>0.1062583833205681</v>
+      </c>
+      <c r="M4" t="n">
+        <v>117202.9968025867</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -620,10 +634,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.24405</v>
+        <v>51.7520209</v>
       </c>
       <c r="D5" t="n">
-        <v>51.75357</v>
+        <v>-1.2577263</v>
       </c>
       <c r="E5" t="n">
         <v>785000</v>
@@ -649,10 +663,13 @@
       <c r="L5" t="n">
         <v>0.557771242006569</v>
       </c>
+      <c r="M5" t="n">
+        <v>437850.4249751567</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -660,10 +677,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.99071</v>
+        <v>51.45512009999999</v>
       </c>
       <c r="D6" t="n">
-        <v>51.45302</v>
+        <v>-0.9787475</v>
       </c>
       <c r="E6" t="n">
         <v>681000</v>
@@ -687,12 +704,15 @@
         <v>10747.56591764413</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3177713382929004</v>
+        <v>0.3177713382929005</v>
+      </c>
+      <c r="M6" t="n">
+        <v>216402.2813774652</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -700,10 +720,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.67541</v>
+        <v>51.47997119999999</v>
       </c>
       <c r="D7" t="n">
-        <v>51.48034</v>
+        <v>-0.6242565</v>
       </c>
       <c r="E7" t="n">
         <v>664000</v>
@@ -727,12 +747,15 @@
         <v>9163.658767731462</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02549790842720493</v>
+        <v>0.0254979084272049</v>
+      </c>
+      <c r="M7" t="n">
+        <v>16930.61119566405</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -740,10 +763,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.39952</v>
+        <v>50.9105468</v>
       </c>
       <c r="D8" t="n">
-        <v>50.9212</v>
+        <v>-1.4049018</v>
       </c>
       <c r="E8" t="n">
         <v>491000</v>
@@ -769,10 +792,13 @@
       <c r="L8" t="n">
         <v>0.5664826771537923</v>
       </c>
+      <c r="M8" t="n">
+        <v>278142.994482512</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -780,10 +806,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.19533</v>
+        <v>51.1091401</v>
       </c>
       <c r="D9" t="n">
-        <v>51.12357</v>
+        <v>-0.1872275</v>
       </c>
       <c r="E9" t="n">
         <v>474000</v>
@@ -809,10 +835,13 @@
       <c r="L9" t="n">
         <v>0.4543062833040695</v>
       </c>
+      <c r="M9" t="n">
+        <v>215341.178286129</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -820,10 +849,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-2.57742</v>
+        <v>51.4548943</v>
       </c>
       <c r="D10" t="n">
-        <v>51.47115</v>
+        <v>-2.5926854</v>
       </c>
       <c r="E10" t="n">
         <v>469000</v>
@@ -849,10 +878,13 @@
       <c r="L10" t="n">
         <v>0.5251715388045135</v>
       </c>
+      <c r="M10" t="n">
+        <v>246305.4516993168</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -860,10 +892,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.126436</v>
+        <v>52.1950788</v>
       </c>
       <c r="D11" t="n">
-        <v>52.20017</v>
+        <v>0.1312729</v>
       </c>
       <c r="E11" t="n">
         <v>419000</v>
@@ -887,12 +919,15 @@
         <v>114387.7642072191</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2580140782063075</v>
+        <v>0.2580140782063074</v>
+      </c>
+      <c r="M11" t="n">
+        <v>108107.8987684428</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -900,10 +935,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.92661</v>
+        <v>51.3491996</v>
       </c>
       <c r="D12" t="n">
-        <v>51.32883</v>
+        <v>-1.9927105</v>
       </c>
       <c r="E12" t="n">
         <v>406000</v>
@@ -929,10 +964,13 @@
       <c r="L12" t="n">
         <v>0.1645331379329783</v>
       </c>
+      <c r="M12" t="n">
+        <v>66800.45400078919</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -940,10 +978,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.57617</v>
+        <v>51.51053839999999</v>
       </c>
       <c r="D13" t="n">
-        <v>51.5035</v>
+        <v>-0.5950405999999999</v>
       </c>
       <c r="E13" t="n">
         <v>356000</v>
@@ -967,12 +1005,15 @@
         <v>3013.538237735982</v>
       </c>
       <c r="L13" t="n">
-        <v>0.06401505761242882</v>
+        <v>0.06401505761242887</v>
+      </c>
+      <c r="M13" t="n">
+        <v>22789.36051002468</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -980,10 +1021,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.84807</v>
+        <v>50.7380046</v>
       </c>
       <c r="D14" t="n">
-        <v>50.74609</v>
+        <v>-1.9883161</v>
       </c>
       <c r="E14" t="n">
         <v>354000</v>
@@ -1007,12 +1048,15 @@
         <v>3241.944996434155</v>
       </c>
       <c r="L14" t="n">
-        <v>0.452541856016475</v>
+        <v>0.4525418560164751</v>
+      </c>
+      <c r="M14" t="n">
+        <v>160199.8170298322</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1020,10 +1064,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.56257</v>
+        <v>51.23622</v>
       </c>
       <c r="D15" t="n">
-        <v>51.25366</v>
+        <v>-0.5704090000000001</v>
       </c>
       <c r="E15" t="n">
         <v>339000</v>
@@ -1047,12 +1091,15 @@
         <v>3115.354903023215</v>
       </c>
       <c r="L15" t="n">
-        <v>0.06903965748740287</v>
+        <v>0.06903965748740282</v>
+      </c>
+      <c r="M15" t="n">
+        <v>23404.44388822955</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1060,10 +1107,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.22021</v>
+        <v>51.299173</v>
       </c>
       <c r="D16" t="n">
-        <v>51.25937</v>
+        <v>-1.1782681</v>
       </c>
       <c r="E16" t="n">
         <v>326000</v>
@@ -1089,18 +1136,25 @@
       <c r="L16" t="n">
         <v>0.1269766377985806</v>
       </c>
+      <c r="M16" t="n">
+        <v>41394.38392233727</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Wycombe</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>51.638511</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.8078596</v>
+      </c>
       <c r="E17" t="n">
         <v>325000</v>
       </c>
@@ -1123,12 +1177,15 @@
         <v>14145.9482867696</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01965367791230405</v>
+        <v>0.0196536779123041</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6387.445321498833</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1136,10 +1193,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.46254</v>
+        <v>51.4195668</v>
       </c>
       <c r="D18" t="n">
-        <v>51.41552</v>
+        <v>-0.4580861</v>
       </c>
       <c r="E18" t="n">
         <v>312000</v>
@@ -1165,10 +1222,13 @@
       <c r="L18" t="n">
         <v>0.07651008031572537</v>
       </c>
+      <c r="M18" t="n">
+        <v>23871.14505850631</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1176,10 +1236,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.7407</v>
+        <v>52.0406224</v>
       </c>
       <c r="D19" t="n">
-        <v>52.07241</v>
+        <v>-0.7594171</v>
       </c>
       <c r="E19" t="n">
         <v>297000</v>
@@ -1203,12 +1263,15 @@
         <v>26701.9620683992</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05642785792262454</v>
+        <v>0.0564278579226245</v>
+      </c>
+      <c r="M19" t="n">
+        <v>16759.07380301948</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1216,10 +1279,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.39441</v>
+        <v>51.3673135</v>
       </c>
       <c r="D20" t="n">
-        <v>51.36098</v>
+        <v>-0.3983625</v>
       </c>
       <c r="E20" t="n">
         <v>295000</v>
@@ -1243,12 +1306,15 @@
         <v>2018.370945017177</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01941402726055882</v>
+        <v>0.01941402726055896</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5727.138041864894</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1256,10 +1322,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-1.27364</v>
+        <v>51.4308255</v>
       </c>
       <c r="D21" t="n">
-        <v>51.44559</v>
+        <v>-1.1444927</v>
       </c>
       <c r="E21" t="n">
         <v>282000</v>
@@ -1283,12 +1349,15 @@
         <v>8541.54601451204</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1461541718900135</v>
+        <v>0.1461541718900136</v>
+      </c>
+      <c r="M21" t="n">
+        <v>41215.47647298383</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1296,10 +1365,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.57982</v>
+        <v>51.316774</v>
       </c>
       <c r="D22" t="n">
-        <v>51.30837</v>
+        <v>-0.5600349</v>
       </c>
       <c r="E22" t="n">
         <v>278000</v>
@@ -1325,10 +1394,13 @@
       <c r="L22" t="n">
         <v>0.1604036878937529</v>
       </c>
+      <c r="M22" t="n">
+        <v>44592.22523446331</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1336,10 +1408,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.15079</v>
+        <v>50.8226288</v>
       </c>
       <c r="D23" t="n">
-        <v>50.8465</v>
+        <v>-0.137047</v>
       </c>
       <c r="E23" t="n">
         <v>273000</v>
@@ -1365,10 +1437,13 @@
       <c r="L23" t="n">
         <v>0.3020988454294885</v>
       </c>
+      <c r="M23" t="n">
+        <v>82472.98480225036</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1376,10 +1451,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-1.88141</v>
+        <v>52.4822694</v>
       </c>
       <c r="D24" t="n">
-        <v>52.48404</v>
+        <v>-1.8900078</v>
       </c>
       <c r="E24" t="n">
         <v>271000</v>
@@ -1405,10 +1480,13 @@
       <c r="L24" t="n">
         <v>0.2506531315457368</v>
       </c>
+      <c r="M24" t="n">
+        <v>67926.99864889466</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1416,10 +1494,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-3.22209</v>
+        <v>51.483707</v>
       </c>
       <c r="D25" t="n">
-        <v>51.50254</v>
+        <v>-3.1680962</v>
       </c>
       <c r="E25" t="n">
         <v>268000</v>
@@ -1443,12 +1521,15 @@
         <v>32722.06697376205</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5239256584783955</v>
+        <v>0.5239256584783953</v>
+      </c>
+      <c r="M25" t="n">
+        <v>140412.0764722099</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1456,10 +1537,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.89935</v>
+        <v>51.410457</v>
       </c>
       <c r="D26" t="n">
-        <v>51.42296</v>
+        <v>-0.833861</v>
       </c>
       <c r="E26" t="n">
         <v>256000</v>
@@ -1483,12 +1564,15 @@
         <v>2416.979202530733</v>
       </c>
       <c r="L26" t="n">
-        <v>0.06931202623183261</v>
+        <v>0.06931202623183252</v>
+      </c>
+      <c r="M26" t="n">
+        <v>17743.87871534912</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1496,10 +1580,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-1.07847</v>
+        <v>51.6361801</v>
       </c>
       <c r="D27" t="n">
-        <v>51.62288</v>
+        <v>-1.0961011</v>
       </c>
       <c r="E27" t="n">
         <v>256000</v>
@@ -1525,10 +1609,13 @@
       <c r="L27" t="n">
         <v>0.1603852664046307</v>
       </c>
+      <c r="M27" t="n">
+        <v>41058.62819958546</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1536,10 +1623,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.40429</v>
+        <v>51.66112829999999</v>
       </c>
       <c r="D28" t="n">
-        <v>51.6717</v>
+        <v>-0.3970199</v>
       </c>
       <c r="E28" t="n">
         <v>255000</v>
@@ -1563,12 +1650,15 @@
         <v>7108.217709649919</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0491103598798948</v>
+        <v>0.04911035987989476</v>
+      </c>
+      <c r="M28" t="n">
+        <v>12523.14176937316</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1576,10 +1666,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-2.48654</v>
+        <v>51.3250102</v>
       </c>
       <c r="D29" t="n">
-        <v>51.35604</v>
+        <v>-2.4766241</v>
       </c>
       <c r="E29" t="n">
         <v>245000</v>
@@ -1603,12 +1693,15 @@
         <v>27435.49658784738</v>
       </c>
       <c r="L29" t="n">
-        <v>0.448818483734738</v>
+        <v>0.4488184837347381</v>
+      </c>
+      <c r="M29" t="n">
+        <v>109960.5285150108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1616,10 +1709,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-1.1304</v>
+        <v>52.6368778</v>
       </c>
       <c r="D30" t="n">
-        <v>52.63592</v>
+        <v>-1.1397592</v>
       </c>
       <c r="E30" t="n">
         <v>242000</v>
@@ -1645,10 +1738,13 @@
       <c r="L30" t="n">
         <v>0.2523516513758749</v>
       </c>
+      <c r="M30" t="n">
+        <v>61069.09963296173</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1656,10 +1752,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-1.73367</v>
+        <v>51.5581438</v>
       </c>
       <c r="D31" t="n">
-        <v>51.57763</v>
+        <v>-1.7798258</v>
       </c>
       <c r="E31" t="n">
         <v>241000</v>
@@ -1683,12 +1779,15 @@
         <v>19056.23660395202</v>
       </c>
       <c r="L31" t="n">
-        <v>0.1060057338955038</v>
+        <v>0.1060057338955037</v>
+      </c>
+      <c r="M31" t="n">
+        <v>25547.3818688164</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1696,10 +1795,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-2.41467</v>
+        <v>50.7487635</v>
       </c>
       <c r="D32" t="n">
-        <v>50.79697</v>
+        <v>-2.3444786</v>
       </c>
       <c r="E32" t="n">
         <v>231000</v>
@@ -1725,18 +1824,25 @@
       <c r="L32" t="n">
         <v>0.2419265601885421</v>
       </c>
+      <c r="M32" t="n">
+        <v>55885.03540355322</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>South Bucks</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>51.6023284</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.6319694</v>
+      </c>
       <c r="E33" t="n">
         <v>222000</v>
       </c>
@@ -1759,12 +1865,15 @@
         <v>952.8823828140338</v>
       </c>
       <c r="L33" t="n">
-        <v>0.05865613308286646</v>
+        <v>0.05865613308286655</v>
+      </c>
+      <c r="M33" t="n">
+        <v>13021.66154439637</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1772,10 +1881,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-4.64254</v>
+        <v>50.26604709999999</v>
       </c>
       <c r="D34" t="n">
-        <v>50.45022</v>
+        <v>-5.0527125</v>
       </c>
       <c r="E34" t="n">
         <v>221000</v>
@@ -1801,10 +1910,13 @@
       <c r="L34" t="n">
         <v>0.2569051880469488</v>
       </c>
+      <c r="M34" t="n">
+        <v>56776.0465583757</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1812,10 +1924,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.53855</v>
+        <v>51.40871929999999</v>
       </c>
       <c r="D35" t="n">
-        <v>51.39273</v>
+        <v>-0.5405584999999999</v>
       </c>
       <c r="E35" t="n">
         <v>219000</v>
@@ -1839,12 +1951,15 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0490516228440025</v>
+        <v>0.04905162284400255</v>
+      </c>
+      <c r="M35" t="n">
+        <v>10742.30540283656</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1852,10 +1967,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.73363</v>
+        <v>51.4153828</v>
       </c>
       <c r="D36" t="n">
-        <v>51.4113</v>
+        <v>-0.7536495</v>
       </c>
       <c r="E36" t="n">
         <v>215000</v>
@@ -1879,12 +1994,15 @@
         <v>6705.100880800178</v>
       </c>
       <c r="L36" t="n">
-        <v>0.05817477011190146</v>
+        <v>0.05817477011190142</v>
+      </c>
+      <c r="M36" t="n">
+        <v>12507.5755740588</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1892,10 +2010,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-1.07006</v>
+        <v>50.8197675</v>
       </c>
       <c r="D37" t="n">
-        <v>50.808</v>
+        <v>-1.0879769</v>
       </c>
       <c r="E37" t="n">
         <v>207000</v>
@@ -1919,12 +2037,15 @@
         <v>11189.7482309332</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1714682836997937</v>
+        <v>0.1714682836997936</v>
+      </c>
+      <c r="M37" t="n">
+        <v>35493.93472585727</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1932,10 +2053,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-1.51908</v>
+        <v>52.4128163</v>
       </c>
       <c r="D38" t="n">
-        <v>52.41423</v>
+        <v>-1.5089521</v>
       </c>
       <c r="E38" t="n">
         <v>200000</v>
@@ -1959,20 +2080,27 @@
         <v>41083.36646020364</v>
       </c>
       <c r="L38" t="n">
-        <v>0.3945486652869495</v>
+        <v>0.3945486652869494</v>
+      </c>
+      <c r="M38" t="n">
+        <v>78909.73305738988</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Aylesbury Vale</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>51.81767259999999</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.8194542</v>
+      </c>
       <c r="E39" t="n">
         <v>200000</v>
       </c>
@@ -1995,12 +2123,15 @@
         <v>6870.037475423024</v>
       </c>
       <c r="L39" t="n">
-        <v>0.01469026279038413</v>
+        <v>0.0146902627903841</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2938.05255807682</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2008,10 +2139,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.68986</v>
+        <v>51.3346227</v>
       </c>
       <c r="D40" t="n">
-        <v>51.3361</v>
+        <v>-0.6689303000000001</v>
       </c>
       <c r="E40" t="n">
         <v>196000</v>
@@ -2037,10 +2168,13 @@
       <c r="L40" t="n">
         <v>0.004540127122604209</v>
       </c>
+      <c r="M40" t="n">
+        <v>889.8649160304251</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2048,10 +2182,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.42319</v>
+        <v>51.8786707</v>
       </c>
       <c r="D41" t="n">
-        <v>51.89102</v>
+        <v>-0.4200255</v>
       </c>
       <c r="E41" t="n">
         <v>184000</v>
@@ -2075,12 +2209,15 @@
         <v>22462.02714682848</v>
       </c>
       <c r="L41" t="n">
-        <v>0.1048582060269963</v>
+        <v>0.1048582060269965</v>
+      </c>
+      <c r="M41" t="n">
+        <v>19293.90990896735</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2088,10 +2225,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-1.16667</v>
+        <v>52.9540223</v>
       </c>
       <c r="D42" t="n">
-        <v>52.95419</v>
+        <v>-1.1549892</v>
       </c>
       <c r="E42" t="n">
         <v>167000</v>
@@ -2117,10 +2254,13 @@
       <c r="L42" t="n">
         <v>0.3175150027730774</v>
       </c>
+      <c r="M42" t="n">
+        <v>53025.00546310393</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2128,10 +2268,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.3407</v>
+        <v>51.752725</v>
       </c>
       <c r="D43" t="n">
-        <v>51.77356</v>
+        <v>-0.339436</v>
       </c>
       <c r="E43" t="n">
         <v>165000</v>
@@ -2155,12 +2295,15 @@
         <v>9885.31490399607</v>
       </c>
       <c r="L43" t="n">
-        <v>0.05304572405775529</v>
+        <v>0.05304572405775521</v>
+      </c>
+      <c r="M43" t="n">
+        <v>8752.544469529608</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2168,10 +2311,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.47754</v>
+        <v>52.0029744</v>
       </c>
       <c r="D44" t="n">
-        <v>51.99903</v>
+        <v>-0.4651388999999999</v>
       </c>
       <c r="E44" t="n">
         <v>164000</v>
@@ -2195,12 +2338,15 @@
         <v>7043.216398288227</v>
       </c>
       <c r="L44" t="n">
-        <v>0.05967027991456242</v>
+        <v>0.05967027991456231</v>
+      </c>
+      <c r="M44" t="n">
+        <v>9785.925905988219</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2208,10 +2354,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-1.28506</v>
+        <v>51.8884129</v>
       </c>
       <c r="D45" t="n">
-        <v>51.8872</v>
+        <v>-1.2034285</v>
       </c>
       <c r="E45" t="n">
         <v>156000</v>
@@ -2237,10 +2383,13 @@
       <c r="L45" t="n">
         <v>0.3115641910536096</v>
       </c>
+      <c r="M45" t="n">
+        <v>48604.01380436309</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2248,10 +2397,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-1.48543</v>
+        <v>51.6319428</v>
       </c>
       <c r="D46" t="n">
-        <v>51.65443</v>
+        <v>-1.4829103</v>
       </c>
       <c r="E46" t="n">
         <v>156000</v>
@@ -2276,6 +2425,9 @@
       </c>
       <c r="L46" t="n">
         <v>0.3031942156927058</v>
+      </c>
+      <c r="M46" t="n">
+        <v>47298.2976480621</v>
       </c>
     </row>
     <row r="47">
@@ -2288,10 +2440,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>-1.50736</v>
+        <v>53.8007554</v>
       </c>
       <c r="D47" t="n">
-        <v>53.82273</v>
+        <v>-1.5490774</v>
       </c>
       <c r="E47" t="n">
         <v>154000</v>
@@ -2317,10 +2469,13 @@
       <c r="L47" t="n">
         <v>0.1937595976277895</v>
       </c>
+      <c r="M47" t="n">
+        <v>29838.97803467958</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2328,10 +2483,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>-1.24393</v>
+        <v>51.059771</v>
       </c>
       <c r="D48" t="n">
-        <v>51.03002</v>
+        <v>-1.310142</v>
       </c>
       <c r="E48" t="n">
         <v>154000</v>
@@ -2355,12 +2510,15 @@
         <v>2787.817636868106</v>
       </c>
       <c r="L48" t="n">
-        <v>0.1605702580713813</v>
+        <v>0.1605702580713814</v>
+      </c>
+      <c r="M48" t="n">
+        <v>24727.81974299273</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2368,10 +2526,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>-3.96723</v>
+        <v>51.62144</v>
       </c>
       <c r="D49" t="n">
-        <v>51.65806</v>
+        <v>-3.943645999999999</v>
       </c>
       <c r="E49" t="n">
         <v>151000</v>
@@ -2395,12 +2553,15 @@
         <v>38906.31685423815</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3020313473099315</v>
+        <v>0.3020313473099316</v>
+      </c>
+      <c r="M49" t="n">
+        <v>45606.73344379968</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2408,10 +2569,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.652769</v>
+        <v>52.1872472</v>
       </c>
       <c r="D50" t="n">
-        <v>52.30842</v>
+        <v>0.9707800999999999</v>
       </c>
       <c r="E50" t="n">
         <v>149000</v>
@@ -2437,10 +2598,13 @@
       <c r="L50" t="n">
         <v>0.1311988089774173</v>
       </c>
+      <c r="M50" t="n">
+        <v>19548.62253763518</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2448,10 +2612,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.55098</v>
+        <v>51.74563699999999</v>
       </c>
       <c r="D51" t="n">
-        <v>51.76845</v>
+        <v>-0.4993067999999999</v>
       </c>
       <c r="E51" t="n">
         <v>148000</v>
@@ -2475,20 +2639,27 @@
         <v>5212.937469889953</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0922563834314695</v>
+        <v>0.09225638343146947</v>
+      </c>
+      <c r="M51" t="n">
+        <v>13653.94474785748</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Chiltern</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+      <c r="C52" t="n">
+        <v>51.6606074</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.6409481</v>
+      </c>
       <c r="E52" t="n">
         <v>145000</v>
       </c>
@@ -2511,12 +2682,15 @@
         <v>4080.715472190348</v>
       </c>
       <c r="L52" t="n">
-        <v>0.07969290481861196</v>
+        <v>0.07969290481861202</v>
+      </c>
+      <c r="M52" t="n">
+        <v>11555.47119869874</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2524,10 +2698,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>-0.8832100000000001</v>
+        <v>51.3016959</v>
       </c>
       <c r="D53" t="n">
-        <v>51.28197</v>
+        <v>-0.8929571000000001</v>
       </c>
       <c r="E53" t="n">
         <v>141000</v>
@@ -2551,12 +2725,15 @@
         <v>1903.091282658017</v>
       </c>
       <c r="L53" t="n">
-        <v>0.04191088172776899</v>
+        <v>0.04191088172776902</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5909.434323615432</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2564,10 +2741,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.096342</v>
+        <v>51.280233</v>
       </c>
       <c r="D54" t="n">
-        <v>51.28102</v>
+        <v>1.0789089</v>
       </c>
       <c r="E54" t="n">
         <v>135000</v>
@@ -2591,12 +2768,15 @@
         <v>43692.28586030868</v>
       </c>
       <c r="L54" t="n">
-        <v>0.1126411835524817</v>
+        <v>0.1126411835524816</v>
+      </c>
+      <c r="M54" t="n">
+        <v>15206.55977958502</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2604,10 +2784,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-1.59293</v>
+        <v>50.8758752</v>
       </c>
       <c r="D55" t="n">
-        <v>50.85748</v>
+        <v>-1.6327718</v>
       </c>
       <c r="E55" t="n">
         <v>126000</v>
@@ -2633,10 +2813,13 @@
       <c r="L55" t="n">
         <v>0.2517213741662527</v>
       </c>
+      <c r="M55" t="n">
+        <v>31716.89314494784</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2644,10 +2827,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.859777</v>
+        <v>51.895927</v>
       </c>
       <c r="D56" t="n">
-        <v>51.87702</v>
+        <v>0.8918740000000001</v>
       </c>
       <c r="E56" t="n">
         <v>125000</v>
@@ -2671,12 +2854,15 @@
         <v>27648.91314654219</v>
       </c>
       <c r="L56" t="n">
-        <v>0.1456015551442073</v>
+        <v>0.1456015551442074</v>
+      </c>
+      <c r="M56" t="n">
+        <v>18200.19439302592</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2684,10 +2870,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>-0.76807</v>
+        <v>51.2711826</v>
       </c>
       <c r="D57" t="n">
-        <v>51.27815</v>
+        <v>-0.7618473</v>
       </c>
       <c r="E57" t="n">
         <v>123000</v>
@@ -2713,10 +2899,13 @@
       <c r="L57" t="n">
         <v>0.06667198482589298</v>
       </c>
+      <c r="M57" t="n">
+        <v>8200.654133584836</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2724,10 +2913,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>-0.30603</v>
+        <v>51.234566</v>
       </c>
       <c r="D58" t="n">
-        <v>51.22749</v>
+        <v>-0.3264952</v>
       </c>
       <c r="E58" t="n">
         <v>119000</v>
@@ -2751,12 +2940,15 @@
         <v>3711.705811782064</v>
       </c>
       <c r="L58" t="n">
-        <v>0.01978810263068347</v>
+        <v>0.01978810263068342</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2354.784213051327</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2764,10 +2956,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>-0.62343</v>
+        <v>51.1565897</v>
       </c>
       <c r="D59" t="n">
-        <v>51.15686</v>
+        <v>-0.6764416999999999</v>
       </c>
       <c r="E59" t="n">
         <v>118000</v>
@@ -2791,12 +2983,15 @@
         <v>1633.562370638715</v>
       </c>
       <c r="L59" t="n">
-        <v>0.07528751738900458</v>
+        <v>0.07528751738900452</v>
+      </c>
+      <c r="M59" t="n">
+        <v>8883.927051902534</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2804,10 +2999,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>-0.45005</v>
+        <v>51.6509104</v>
       </c>
       <c r="D60" t="n">
-        <v>51.65632</v>
+        <v>-0.4618996</v>
       </c>
       <c r="E60" t="n">
         <v>117000</v>
@@ -2831,12 +3026,15 @@
         <v>4547.356768395935</v>
       </c>
       <c r="L60" t="n">
-        <v>0.07240904026580675</v>
+        <v>0.07240904026580686</v>
+      </c>
+      <c r="M60" t="n">
+        <v>8471.857711099403</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2844,10 +3042,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.563174</v>
+        <v>51.4047432</v>
       </c>
       <c r="D61" t="n">
-        <v>51.44772</v>
+        <v>0.5417860999999999</v>
       </c>
       <c r="E61" t="n">
         <v>117000</v>
@@ -2871,12 +3069,15 @@
         <v>23057.29419091919</v>
       </c>
       <c r="L61" t="n">
-        <v>0.02172908855838662</v>
+        <v>0.02172908855838673</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2542.303361331248</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2884,10 +3085,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.491177</v>
+        <v>51.7355868</v>
       </c>
       <c r="D62" t="n">
-        <v>51.73503</v>
+        <v>0.4685497</v>
       </c>
       <c r="E62" t="n">
         <v>117000</v>
@@ -2911,12 +3112,15 @@
         <v>17571.90119315959</v>
       </c>
       <c r="L62" t="n">
-        <v>0.03040657245565898</v>
+        <v>0.03040657245565903</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3557.568977312107</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2924,10 +3128,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-3.51368</v>
+        <v>50.72603669999999</v>
       </c>
       <c r="D63" t="n">
-        <v>50.71782</v>
+        <v>-3.5274889</v>
       </c>
       <c r="E63" t="n">
         <v>116000</v>
@@ -2953,18 +3157,25 @@
       <c r="L63" t="n">
         <v>0.4167443499950159</v>
       </c>
+      <c r="M63" t="n">
+        <v>48342.34459942184</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Northampton</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
+      <c r="C64" t="n">
+        <v>52.23706499999999</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.8944420999999999</v>
+      </c>
       <c r="E64" t="n">
         <v>115000</v>
       </c>
@@ -2987,12 +3198,15 @@
         <v>3648.378017794358</v>
       </c>
       <c r="L64" t="n">
-        <v>0.09939661632201643</v>
+        <v>0.09939661632201646</v>
+      </c>
+      <c r="M64" t="n">
+        <v>11430.61087703189</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -3000,10 +3214,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-2.46922</v>
+        <v>51.5264361</v>
       </c>
       <c r="D65" t="n">
-        <v>51.54673</v>
+        <v>-2.4728487</v>
       </c>
       <c r="E65" t="n">
         <v>115000</v>
@@ -3027,12 +3241,15 @@
         <v>439.998677022748</v>
       </c>
       <c r="L65" t="n">
-        <v>0.3447326730820697</v>
+        <v>0.3447326730820698</v>
+      </c>
+      <c r="M65" t="n">
+        <v>39644.25740443802</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3040,10 +3257,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>-2.15888</v>
+        <v>53.0033369</v>
       </c>
       <c r="D66" t="n">
-        <v>53.01707</v>
+        <v>-2.1827408</v>
       </c>
       <c r="E66" t="n">
         <v>111000</v>
@@ -3069,10 +3286,13 @@
       <c r="L66" t="n">
         <v>0.3045986939518995</v>
       </c>
+      <c r="M66" t="n">
+        <v>33810.45502866085</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3080,10 +3300,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.091017</v>
+        <v>52.1487594</v>
       </c>
       <c r="D67" t="n">
-        <v>52.10805</v>
+        <v>0.0480241</v>
       </c>
       <c r="E67" t="n">
         <v>110000</v>
@@ -3107,12 +3327,15 @@
         <v>30310.79842544036</v>
       </c>
       <c r="L67" t="n">
-        <v>0.09111374105737075</v>
+        <v>0.09111374105737069</v>
+      </c>
+      <c r="M67" t="n">
+        <v>10022.51151631078</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3120,10 +3343,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>-2.07515</v>
+        <v>51.8993855</v>
       </c>
       <c r="D68" t="n">
-        <v>51.89861</v>
+        <v>-2.0782533</v>
       </c>
       <c r="E68" t="n">
         <v>110000</v>
@@ -3147,7 +3370,10 @@
         <v>7347.300078774931</v>
       </c>
       <c r="L68" t="n">
-        <v>0.2864835098503623</v>
+        <v>0.2864835098503622</v>
+      </c>
+      <c r="M68" t="n">
+        <v>31513.18608353984</v>
       </c>
     </row>
     <row r="69">
@@ -3160,10 +3386,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-0.19871</v>
+        <v>51.3058308</v>
       </c>
       <c r="D69" t="n">
-        <v>51.25846</v>
+        <v>-0.2193665</v>
       </c>
       <c r="E69" t="n">
         <v>108000</v>
@@ -3187,12 +3413,15 @@
         <v>4464.980516439015</v>
       </c>
       <c r="L69" t="n">
-        <v>0.1039125799978342</v>
+        <v>0.1039125799978341</v>
+      </c>
+      <c r="M69" t="n">
+        <v>11222.55863976608</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3200,10 +3429,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.45463</v>
+        <v>52.1386603</v>
       </c>
       <c r="D70" t="n">
-        <v>52.19628</v>
+        <v>-0.4667687</v>
       </c>
       <c r="E70" t="n">
         <v>108000</v>
@@ -3227,7 +3456,10 @@
         <v>10444.72965734208</v>
       </c>
       <c r="L70" t="n">
-        <v>0.044262265379721</v>
+        <v>0.04426226537972111</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4780.32466100988</v>
       </c>
     </row>
     <row r="71">
@@ -3240,10 +3472,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>-0.26899</v>
+        <v>51.6619501</v>
       </c>
       <c r="D71" t="n">
-        <v>51.68017</v>
+        <v>-0.3075666</v>
       </c>
       <c r="E71" t="n">
         <v>107000</v>
@@ -3267,12 +3499,15 @@
         <v>11893.36226931807</v>
       </c>
       <c r="L71" t="n">
-        <v>0.07636777513579115</v>
+        <v>0.07636777513579118</v>
+      </c>
+      <c r="M71" t="n">
+        <v>8171.351939529656</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3280,10 +3515,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>-0.9397</v>
+        <v>51.1187851</v>
       </c>
       <c r="D72" t="n">
-        <v>51.05765</v>
+        <v>-0.8749889999999999</v>
       </c>
       <c r="E72" t="n">
         <v>107000</v>
@@ -3307,12 +3542,15 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.02693413191062433</v>
+        <v>0.02693413191062421</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2881.952114436791</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3320,10 +3558,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>-0.26874</v>
+        <v>52.57031689999999</v>
       </c>
       <c r="D73" t="n">
-        <v>52.59214</v>
+        <v>-0.2407996999999999</v>
       </c>
       <c r="E73" t="n">
         <v>107000</v>
@@ -3347,12 +3585,15 @@
         <v>21146.41483997046</v>
       </c>
       <c r="L73" t="n">
-        <v>1.387778780781446e-16</v>
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3360,10 +3601,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-0.22315</v>
+        <v>51.9578206</v>
       </c>
       <c r="D74" t="n">
-        <v>51.95737</v>
+        <v>-0.2149955</v>
       </c>
       <c r="E74" t="n">
         <v>106000</v>
@@ -3387,12 +3628,15 @@
         <v>21281.56262833096</v>
       </c>
       <c r="L74" t="n">
-        <v>0.02880311018230222</v>
+        <v>0.02880311018230219</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3053.129679324033</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3400,10 +3644,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>-0.7163</v>
+        <v>50.83761000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>50.94177</v>
+        <v>-0.774936</v>
       </c>
       <c r="E75" t="n">
         <v>106000</v>
@@ -3427,12 +3671,15 @@
         <v>6399.96104809014</v>
       </c>
       <c r="L75" t="n">
-        <v>0.07356968120798865</v>
+        <v>0.07356968120798868</v>
+      </c>
+      <c r="M75" t="n">
+        <v>7798.3862080468</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3440,10 +3687,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.294485</v>
+        <v>51.9789421</v>
       </c>
       <c r="D76" t="n">
-        <v>51.93592</v>
+        <v>0.2391245</v>
       </c>
       <c r="E76" t="n">
         <v>106000</v>
@@ -3469,10 +3716,13 @@
       <c r="L76" t="n">
         <v>0.1898998314902022</v>
       </c>
+      <c r="M76" t="n">
+        <v>20129.38213796143</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3480,10 +3730,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-1.50214</v>
+        <v>51.1273626</v>
       </c>
       <c r="D77" t="n">
-        <v>51.13417</v>
+        <v>-1.5518375</v>
       </c>
       <c r="E77" t="n">
         <v>106000</v>
@@ -3507,12 +3757,15 @@
         <v>3099.901106921647</v>
       </c>
       <c r="L77" t="n">
-        <v>0.1488954145710701</v>
+        <v>0.14889541457107</v>
+      </c>
+      <c r="M77" t="n">
+        <v>15782.91394453342</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3520,10 +3773,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>-0.2247</v>
+        <v>52.33146</v>
       </c>
       <c r="D78" t="n">
-        <v>52.35315</v>
+        <v>-0.182552</v>
       </c>
       <c r="E78" t="n">
         <v>105000</v>
@@ -3547,12 +3800,15 @@
         <v>25075.60544419649</v>
       </c>
       <c r="L78" t="n">
-        <v>0.06380920267179749</v>
+        <v>0.06380920267179757</v>
+      </c>
+      <c r="M78" t="n">
+        <v>6699.966280538745</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3560,10 +3816,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>-0.26172</v>
+        <v>51.3362231</v>
       </c>
       <c r="D79" t="n">
-        <v>51.33945</v>
+        <v>-0.2688232</v>
       </c>
       <c r="E79" t="n">
         <v>102000</v>
@@ -3587,12 +3843,15 @@
         <v>1727.454817501908</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05449249464679685</v>
+        <v>0.05449249464679684</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5558.234453973278</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3600,10 +3859,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.18518</v>
+        <v>51.7465017</v>
       </c>
       <c r="D80" t="n">
-        <v>51.76087</v>
+        <v>-0.2133693</v>
       </c>
       <c r="E80" t="n">
         <v>100000</v>
@@ -3629,10 +3888,13 @@
       <c r="L80" t="n">
         <v>0.04873389215488499</v>
       </c>
+      <c r="M80" t="n">
+        <v>4873.3892154885</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -3640,10 +3902,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>-1.97059</v>
+        <v>51.794968</v>
       </c>
       <c r="D81" t="n">
-        <v>51.77255</v>
+        <v>-1.8838937</v>
       </c>
       <c r="E81" t="n">
         <v>99000</v>
@@ -3669,10 +3931,13 @@
       <c r="L81" t="n">
         <v>0.1198499180708242</v>
       </c>
+      <c r="M81" t="n">
+        <v>11865.1418890116</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -3680,10 +3945,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-1.54254</v>
+        <v>53.38112899999999</v>
       </c>
       <c r="D82" t="n">
-        <v>53.40358</v>
+        <v>-1.470085</v>
       </c>
       <c r="E82" t="n">
         <v>96000</v>
@@ -3709,10 +3974,13 @@
       <c r="L82" t="n">
         <v>0.1997520135801623</v>
       </c>
+      <c r="M82" t="n">
+        <v>19176.19330369558</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -3720,10 +3988,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-1.58369</v>
+        <v>52.28231599999999</v>
       </c>
       <c r="D83" t="n">
-        <v>52.30142</v>
+        <v>-1.584927</v>
       </c>
       <c r="E83" t="n">
         <v>96000</v>
@@ -3747,12 +4015,15 @@
         <v>18581.19570126094</v>
       </c>
       <c r="L83" t="n">
-        <v>0.08707469768407874</v>
+        <v>0.08707469768407872</v>
+      </c>
+      <c r="M83" t="n">
+        <v>8359.170977671556</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -3760,10 +4031,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>-4.11297</v>
+        <v>50.3754565</v>
       </c>
       <c r="D84" t="n">
-        <v>50.40494</v>
+        <v>-4.1426565</v>
       </c>
       <c r="E84" t="n">
         <v>95000</v>
@@ -3789,10 +4060,13 @@
       <c r="L84" t="n">
         <v>0.4019701454638945</v>
       </c>
+      <c r="M84" t="n">
+        <v>38187.16381906998</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -3800,10 +4074,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.154147</v>
+        <v>51.6570766</v>
       </c>
       <c r="D85" t="n">
-        <v>51.7128</v>
+        <v>0.0412824</v>
       </c>
       <c r="E85" t="n">
         <v>95000</v>
@@ -3827,12 +4101,15 @@
         <v>27322.84878309595</v>
       </c>
       <c r="L85" t="n">
-        <v>0.01624231494894873</v>
+        <v>0.01624231494894879</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1543.019920150135</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -3840,10 +4117,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.5840610000000001</v>
+        <v>51.2704083</v>
       </c>
       <c r="D86" t="n">
-        <v>51.23566</v>
+        <v>0.5227244999999999</v>
       </c>
       <c r="E86" t="n">
         <v>93000</v>
@@ -3867,12 +4144,15 @@
         <v>13040.82726442025</v>
       </c>
       <c r="L86" t="n">
-        <v>-8.326672684688674e-17</v>
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -3880,10 +4160,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.349306</v>
+        <v>51.2836053</v>
       </c>
       <c r="D87" t="n">
-        <v>51.26064</v>
+        <v>0.350279</v>
       </c>
       <c r="E87" t="n">
         <v>92000</v>
@@ -3909,10 +4189,13 @@
       <c r="L87" t="n">
         <v>0.01293564783470924</v>
       </c>
+      <c r="M87" t="n">
+        <v>1190.07960079325</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -3920,10 +4203,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>-2.23263</v>
+        <v>51.8642449</v>
       </c>
       <c r="D88" t="n">
-        <v>51.84641</v>
+        <v>-2.238156</v>
       </c>
       <c r="E88" t="n">
         <v>91000</v>
@@ -3949,10 +4232,13 @@
       <c r="L88" t="n">
         <v>0.2856661265377257</v>
       </c>
+      <c r="M88" t="n">
+        <v>25995.61751493304</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -3960,10 +4246,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-1.50292</v>
+        <v>51.8005816</v>
       </c>
       <c r="D89" t="n">
-        <v>51.8399</v>
+        <v>-1.4919143</v>
       </c>
       <c r="E89" t="n">
         <v>89000</v>
@@ -3987,12 +4273,15 @@
         <v>2973.184556631846</v>
       </c>
       <c r="L89" t="n">
-        <v>0.3865235831583809</v>
+        <v>0.386523583158381</v>
+      </c>
+      <c r="M89" t="n">
+        <v>34400.59890109591</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -4000,10 +4289,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.276887</v>
+        <v>51.1278758</v>
       </c>
       <c r="D90" t="n">
-        <v>51.21176</v>
+        <v>1.3134027</v>
       </c>
       <c r="E90" t="n">
         <v>88000</v>
@@ -4027,7 +4316,10 @@
         <v>22407.42286103595</v>
       </c>
       <c r="L90" t="n">
-        <v>0.08636464850055164</v>
+        <v>0.08636464850055159</v>
+      </c>
+      <c r="M90" t="n">
+        <v>7600.08906804854</v>
       </c>
     </row>
     <row r="91">
@@ -4040,10 +4332,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1.166145</v>
+        <v>52.0596687</v>
       </c>
       <c r="D91" t="n">
-        <v>52.05592</v>
+        <v>1.1480867</v>
       </c>
       <c r="E91" t="n">
         <v>87000</v>
@@ -4068,6 +4360,9 @@
       </c>
       <c r="L91" t="n">
         <v>0.332497060019643</v>
+      </c>
+      <c r="M91" t="n">
+        <v>28927.24422170894</v>
       </c>
     </row>
     <row r="92">
@@ -4080,10 +4375,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.002739</v>
+        <v>51.8945409</v>
       </c>
       <c r="D92" t="n">
-        <v>51.86485</v>
+        <v>-0.0475868</v>
       </c>
       <c r="E92" t="n">
         <v>87000</v>
@@ -4107,12 +4402,15 @@
         <v>12307.37063746665</v>
       </c>
       <c r="L92" t="n">
-        <v>0.08529191829688315</v>
+        <v>0.08529191829688321</v>
+      </c>
+      <c r="M92" t="n">
+        <v>7420.396891828839</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -4120,10 +4418,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.284979</v>
+        <v>52.6292567</v>
       </c>
       <c r="D93" t="n">
-        <v>52.64013</v>
+        <v>1.2978802</v>
       </c>
       <c r="E93" t="n">
         <v>87000</v>
@@ -4148,6 +4446,9 @@
       </c>
       <c r="L93" t="n">
         <v>0.2531324217515937</v>
+      </c>
+      <c r="M93" t="n">
+        <v>22022.52069238865</v>
       </c>
     </row>
     <row r="94">
@@ -4160,10 +4461,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>-1.13694</v>
+        <v>52.7407093</v>
       </c>
       <c r="D94" t="n">
-        <v>52.7399</v>
+        <v>-1.1451461</v>
       </c>
       <c r="E94" t="n">
         <v>85000</v>
@@ -4187,12 +4488,15 @@
         <v>14296.41296883233</v>
       </c>
       <c r="L94" t="n">
-        <v>0.275827719027207</v>
+        <v>0.2758277190272069</v>
+      </c>
+      <c r="M94" t="n">
+        <v>23445.35611731259</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -4200,10 +4504,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.188936</v>
+        <v>51.27241000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>51.27563</v>
+        <v>0.190898</v>
       </c>
       <c r="E95" t="n">
         <v>85000</v>
@@ -4227,12 +4531,15 @@
         <v>12745.32628649625</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07842035175378989</v>
+        <v>0.07842035175378981</v>
+      </c>
+      <c r="M95" t="n">
+        <v>6665.729899072134</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -4240,10 +4547,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-3.22364</v>
+        <v>50.75859699999999</v>
       </c>
       <c r="D96" t="n">
-        <v>50.75761</v>
+        <v>-3.2591051</v>
       </c>
       <c r="E96" t="n">
         <v>84000</v>
@@ -4269,10 +4576,13 @@
       <c r="L96" t="n">
         <v>0.392485482572274</v>
       </c>
+      <c r="M96" t="n">
+        <v>32968.78053607102</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -4280,10 +4590,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-0.38126</v>
+        <v>51.062883</v>
       </c>
       <c r="D97" t="n">
-        <v>51.00272</v>
+        <v>-0.325858</v>
       </c>
       <c r="E97" t="n">
         <v>83000</v>
@@ -4307,12 +4617,15 @@
         <v>1453.312509120871</v>
       </c>
       <c r="L97" t="n">
-        <v>0.09500001676620003</v>
+        <v>0.09500001676620007</v>
+      </c>
+      <c r="M97" t="n">
+        <v>7885.001391594606</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -4320,10 +4633,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-2.30818</v>
+        <v>51.745734</v>
       </c>
       <c r="D98" t="n">
-        <v>51.72001</v>
+        <v>-2.217758</v>
       </c>
       <c r="E98" t="n">
         <v>83000</v>
@@ -4349,10 +4662,13 @@
       <c r="L98" t="n">
         <v>0.1205344254432721</v>
       </c>
+      <c r="M98" t="n">
+        <v>10004.35731179158</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -4360,10 +4676,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.471632</v>
+        <v>51.132377</v>
       </c>
       <c r="D99" t="n">
-        <v>51.10254</v>
+        <v>0.263695</v>
       </c>
       <c r="E99" t="n">
         <v>82000</v>
@@ -4387,12 +4703,15 @@
         <v>4782.740712290665</v>
       </c>
       <c r="L99" t="n">
-        <v>2.081668171172169e-17</v>
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -4400,10 +4719,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.475055</v>
+        <v>51.57608399999999</v>
       </c>
       <c r="D100" t="n">
-        <v>51.59036</v>
+        <v>0.488736</v>
       </c>
       <c r="E100" t="n">
         <v>81000</v>
@@ -4427,12 +4746,15 @@
         <v>7808.977803434242</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04480577109587601</v>
+        <v>0.04480577109587591</v>
+      </c>
+      <c r="M100" t="n">
+        <v>3629.267458765949</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -4440,10 +4762,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>-0.10272</v>
+        <v>51.0331579</v>
       </c>
       <c r="D101" t="n">
-        <v>51.05953</v>
+        <v>-0.1154553</v>
       </c>
       <c r="E101" t="n">
         <v>80000</v>
@@ -4467,12 +4789,15 @@
         <v>9392.146916246804</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2335310950303797</v>
+        <v>0.2335310950303798</v>
+      </c>
+      <c r="M101" t="n">
+        <v>18682.48760243038</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -4480,10 +4805,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.456186</v>
+        <v>52.1872472</v>
       </c>
       <c r="D102" t="n">
-        <v>52.24399</v>
+        <v>0.9707800999999999</v>
       </c>
       <c r="E102" t="n">
         <v>80000</v>
@@ -4507,12 +4832,15 @@
         <v>16947.76729346706</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09925506262984862</v>
+        <v>0.09925506262984851</v>
+      </c>
+      <c r="M102" t="n">
+        <v>7940.405010387881</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -4520,10 +4848,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>-2.73667</v>
+        <v>52.7063657</v>
       </c>
       <c r="D103" t="n">
-        <v>52.62212</v>
+        <v>-2.7417849</v>
       </c>
       <c r="E103" t="n">
         <v>79000</v>
@@ -4549,10 +4877,13 @@
       <c r="L103" t="n">
         <v>0.1882468931665968</v>
       </c>
+      <c r="M103" t="n">
+        <v>14871.50456016115</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -4560,10 +4891,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>-2.77588</v>
+        <v>51.02290660000001</v>
       </c>
       <c r="D104" t="n">
-        <v>50.98399</v>
+        <v>-2.7019371</v>
       </c>
       <c r="E104" t="n">
         <v>78000</v>
@@ -4589,10 +4920,13 @@
       <c r="L104" t="n">
         <v>0.09261670171641301</v>
       </c>
+      <c r="M104" t="n">
+        <v>7224.102733880215</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -4600,10 +4934,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>-2.75438</v>
+        <v>51.3879028</v>
       </c>
       <c r="D105" t="n">
-        <v>51.39706</v>
+        <v>-2.7781091</v>
       </c>
       <c r="E105" t="n">
         <v>78000</v>
@@ -4627,12 +4961,15 @@
         <v>4810.185989720216</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1665536109120825</v>
+        <v>0.1665536109120824</v>
+      </c>
+      <c r="M105" t="n">
+        <v>12991.18165114243</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -4640,10 +4977,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>-1.23742</v>
+        <v>50.8548464</v>
       </c>
       <c r="D106" t="n">
-        <v>50.85388</v>
+        <v>-1.1865868</v>
       </c>
       <c r="E106" t="n">
         <v>78000</v>
@@ -4669,10 +5006,13 @@
       <c r="L106" t="n">
         <v>0.2202141666118556</v>
       </c>
+      <c r="M106" t="n">
+        <v>17176.70499572473</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -4680,10 +5020,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>-2.38485</v>
+        <v>53.48752349999999</v>
       </c>
       <c r="D107" t="n">
-        <v>53.47927</v>
+        <v>-2.2901264</v>
       </c>
       <c r="E107" t="n">
         <v>77000</v>
@@ -4707,12 +5047,15 @@
         <v>40187.51587594854</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08757901386716849</v>
+        <v>0.08757901386716838</v>
+      </c>
+      <c r="M107" t="n">
+        <v>6743.584067771965</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -4720,10 +5063,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>-2.89769</v>
+        <v>51.584151</v>
       </c>
       <c r="D108" t="n">
-        <v>51.58231</v>
+        <v>-2.997664</v>
       </c>
       <c r="E108" t="n">
         <v>76000</v>
@@ -4749,10 +5092,13 @@
       <c r="L108" t="n">
         <v>0.4034681698673036</v>
       </c>
+      <c r="M108" t="n">
+        <v>30663.58090991508</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -4760,10 +5106,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>-0.04805</v>
+        <v>51.2271772</v>
       </c>
       <c r="D109" t="n">
-        <v>51.23581</v>
+        <v>-0.0472327</v>
       </c>
       <c r="E109" t="n">
         <v>72000</v>
@@ -4787,7 +5133,10 @@
         <v>3442.250371756895</v>
       </c>
       <c r="L109" t="n">
-        <v>-6.938893903907228e-18</v>
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -4799,8 +5148,12 @@
           <t>South Northamptonshire</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
+      <c r="C110" t="n">
+        <v>52.1443849</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-1.0182433</v>
+      </c>
       <c r="E110" t="n">
         <v>71000</v>
       </c>
@@ -4823,12 +5176,15 @@
         <v>11169.91051947757</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1257417738740342</v>
+        <v>0.1257417738740343</v>
+      </c>
+      <c r="M110" t="n">
+        <v>8927.665945056435</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -4836,10 +5192,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>-0.52407</v>
+        <v>53.60555919999999</v>
       </c>
       <c r="D111" t="n">
-        <v>53.58643</v>
+        <v>-0.5596582</v>
       </c>
       <c r="E111" t="n">
         <v>71000</v>
@@ -4865,10 +5221,13 @@
       <c r="L111" t="n">
         <v>0.3192623951460154</v>
       </c>
+      <c r="M111" t="n">
+        <v>22667.63005536709</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -4876,10 +5235,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>-0.18987</v>
+        <v>51.903761</v>
       </c>
       <c r="D112" t="n">
-        <v>51.90539</v>
+        <v>-0.196612</v>
       </c>
       <c r="E112" t="n">
         <v>69000</v>
@@ -4903,12 +5262,15 @@
         <v>14612.08162126421</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06912359922303099</v>
+        <v>0.06912359922303102</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4769.52834638914</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -4916,10 +5278,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.245276</v>
+        <v>51.44621</v>
       </c>
       <c r="D113" t="n">
-        <v>51.43373</v>
+        <v>0.216872</v>
       </c>
       <c r="E113" t="n">
         <v>68000</v>
@@ -4945,10 +5307,13 @@
       <c r="L113" t="n">
         <v>0.01632323257230672</v>
       </c>
+      <c r="M113" t="n">
+        <v>1109.979814916857</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -4956,10 +5321,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>-1.00398</v>
+        <v>50.8518324</v>
       </c>
       <c r="D114" t="n">
-        <v>50.87231</v>
+        <v>-0.9847131999999998</v>
       </c>
       <c r="E114" t="n">
         <v>68000</v>
@@ -4985,10 +5350,13 @@
       <c r="L114" t="n">
         <v>0.1256387361030662</v>
       </c>
+      <c r="M114" t="n">
+        <v>8543.434055008502</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -4996,10 +5364,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.334861</v>
+        <v>51.4934557</v>
       </c>
       <c r="D115" t="n">
-        <v>51.50998</v>
+        <v>0.3529197</v>
       </c>
       <c r="E115" t="n">
         <v>67000</v>
@@ -5023,12 +5391,15 @@
         <v>15156.00523816391</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1219417216243435</v>
+        <v>0.1219417216243436</v>
+      </c>
+      <c r="M115" t="n">
+        <v>8170.09534883102</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -5036,10 +5407,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>-2.91364</v>
+        <v>53.4083714</v>
       </c>
       <c r="D116" t="n">
-        <v>53.4083</v>
+        <v>-2.9915726</v>
       </c>
       <c r="E116" t="n">
         <v>64000</v>
@@ -5065,10 +5436,13 @@
       <c r="L116" t="n">
         <v>0.1570156707246917</v>
       </c>
+      <c r="M116" t="n">
+        <v>10049.00292638027</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -5076,10 +5450,10 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>-1.33366</v>
+        <v>50.69384789999999</v>
       </c>
       <c r="D117" t="n">
-        <v>50.67129</v>
+        <v>-1.304734</v>
       </c>
       <c r="E117" t="n">
         <v>63000</v>
@@ -5105,10 +5479,13 @@
       <c r="L117" t="n">
         <v>0.310367257659862</v>
       </c>
+      <c r="M117" t="n">
+        <v>19553.1372325713</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -5116,10 +5493,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.205156</v>
+        <v>50.9703846</v>
       </c>
       <c r="D118" t="n">
-        <v>50.93322</v>
+        <v>0.2306394</v>
       </c>
       <c r="E118" t="n">
         <v>63000</v>
@@ -5143,12 +5520,15 @@
         <v>8997.103150724844</v>
       </c>
       <c r="L118" t="n">
-        <v>0.03200533061265723</v>
+        <v>0.03200533061265709</v>
+      </c>
+      <c r="M118" t="n">
+        <v>2016.335828597397</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -5156,10 +5536,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>-2.54178</v>
+        <v>51.1941742</v>
       </c>
       <c r="D119" t="n">
-        <v>51.19476</v>
+        <v>-2.5228191</v>
       </c>
       <c r="E119" t="n">
         <v>62000</v>
@@ -5183,12 +5563,15 @@
         <v>8307.257848266105</v>
       </c>
       <c r="L119" t="n">
-        <v>0.2331857017602209</v>
+        <v>0.2331857017602208</v>
+      </c>
+      <c r="M119" t="n">
+        <v>14457.51350913369</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -5196,10 +5579,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>-0.64999</v>
+        <v>50.82341</v>
       </c>
       <c r="D120" t="n">
-        <v>50.84321</v>
+        <v>-0.5756878999999999</v>
       </c>
       <c r="E120" t="n">
         <v>60000</v>
@@ -5223,12 +5606,15 @@
         <v>4359.155806702019</v>
       </c>
       <c r="L120" t="n">
-        <v>0.08076740458146371</v>
+        <v>0.0807674045814637</v>
+      </c>
+      <c r="M120" t="n">
+        <v>4846.044274887822</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -5236,10 +5622,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>-3.39801</v>
+        <v>51.4095958</v>
       </c>
       <c r="D121" t="n">
-        <v>51.44836</v>
+        <v>-3.4848167</v>
       </c>
       <c r="E121" t="n">
         <v>59000</v>
@@ -5265,10 +5651,13 @@
       <c r="L121" t="n">
         <v>0.6191964497384397</v>
       </c>
+      <c r="M121" t="n">
+        <v>36532.59053456794</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -5276,10 +5665,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.706923</v>
+        <v>51.5459269</v>
       </c>
       <c r="D122" t="n">
-        <v>51.54917</v>
+        <v>0.7077123</v>
       </c>
       <c r="E122" t="n">
         <v>58000</v>
@@ -5303,12 +5692,15 @@
         <v>9931.659938573323</v>
       </c>
       <c r="L122" t="n">
-        <v>0.04445550450219055</v>
+        <v>0.0444555045021906</v>
+      </c>
+      <c r="M122" t="n">
+        <v>2578.419261127055</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -5316,10 +5708,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>-1.32947</v>
+        <v>50.967182</v>
       </c>
       <c r="D123" t="n">
-        <v>50.94876</v>
+        <v>-1.374688</v>
       </c>
       <c r="E123" t="n">
         <v>58000</v>
@@ -5345,10 +5737,13 @@
       <c r="L123" t="n">
         <v>0.133504300276897</v>
       </c>
+      <c r="M123" t="n">
+        <v>7743.249416060024</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -5356,10 +5751,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>-1.71558</v>
+        <v>52.411811</v>
       </c>
       <c r="D124" t="n">
-        <v>52.431</v>
+        <v>-1.77761</v>
       </c>
       <c r="E124" t="n">
         <v>55000</v>
@@ -5385,10 +5780,13 @@
       <c r="L124" t="n">
         <v>0.238934963504587</v>
       </c>
+      <c r="M124" t="n">
+        <v>13141.42299275228</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -5396,10 +5794,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>-1.47189</v>
+        <v>52.9225301</v>
       </c>
       <c r="D125" t="n">
-        <v>52.91464</v>
+        <v>-1.4746186</v>
       </c>
       <c r="E125" t="n">
         <v>55000</v>
@@ -5425,10 +5823,13 @@
       <c r="L125" t="n">
         <v>0.1117409068446161</v>
       </c>
+      <c r="M125" t="n">
+        <v>6145.749876453887</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -5436,10 +5837,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.575911</v>
+        <v>51.880087</v>
       </c>
       <c r="D126" t="n">
-        <v>51.91634</v>
+        <v>0.5509269</v>
       </c>
       <c r="E126" t="n">
         <v>55000</v>
@@ -5465,10 +5866,13 @@
       <c r="L126" t="n">
         <v>0.1088785035787413</v>
       </c>
+      <c r="M126" t="n">
+        <v>5988.317696830771</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -5476,10 +5880,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>-2.47755</v>
+        <v>51.7999835</v>
       </c>
       <c r="D127" t="n">
-        <v>51.81249</v>
+        <v>-2.5519169</v>
       </c>
       <c r="E127" t="n">
         <v>54000</v>
@@ -5505,10 +5909,13 @@
       <c r="L127" t="n">
         <v>0.4617694104298454</v>
       </c>
+      <c r="M127" t="n">
+        <v>24935.54816321165</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -5516,10 +5923,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>-3.65289</v>
+        <v>50.5247502</v>
       </c>
       <c r="D128" t="n">
-        <v>50.60981</v>
+        <v>-3.5932822</v>
       </c>
       <c r="E128" t="n">
         <v>53000</v>
@@ -5543,12 +5950,15 @@
         <v>6418.169951068207</v>
       </c>
       <c r="L128" t="n">
-        <v>0.2360116142086998</v>
+        <v>0.2360116142086999</v>
+      </c>
+      <c r="M128" t="n">
+        <v>12508.61555306109</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -5556,10 +5966,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1.000795</v>
+        <v>51.0832153</v>
       </c>
       <c r="D129" t="n">
-        <v>51.07213</v>
+        <v>1.1706631</v>
       </c>
       <c r="E129" t="n">
         <v>53000</v>
@@ -5585,10 +5995,13 @@
       <c r="L129" t="n">
         <v>0.1538294805196561</v>
       </c>
+      <c r="M129" t="n">
+        <v>8152.962467541771</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -5596,10 +6009,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>-1.07375</v>
+        <v>53.9614205</v>
       </c>
       <c r="D130" t="n">
-        <v>53.96582</v>
+        <v>-1.0739108</v>
       </c>
       <c r="E130" t="n">
         <v>52000</v>
@@ -5624,6 +6037,9 @@
       </c>
       <c r="L130" t="n">
         <v>0.09094036609215306</v>
+      </c>
+      <c r="M130" t="n">
+        <v>4728.899036791959</v>
       </c>
     </row>
     <row r="131">
@@ -5636,10 +6052,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.398744</v>
+        <v>51.44188399999999</v>
       </c>
       <c r="D131" t="n">
-        <v>51.39649</v>
+        <v>0.370759</v>
       </c>
       <c r="E131" t="n">
         <v>51000</v>
@@ -5663,12 +6079,15 @@
         <v>5103.088824604752</v>
       </c>
       <c r="L131" t="n">
-        <v>5.551115123125783e-17</v>
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -5676,10 +6095,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>-2.12746</v>
+        <v>52.5868159</v>
       </c>
       <c r="D132" t="n">
-        <v>52.59788</v>
+        <v>-2.1256587</v>
       </c>
       <c r="E132" t="n">
         <v>51000</v>
@@ -5703,7 +6122,10 @@
         <v>11331.60321980892</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04967012312883518</v>
+        <v>0.04967012312883523</v>
+      </c>
+      <c r="M132" t="n">
+        <v>2533.176279570597</v>
       </c>
     </row>
     <row r="133">
@@ -5716,10 +6138,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>-1.8405</v>
+        <v>54.7294099</v>
       </c>
       <c r="D133" t="n">
-        <v>54.68513</v>
+        <v>-1.8811598</v>
       </c>
       <c r="E133" t="n">
         <v>50000</v>
@@ -5745,10 +6167,13 @@
       <c r="L133" t="n">
         <v>0.1023398249158365</v>
       </c>
+      <c r="M133" t="n">
+        <v>5116.991245791824</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -5756,10 +6181,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>-2.00771</v>
+        <v>52.5361674</v>
       </c>
       <c r="D134" t="n">
-        <v>52.51477</v>
+        <v>-2.010793</v>
       </c>
       <c r="E134" t="n">
         <v>50000</v>
@@ -5785,10 +6210,13 @@
       <c r="L134" t="n">
         <v>0.3286429582334007</v>
       </c>
+      <c r="M134" t="n">
+        <v>16432.14791167004</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -5796,10 +6224,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>-4.2111</v>
+        <v>51.8572309</v>
       </c>
       <c r="D135" t="n">
-        <v>51.89495</v>
+        <v>-4.311595899999999</v>
       </c>
       <c r="E135" t="n">
         <v>50000</v>
@@ -5825,10 +6253,13 @@
       <c r="L135" t="n">
         <v>0.2761778361985038</v>
       </c>
+      <c r="M135" t="n">
+        <v>13808.89180992519</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -5836,10 +6267,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>-0.55848</v>
+        <v>52.9451889</v>
       </c>
       <c r="D136" t="n">
-        <v>53.21921</v>
+        <v>-0.1601246</v>
       </c>
       <c r="E136" t="n">
         <v>49000</v>
@@ -5863,12 +6294,15 @@
         <v>17321.95453242123</v>
       </c>
       <c r="L136" t="n">
-        <v>0.09957914739633961</v>
+        <v>0.09957914739633966</v>
+      </c>
+      <c r="M136" t="n">
+        <v>4879.378222420643</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -5876,10 +6310,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.7768929999999999</v>
+        <v>51.323167</v>
       </c>
       <c r="D137" t="n">
-        <v>51.32251</v>
+        <v>0.8224796</v>
       </c>
       <c r="E137" t="n">
         <v>48000</v>
@@ -5903,20 +6337,27 @@
         <v>2804.27383564511</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0358882615367728</v>
+        <v>0.03588826153677283</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1722.636553765096</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Kettering</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
+      <c r="C138" t="n">
+        <v>52.396322</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-0.7302489999999999</v>
+      </c>
       <c r="E138" t="n">
         <v>48000</v>
       </c>
@@ -5939,12 +6380,15 @@
         <v>4273.026623926368</v>
       </c>
       <c r="L138" t="n">
-        <v>0.01494639853906946</v>
+        <v>0.01494639853906943</v>
+      </c>
+      <c r="M138" t="n">
+        <v>717.4271298753325</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -5952,10 +6396,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>-2.88246</v>
+        <v>51.2238481</v>
       </c>
       <c r="D139" t="n">
-        <v>51.19186</v>
+        <v>-2.9736071</v>
       </c>
       <c r="E139" t="n">
         <v>48000</v>
@@ -5979,12 +6423,15 @@
         <v>7538.001203386992</v>
       </c>
       <c r="L139" t="n">
-        <v>0.3785134912730568</v>
+        <v>0.378513491273057</v>
+      </c>
+      <c r="M139" t="n">
+        <v>18168.64758110674</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -5992,10 +6439,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.8233740000000001</v>
+        <v>51.14510070000001</v>
       </c>
       <c r="D140" t="n">
-        <v>51.13096</v>
+        <v>0.8739631</v>
       </c>
       <c r="E140" t="n">
         <v>47000</v>
@@ -6019,12 +6466,15 @@
         <v>14123.75137993358</v>
       </c>
       <c r="L140" t="n">
-        <v>0.02114324798505279</v>
+        <v>0.02114324798505285</v>
+      </c>
+      <c r="M140" t="n">
+        <v>993.7326552974839</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -6032,10 +6482,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>-1.10894</v>
+        <v>53.52282</v>
       </c>
       <c r="D141" t="n">
-        <v>53.52697</v>
+        <v>-1.128462</v>
       </c>
       <c r="E141" t="n">
         <v>47000</v>
@@ -6059,12 +6509,15 @@
         <v>16409.3532108188</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06050812538688327</v>
+        <v>0.06050812538688333</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2843.881893183516</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -6072,10 +6525,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>-1.63565</v>
+        <v>52.19173</v>
       </c>
       <c r="D142" t="n">
-        <v>52.16154</v>
+        <v>-1.708298</v>
       </c>
       <c r="E142" t="n">
         <v>47000</v>
@@ -6101,10 +6554,13 @@
       <c r="L142" t="n">
         <v>0.1759797398587574</v>
       </c>
+      <c r="M142" t="n">
+        <v>8271.047773361597</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -6112,10 +6568,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.683442</v>
+        <v>51.582071</v>
       </c>
       <c r="D143" t="n">
-        <v>51.5909</v>
+        <v>0.706515</v>
       </c>
       <c r="E143" t="n">
         <v>46000</v>
@@ -6139,12 +6595,15 @@
         <v>3710.548408836135</v>
       </c>
       <c r="L143" t="n">
-        <v>-9.71445146547012e-17</v>
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -6152,10 +6611,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>0.283149</v>
+        <v>52.4036809</v>
       </c>
       <c r="D144" t="n">
-        <v>52.35788</v>
+        <v>0.2428121</v>
       </c>
       <c r="E144" t="n">
         <v>46000</v>
@@ -6181,10 +6640,13 @@
       <c r="L144" t="n">
         <v>0.1758606188948575</v>
       </c>
+      <c r="M144" t="n">
+        <v>8089.588469163445</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -6192,10 +6654,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.103888</v>
+        <v>51.767787</v>
       </c>
       <c r="D145" t="n">
-        <v>51.76614</v>
+        <v>0.087806</v>
       </c>
       <c r="E145" t="n">
         <v>46000</v>
@@ -6219,12 +6681,15 @@
         <v>13154.99362081718</v>
       </c>
       <c r="L145" t="n">
-        <v>-5.551115123125783e-17</v>
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -6232,10 +6697,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>-3.55523</v>
+        <v>50.4619209</v>
       </c>
       <c r="D146" t="n">
-        <v>50.47092</v>
+        <v>-3.525315</v>
       </c>
       <c r="E146" t="n">
         <v>46000</v>
@@ -6261,10 +6726,13 @@
       <c r="L146" t="n">
         <v>0.3523568819871118</v>
       </c>
+      <c r="M146" t="n">
+        <v>16208.41657140714</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -6272,10 +6740,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.578395</v>
+        <v>50.854259</v>
       </c>
       <c r="D147" t="n">
-        <v>50.86724</v>
+        <v>0.573453</v>
       </c>
       <c r="E147" t="n">
         <v>45000</v>
@@ -6299,12 +6767,15 @@
         <v>5017.70343131198</v>
       </c>
       <c r="L147" t="n">
-        <v>0.08255172812114803</v>
+        <v>0.08255172812114808</v>
+      </c>
+      <c r="M147" t="n">
+        <v>3714.827765451664</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -6312,10 +6783,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>-3.27826</v>
+        <v>55.953252</v>
       </c>
       <c r="D148" t="n">
-        <v>55.9112</v>
+        <v>-3.188267</v>
       </c>
       <c r="E148" t="n">
         <v>44000</v>
@@ -6341,10 +6812,13 @@
       <c r="L148" t="n">
         <v>0.1176147087172671</v>
       </c>
+      <c r="M148" t="n">
+        <v>5175.047183559752</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -6352,10 +6826,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>-0.49565</v>
+        <v>52.8300224</v>
       </c>
       <c r="D149" t="n">
-        <v>52.84885</v>
+        <v>-0.5440817999999999</v>
       </c>
       <c r="E149" t="n">
         <v>43000</v>
@@ -6379,12 +6853,15 @@
         <v>15259.13640282043</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04103092568972949</v>
+        <v>0.04103092568972944</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1764.329804658366</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -6392,10 +6869,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>-1.01097</v>
+        <v>52.8912108</v>
       </c>
       <c r="D150" t="n">
-        <v>52.9124</v>
+        <v>-1.0209505</v>
       </c>
       <c r="E150" t="n">
         <v>43000</v>
@@ -6421,10 +6898,13 @@
       <c r="L150" t="n">
         <v>0.129302709213044</v>
       </c>
+      <c r="M150" t="n">
+        <v>5560.016496160892</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -6432,10 +6912,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>-2.57247</v>
+        <v>53.5450645</v>
       </c>
       <c r="D151" t="n">
-        <v>53.51444</v>
+        <v>-2.6325074</v>
       </c>
       <c r="E151" t="n">
         <v>43000</v>
@@ -6459,12 +6939,15 @@
         <v>445.7165021170451</v>
       </c>
       <c r="L151" t="n">
-        <v>0.5712211050593788</v>
+        <v>0.571221105059379</v>
+      </c>
+      <c r="M151" t="n">
+        <v>24562.50751755329</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -6472,10 +6955,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>-2.21025</v>
+        <v>52.1941389</v>
       </c>
       <c r="D152" t="n">
-        <v>52.19482</v>
+        <v>-2.2190523</v>
       </c>
       <c r="E152" t="n">
         <v>43000</v>
@@ -6499,12 +6982,15 @@
         <v>5767.916789149355</v>
       </c>
       <c r="L152" t="n">
-        <v>0.02491351930315239</v>
+        <v>0.02491351930315244</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1071.281330035555</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -6512,10 +6998,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>-4.90818</v>
+        <v>51.67624559999999</v>
       </c>
       <c r="D153" t="n">
-        <v>51.85513</v>
+        <v>-4.918369999999999</v>
       </c>
       <c r="E153" t="n">
         <v>43000</v>
@@ -6539,7 +7025,10 @@
         <v>4834.634089511052</v>
       </c>
       <c r="L153" t="n">
-        <v>0.2365066709523756</v>
+        <v>0.2365066709523757</v>
+      </c>
+      <c r="M153" t="n">
+        <v>10169.78685095215</v>
       </c>
     </row>
     <row r="154">
@@ -6552,10 +7041,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.258516</v>
+        <v>50.768035</v>
       </c>
       <c r="D154" t="n">
-        <v>50.77387</v>
+        <v>0.290472</v>
       </c>
       <c r="E154" t="n">
         <v>42000</v>
@@ -6579,12 +7068,15 @@
         <v>3262.777655866939</v>
       </c>
       <c r="L154" t="n">
-        <v>0.3664692018012767</v>
+        <v>0.3664692018012766</v>
+      </c>
+      <c r="M154" t="n">
+        <v>15391.70647565362</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -6592,10 +7084,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>-2.19998</v>
+        <v>51.992265</v>
       </c>
       <c r="D155" t="n">
-        <v>51.93485</v>
+        <v>-2.15796</v>
       </c>
       <c r="E155" t="n">
         <v>42000</v>
@@ -6619,12 +7111,15 @@
         <v>5243.883240106992</v>
       </c>
       <c r="L155" t="n">
-        <v>0.3179853004211689</v>
+        <v>0.3179853004211688</v>
+      </c>
+      <c r="M155" t="n">
+        <v>13355.38261768909</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -6632,10 +7127,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>-0.90229</v>
+        <v>52.5708762</v>
       </c>
       <c r="D156" t="n">
-        <v>52.53766</v>
+        <v>-0.9346458</v>
       </c>
       <c r="E156" t="n">
         <v>41000</v>
@@ -6659,12 +7154,15 @@
         <v>4145.312410638633</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04417298960695155</v>
+        <v>0.04417298960695171</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1811.09257388502</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -6672,10 +7170,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1.108981</v>
+        <v>51.8748081</v>
       </c>
       <c r="D157" t="n">
-        <v>51.85674</v>
+        <v>1.1145037</v>
       </c>
       <c r="E157" t="n">
         <v>41000</v>
@@ -6699,12 +7197,15 @@
         <v>6545.605586946586</v>
       </c>
       <c r="L157" t="n">
-        <v>0.170815692379565</v>
+        <v>0.1708156923795651</v>
+      </c>
+      <c r="M157" t="n">
+        <v>7003.443387562168</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -6712,10 +7213,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>-2.73931</v>
+        <v>52.0765164</v>
       </c>
       <c r="D158" t="n">
-        <v>52.08154</v>
+        <v>-2.6544182</v>
       </c>
       <c r="E158" t="n">
         <v>41000</v>
@@ -6741,10 +7242,13 @@
       <c r="L158" t="n">
         <v>0.1814189604395844</v>
       </c>
+      <c r="M158" t="n">
+        <v>7438.17737802296</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -6752,10 +7256,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0.007671</v>
+        <v>50.87387200000001</v>
       </c>
       <c r="D159" t="n">
-        <v>50.83341</v>
+        <v>0.00878</v>
       </c>
       <c r="E159" t="n">
         <v>40000</v>
@@ -6781,10 +7285,13 @@
       <c r="L159" t="n">
         <v>0.1620022941559556</v>
       </c>
+      <c r="M159" t="n">
+        <v>6480.091766238223</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -6792,10 +7299,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>-4.21479</v>
+        <v>55.86167039999999</v>
       </c>
       <c r="D160" t="n">
-        <v>55.87649</v>
+        <v>-4.2583345</v>
       </c>
       <c r="E160" t="n">
         <v>39000</v>
@@ -6819,7 +7326,10 @@
         <v>14385.89950663603</v>
       </c>
       <c r="L160" t="n">
-        <v>0.09165937158135268</v>
+        <v>0.09165937158135262</v>
+      </c>
+      <c r="M160" t="n">
+        <v>3574.715491672752</v>
       </c>
     </row>
     <row r="161">
@@ -6832,10 +7342,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>-2.10171</v>
+        <v>52.512255</v>
       </c>
       <c r="D161" t="n">
-        <v>52.49513</v>
+        <v>-2.081112</v>
       </c>
       <c r="E161" t="n">
         <v>38000</v>
@@ -6861,10 +7371,13 @@
       <c r="L161" t="n">
         <v>0.2196821263428377</v>
       </c>
+      <c r="M161" t="n">
+        <v>8347.920801027833</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -6872,10 +7385,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>-3.92691</v>
+        <v>51.0729874</v>
       </c>
       <c r="D162" t="n">
-        <v>51.07621</v>
+        <v>-3.8918711</v>
       </c>
       <c r="E162" t="n">
         <v>38000</v>
@@ -6901,10 +7414,13 @@
       <c r="L162" t="n">
         <v>0.173413343248109</v>
       </c>
+      <c r="M162" t="n">
+        <v>6589.707043428141</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -6912,10 +7428,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>-2.23359</v>
+        <v>53.4807593</v>
       </c>
       <c r="D163" t="n">
-        <v>53.47009</v>
+        <v>-2.2426305</v>
       </c>
       <c r="E163" t="n">
         <v>37000</v>
@@ -6941,10 +7457,13 @@
       <c r="L163" t="n">
         <v>0.1720152367614707</v>
       </c>
+      <c r="M163" t="n">
+        <v>6364.563760174415</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -6952,10 +7471,10 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1.328226</v>
+        <v>51.3602516</v>
       </c>
       <c r="D164" t="n">
-        <v>51.35252</v>
+        <v>1.3484663</v>
       </c>
       <c r="E164" t="n">
         <v>37000</v>
@@ -6979,12 +7498,15 @@
         <v>16506.40674955054</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06002883582375523</v>
+        <v>0.06002883582375529</v>
+      </c>
+      <c r="M164" t="n">
+        <v>2221.066925478946</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -6992,10 +7514,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>1.096953</v>
+        <v>52.27137700000001</v>
       </c>
       <c r="D165" t="n">
-        <v>52.21859</v>
+        <v>1.0721487</v>
       </c>
       <c r="E165" t="n">
         <v>37000</v>
@@ -7021,10 +7543,13 @@
       <c r="L165" t="n">
         <v>0.2112568121296259</v>
       </c>
+      <c r="M165" t="n">
+        <v>7816.502048796157</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -7032,10 +7557,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>-1.19887</v>
+        <v>52.5707761</v>
       </c>
       <c r="D166" t="n">
-        <v>52.57706</v>
+        <v>-1.1656497</v>
       </c>
       <c r="E166" t="n">
         <v>37000</v>
@@ -7061,10 +7586,13 @@
       <c r="L166" t="n">
         <v>0.04478246473730452</v>
       </c>
+      <c r="M166" t="n">
+        <v>1656.951195280267</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -7072,10 +7600,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>-1.31828</v>
+        <v>52.370878</v>
       </c>
       <c r="D167" t="n">
-        <v>52.38228</v>
+        <v>-1.265032</v>
       </c>
       <c r="E167" t="n">
         <v>36000</v>
@@ -7099,12 +7627,15 @@
         <v>5767.264706059809</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05775280637081806</v>
+        <v>0.05775280637081803</v>
+      </c>
+      <c r="M167" t="n">
+        <v>2079.101029349449</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -7112,10 +7643,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>0.916149</v>
+        <v>52.0603616</v>
       </c>
       <c r="D168" t="n">
-        <v>52.0645</v>
+        <v>0.9175876999999999</v>
       </c>
       <c r="E168" t="n">
         <v>36000</v>
@@ -7139,20 +7670,27 @@
         <v>7954.29573205112</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05616073834695848</v>
+        <v>0.05616073834695845</v>
+      </c>
+      <c r="M168" t="n">
+        <v>2021.786580490504</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>East Northamptonshire</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
+      <c r="C169" t="n">
+        <v>52.4883422</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-0.459232</v>
+      </c>
       <c r="E169" t="n">
         <v>35000</v>
       </c>
@@ -7175,12 +7713,15 @@
         <v>1727.674691606485</v>
       </c>
       <c r="L169" t="n">
-        <v>-1.804112415015879e-16</v>
+        <v>-2.220446049250313e-16</v>
+      </c>
+      <c r="M169" t="n">
+        <v>-7.771561172376096e-12</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -7188,10 +7729,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>-2.9028</v>
+        <v>51.81160999999999</v>
       </c>
       <c r="D170" t="n">
-        <v>51.77827</v>
+        <v>-2.7163417</v>
       </c>
       <c r="E170" t="n">
         <v>35000</v>
@@ -7215,12 +7756,15 @@
         <v>3048.80720180117</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1345613408876481</v>
+        <v>0.134561340887648</v>
+      </c>
+      <c r="M170" t="n">
+        <v>4709.646931067681</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -7228,10 +7772,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>-3.41359</v>
+        <v>51.64902069999999</v>
       </c>
       <c r="D171" t="n">
-        <v>51.62185</v>
+        <v>-3.4288692</v>
       </c>
       <c r="E171" t="n">
         <v>35000</v>
@@ -7255,7 +7799,10 @@
         <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>0.3658585532072834</v>
+        <v>0.3658585532072833</v>
+      </c>
+      <c r="M171" t="n">
+        <v>12805.04936225492</v>
       </c>
     </row>
     <row r="172">
@@ -7268,10 +7815,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>-2.29299</v>
+        <v>53.1610446</v>
       </c>
       <c r="D172" t="n">
-        <v>53.16793</v>
+        <v>-2.2185932</v>
       </c>
       <c r="E172" t="n">
         <v>34000</v>
@@ -7297,10 +7844,13 @@
       <c r="L172" t="n">
         <v>1.110223024625157e-16</v>
       </c>
+      <c r="M172" t="n">
+        <v>3.774758283725532e-12</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -7308,10 +7858,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>-3.81996</v>
+        <v>50.4102244</v>
       </c>
       <c r="D173" t="n">
-        <v>50.37195</v>
+        <v>-3.8009332</v>
       </c>
       <c r="E173" t="n">
         <v>34000</v>
@@ -7335,12 +7885,15 @@
         <v>16676.62516254895</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08959431632202436</v>
+        <v>0.08959431632202441</v>
+      </c>
+      <c r="M173" t="n">
+        <v>3046.20675494883</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -7348,10 +7901,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>-1.28651</v>
+        <v>53.4326035</v>
       </c>
       <c r="D174" t="n">
-        <v>53.39553</v>
+        <v>-1.3635009</v>
       </c>
       <c r="E174" t="n">
         <v>34000</v>
@@ -7376,6 +7929,9 @@
       </c>
       <c r="L174" t="n">
         <v>0.2914936053180388</v>
+      </c>
+      <c r="M174" t="n">
+        <v>9910.78258081332</v>
       </c>
     </row>
     <row r="175">
@@ -7388,10 +7944,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>-2.01614</v>
+        <v>52.1525178</v>
       </c>
       <c r="D175" t="n">
-        <v>52.12886</v>
+        <v>-2.0330954</v>
       </c>
       <c r="E175" t="n">
         <v>33000</v>
@@ -7417,10 +7973,13 @@
       <c r="L175" t="n">
         <v>0.1002259419370046</v>
       </c>
+      <c r="M175" t="n">
+        <v>3307.456083921153</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -7428,10 +7987,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>0.818716</v>
+        <v>52.5716157</v>
       </c>
       <c r="D176" t="n">
-        <v>52.59421</v>
+        <v>0.8354678</v>
       </c>
       <c r="E176" t="n">
         <v>33000</v>
@@ -7456,6 +8015,9 @@
       </c>
       <c r="L176" t="n">
         <v>0.1309979212264878</v>
+      </c>
+      <c r="M176" t="n">
+        <v>4322.931400474097</v>
       </c>
     </row>
     <row r="177">
@@ -7467,8 +8029,12 @@
           <t>Unspecified</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
+      <c r="C177" t="n">
+        <v>55.378051</v>
+      </c>
+      <c r="D177" t="n">
+        <v>-3.435973</v>
+      </c>
       <c r="E177" t="n">
         <v>32000</v>
       </c>
@@ -7491,7 +8057,10 @@
         <v>18208.32726287624</v>
       </c>
       <c r="L177" t="n">
-        <v>0.02543239251560181</v>
+        <v>0.0254323925156017</v>
+      </c>
+      <c r="M177" t="n">
+        <v>813.8365604992543</v>
       </c>
     </row>
     <row r="178">
@@ -7504,10 +8073,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>-0.40127</v>
+        <v>50.81787</v>
       </c>
       <c r="D178" t="n">
-        <v>50.8331</v>
+        <v>-0.372882</v>
       </c>
       <c r="E178" t="n">
         <v>32000</v>
@@ -7531,12 +8100,15 @@
         <v>0</v>
       </c>
       <c r="L178" t="n">
-        <v>0.02999208142687265</v>
+        <v>0.0299920814268726</v>
+      </c>
+      <c r="M178" t="n">
+        <v>959.746605659923</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -7544,10 +8116,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>-1.25944</v>
+        <v>52.9854591</v>
       </c>
       <c r="D179" t="n">
-        <v>52.9721</v>
+        <v>-1.264754</v>
       </c>
       <c r="E179" t="n">
         <v>32000</v>
@@ -7571,12 +8143,15 @@
         <v>4427.110572230386</v>
       </c>
       <c r="L179" t="n">
-        <v>0.2190619966808753</v>
+        <v>0.2190619966808752</v>
+      </c>
+      <c r="M179" t="n">
+        <v>7009.983893788008</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -7584,10 +8159,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>0.290091</v>
+        <v>51.620475</v>
       </c>
       <c r="D180" t="n">
-        <v>51.64108</v>
+        <v>0.3071749</v>
       </c>
       <c r="E180" t="n">
         <v>30000</v>
@@ -7611,20 +8186,27 @@
         <v>7263.177107649142</v>
       </c>
       <c r="L180" t="n">
-        <v>0.03705938627572375</v>
+        <v>0.03705938627572369</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1111.781588271711</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Daventry</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
+      <c r="C181" t="n">
+        <v>52.25602749999999</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-1.1625942</v>
+      </c>
       <c r="E181" t="n">
         <v>30000</v>
       </c>
@@ -7647,12 +8229,15 @@
         <v>3165.981556326787</v>
       </c>
       <c r="L181" t="n">
-        <v>0.02907787209609855</v>
+        <v>0.02907787209609858</v>
+      </c>
+      <c r="M181" t="n">
+        <v>872.3361628829573</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -7660,10 +8245,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>-0.05073</v>
+        <v>51.74347299999999</v>
       </c>
       <c r="D182" t="n">
-        <v>51.7208</v>
+        <v>-0.021151</v>
       </c>
       <c r="E182" t="n">
         <v>30000</v>
@@ -7689,10 +8274,13 @@
       <c r="L182" t="n">
         <v>0.04664934595043357</v>
       </c>
+      <c r="M182" t="n">
+        <v>1399.480378513007</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -7700,10 +8288,10 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>-0.94643</v>
+        <v>53.08509429999999</v>
       </c>
       <c r="D183" t="n">
-        <v>53.1096</v>
+        <v>-0.952234</v>
       </c>
       <c r="E183" t="n">
         <v>29000</v>
@@ -7727,12 +8315,15 @@
         <v>20989.78212573353</v>
       </c>
       <c r="L183" t="n">
-        <v>-1.110223024625157e-16</v>
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -7740,10 +8331,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>-1.16731</v>
+        <v>50.800482</v>
       </c>
       <c r="D184" t="n">
-        <v>50.80636</v>
+        <v>-1.1409959</v>
       </c>
       <c r="E184" t="n">
         <v>29000</v>
@@ -7769,10 +8360,13 @@
       <c r="L184" t="n">
         <v>0.1587078194948375</v>
       </c>
+      <c r="M184" t="n">
+        <v>4602.526765350287</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -7780,10 +8374,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>-3.61375</v>
+        <v>51.504286</v>
       </c>
       <c r="D185" t="n">
-        <v>51.5606</v>
+        <v>-3.576945</v>
       </c>
       <c r="E185" t="n">
         <v>29000</v>
@@ -7809,10 +8403,13 @@
       <c r="L185" t="n">
         <v>0.6369401207704799</v>
       </c>
+      <c r="M185" t="n">
+        <v>18471.26350234392</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -7820,10 +8417,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.773106</v>
+        <v>51.73180499999999</v>
       </c>
       <c r="D186" t="n">
-        <v>51.77458</v>
+        <v>0.6714479999999999</v>
       </c>
       <c r="E186" t="n">
         <v>28000</v>
@@ -7847,12 +8444,15 @@
         <v>6971.397487335089</v>
       </c>
       <c r="L186" t="n">
-        <v>0.02796052137597285</v>
+        <v>0.02796052137597282</v>
+      </c>
+      <c r="M186" t="n">
+        <v>782.8945985272391</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -7860,10 +8460,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>-0.03057</v>
+        <v>52.7455834</v>
       </c>
       <c r="D187" t="n">
-        <v>52.78758</v>
+        <v>-0.0490706</v>
       </c>
       <c r="E187" t="n">
         <v>27000</v>
@@ -7887,12 +8487,15 @@
         <v>3301.443683462953</v>
       </c>
       <c r="L187" t="n">
-        <v>-1.387778780781446e-17</v>
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -7900,10 +8503,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>-1.58161</v>
+        <v>53.99212</v>
       </c>
       <c r="D188" t="n">
-        <v>54.07708</v>
+        <v>-1.541812</v>
       </c>
       <c r="E188" t="n">
         <v>26000</v>
@@ -7929,10 +8532,13 @@
       <c r="L188" t="n">
         <v>0.2013551409712557</v>
       </c>
+      <c r="M188" t="n">
+        <v>5235.233665252649</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -7940,10 +8546,10 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>-3.43531</v>
+        <v>52.6464249</v>
       </c>
       <c r="D189" t="n">
-        <v>52.34864</v>
+        <v>-3.3260904</v>
       </c>
       <c r="E189" t="n">
         <v>26000</v>
@@ -7969,10 +8575,13 @@
       <c r="L189" t="n">
         <v>0.2693140343925948</v>
       </c>
+      <c r="M189" t="n">
+        <v>7002.164894207465</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -7980,10 +8589,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>-3.74638</v>
+        <v>51.691743</v>
       </c>
       <c r="D190" t="n">
-        <v>51.6445</v>
+        <v>-3.7346728</v>
       </c>
       <c r="E190" t="n">
         <v>26000</v>
@@ -8009,10 +8618,13 @@
       <c r="L190" t="n">
         <v>0.5029053785136255</v>
       </c>
+      <c r="M190" t="n">
+        <v>13075.53984135426</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -8020,10 +8632,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1.252317</v>
+        <v>52.73911769999999</v>
       </c>
       <c r="D191" t="n">
-        <v>52.69622</v>
+        <v>1.2409416</v>
       </c>
       <c r="E191" t="n">
         <v>26000</v>
@@ -8047,12 +8659,15 @@
         <v>3737.005496147787</v>
       </c>
       <c r="L191" t="n">
-        <v>0.04123035648528026</v>
+        <v>0.04123035648528028</v>
+      </c>
+      <c r="M191" t="n">
+        <v>1071.989268617287</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -8060,10 +8675,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>-3.19753</v>
+        <v>51.578829</v>
       </c>
       <c r="D192" t="n">
-        <v>51.65001</v>
+        <v>-3.218134</v>
       </c>
       <c r="E192" t="n">
         <v>26000</v>
@@ -8087,12 +8702,15 @@
         <v>8309.662792765046</v>
       </c>
       <c r="L192" t="n">
-        <v>0.3481145530234225</v>
+        <v>0.3481145530234224</v>
+      </c>
+      <c r="M192" t="n">
+        <v>9050.978378608983</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -8100,10 +8718,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>-1.5348</v>
+        <v>52.8429447</v>
       </c>
       <c r="D193" t="n">
-        <v>52.8249</v>
+        <v>-1.5237491</v>
       </c>
       <c r="E193" t="n">
         <v>26000</v>
@@ -8127,12 +8745,15 @@
         <v>1534.698068987388</v>
       </c>
       <c r="L193" t="n">
-        <v>0.3089370350355012</v>
+        <v>0.3089370350355013</v>
+      </c>
+      <c r="M193" t="n">
+        <v>8032.362910923033</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -8140,10 +8761,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>-0.66195</v>
+        <v>53.8416168</v>
       </c>
       <c r="D194" t="n">
-        <v>53.88112</v>
+        <v>-0.4344106</v>
       </c>
       <c r="E194" t="n">
         <v>26000</v>
@@ -8169,10 +8790,13 @@
       <c r="L194" t="n">
         <v>0</v>
       </c>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -8180,10 +8804,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>-3.94993</v>
+        <v>52.21914289999999</v>
       </c>
       <c r="D195" t="n">
-        <v>52.29795</v>
+        <v>-3.9321256</v>
       </c>
       <c r="E195" t="n">
         <v>25000</v>
@@ -8209,10 +8833,13 @@
       <c r="L195" t="n">
         <v>0.5182026184207852</v>
       </c>
+      <c r="M195" t="n">
+        <v>12955.06546051963</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -8220,10 +8847,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>-2.16475</v>
+        <v>52.806693</v>
       </c>
       <c r="D196" t="n">
-        <v>52.84792</v>
+        <v>-2.12066</v>
       </c>
       <c r="E196" t="n">
         <v>25000</v>
@@ -8249,10 +8876,13 @@
       <c r="L196" t="n">
         <v>0.03892269015103211</v>
       </c>
+      <c r="M196" t="n">
+        <v>973.0672537758028</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -8260,10 +8890,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.5880840000000001</v>
+        <v>51.5345547</v>
       </c>
       <c r="D197" t="n">
-        <v>51.56159</v>
+        <v>0.5905060000000001</v>
       </c>
       <c r="E197" t="n">
         <v>25000</v>
@@ -8287,12 +8917,15 @@
         <v>4781.66313457756</v>
       </c>
       <c r="L197" t="n">
-        <v>-8.326672684688674e-17</v>
+        <v>-2.220446049250313e-16</v>
+      </c>
+      <c r="M197" t="n">
+        <v>-5.551115123125783e-12</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -8300,10 +8933,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>-3.59212</v>
+        <v>50.9190318</v>
       </c>
       <c r="D198" t="n">
-        <v>50.86882</v>
+        <v>-3.4746216</v>
       </c>
       <c r="E198" t="n">
         <v>25000</v>
@@ -8328,6 +8961,9 @@
       </c>
       <c r="L198" t="n">
         <v>0.1847028204188629</v>
+      </c>
+      <c r="M198" t="n">
+        <v>4617.570510471572</v>
       </c>
     </row>
     <row r="199">
@@ -8340,10 +8976,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>-1.40115</v>
+        <v>53.235048</v>
       </c>
       <c r="D199" t="n">
-        <v>53.25575</v>
+        <v>-1.421629</v>
       </c>
       <c r="E199" t="n">
         <v>24000</v>
@@ -8369,10 +9005,13 @@
       <c r="L199" t="n">
         <v>0.1127624746535624</v>
       </c>
+      <c r="M199" t="n">
+        <v>2706.299391685497</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -8380,10 +9019,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>0.009016</v>
+        <v>52.54748360000001</v>
       </c>
       <c r="D200" t="n">
-        <v>52.53544</v>
+        <v>0.0873357</v>
       </c>
       <c r="E200" t="n">
         <v>24000</v>
@@ -8407,12 +9046,15 @@
         <v>904.6517755079446</v>
       </c>
       <c r="L200" t="n">
-        <v>2.775557561562891e-17</v>
+        <v>0</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -8420,10 +9062,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.533243</v>
+        <v>52.78739299999999</v>
       </c>
       <c r="D201" t="n">
-        <v>52.71283</v>
+        <v>0.493615</v>
       </c>
       <c r="E201" t="n">
         <v>23000</v>
@@ -8447,12 +9089,15 @@
         <v>3948.423298895801</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1220201719461332</v>
+        <v>0.1220201719461331</v>
+      </c>
+      <c r="M201" t="n">
+        <v>2806.463954761062</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -8460,10 +9105,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>-2.70298</v>
+        <v>53.2302974</v>
       </c>
       <c r="D202" t="n">
-        <v>53.16336</v>
+        <v>-2.7151117</v>
       </c>
       <c r="E202" t="n">
         <v>23000</v>
@@ -8489,10 +9134,13 @@
       <c r="L202" t="n">
         <v>0.09264031898645819</v>
       </c>
+      <c r="M202" t="n">
+        <v>2130.727336688538</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -8500,10 +9148,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.020516</v>
+        <v>53.30423649999999</v>
       </c>
       <c r="D203" t="n">
-        <v>53.26446</v>
+        <v>0.100202</v>
       </c>
       <c r="E203" t="n">
         <v>22000</v>
@@ -8529,10 +9177,13 @@
       <c r="L203" t="n">
         <v>0.04726540088438191</v>
       </c>
+      <c r="M203" t="n">
+        <v>1039.838819456402</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -8540,10 +9191,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>-2.00376</v>
+        <v>52.335589</v>
       </c>
       <c r="D204" t="n">
-        <v>52.36169</v>
+        <v>-2.061906</v>
       </c>
       <c r="E204" t="n">
         <v>22000</v>
@@ -8567,20 +9218,27 @@
         <v>2505.012033723078</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1273849005354014</v>
+        <v>0.1273849005354013</v>
+      </c>
+      <c r="M204" t="n">
+        <v>2802.467811778828</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Wellingborough</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
+      <c r="C205" t="n">
+        <v>52.302419</v>
+      </c>
+      <c r="D205" t="n">
+        <v>-0.6939639999999999</v>
+      </c>
       <c r="E205" t="n">
         <v>22000</v>
       </c>
@@ -8605,10 +9263,13 @@
       <c r="L205" t="n">
         <v>0.04167275438771656</v>
       </c>
+      <c r="M205" t="n">
+        <v>916.8005965297643</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -8616,10 +9277,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1.373233</v>
+        <v>52.4828179</v>
       </c>
       <c r="D206" t="n">
-        <v>52.51218</v>
+        <v>1.2294887</v>
       </c>
       <c r="E206" t="n">
         <v>21000</v>
@@ -8645,10 +9306,13 @@
       <c r="L206" t="n">
         <v>0.1190304101217146</v>
       </c>
+      <c r="M206" t="n">
+        <v>2499.638612556006</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -8656,10 +9320,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>-0.6263</v>
+        <v>52.6583014</v>
       </c>
       <c r="D207" t="n">
-        <v>52.66765</v>
+        <v>-0.639643</v>
       </c>
       <c r="E207" t="n">
         <v>20000</v>
@@ -8685,10 +9349,13 @@
       <c r="L207" t="n">
         <v>0.1549869224280545</v>
       </c>
+      <c r="M207" t="n">
+        <v>3099.738448561089</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -8696,10 +9363,10 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>-1.44253</v>
+        <v>53.1878221</v>
       </c>
       <c r="D208" t="n">
-        <v>53.16243</v>
+        <v>-1.4403714</v>
       </c>
       <c r="E208" t="n">
         <v>20000</v>
@@ -8723,12 +9390,15 @@
         <v>1069.277772470962</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06859813997023415</v>
+        <v>0.06859813997023412</v>
+      </c>
+      <c r="M208" t="n">
+        <v>1371.962799404682</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -8736,10 +9406,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1.132099</v>
+        <v>52.9124395</v>
       </c>
       <c r="D209" t="n">
-        <v>52.83389</v>
+        <v>1.0469133</v>
       </c>
       <c r="E209" t="n">
         <v>20000</v>
@@ -8765,10 +9435,13 @@
       <c r="L209" t="n">
         <v>0.07741366468826105</v>
       </c>
+      <c r="M209" t="n">
+        <v>1548.273293765221</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -8776,10 +9449,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>-0.65851</v>
+        <v>54.283113</v>
       </c>
       <c r="D210" t="n">
-        <v>54.43234</v>
+        <v>-0.399752</v>
       </c>
       <c r="E210" t="n">
         <v>20000</v>
@@ -8805,10 +9478,13 @@
       <c r="L210" t="n">
         <v>0.2306415201003631</v>
       </c>
+      <c r="M210" t="n">
+        <v>4612.830402007262</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -8816,10 +9492,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>-4.03361</v>
+        <v>50.651337</v>
       </c>
       <c r="D211" t="n">
-        <v>50.66481</v>
+        <v>-4.0309135</v>
       </c>
       <c r="E211" t="n">
         <v>20000</v>
@@ -8845,10 +9521,13 @@
       <c r="L211" t="n">
         <v>0.2700526607552154</v>
       </c>
+      <c r="M211" t="n">
+        <v>5401.053215104308</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -8856,10 +9535,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>-1.87389</v>
+        <v>53.7937996</v>
       </c>
       <c r="D212" t="n">
-        <v>53.84382</v>
+        <v>-1.7563583</v>
       </c>
       <c r="E212" t="n">
         <v>20000</v>
@@ -8885,10 +9564,13 @@
       <c r="L212" t="n">
         <v>0.1238755393316602</v>
       </c>
+      <c r="M212" t="n">
+        <v>2477.510786633204</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -8896,10 +9578,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>-2.48941</v>
+        <v>52.7409916</v>
       </c>
       <c r="D213" t="n">
-        <v>52.71417</v>
+        <v>-2.4868586</v>
       </c>
       <c r="E213" t="n">
         <v>20000</v>
@@ -8923,12 +9605,15 @@
         <v>2906.142001830197</v>
       </c>
       <c r="L213" t="n">
-        <v>-2.775557561562891e-17</v>
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -8936,10 +9621,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>-3.05101</v>
+        <v>51.7002253</v>
       </c>
       <c r="D214" t="n">
-        <v>51.69836</v>
+        <v>-3.0446015</v>
       </c>
       <c r="E214" t="n">
         <v>19000</v>
@@ -8965,10 +9650,13 @@
       <c r="L214" t="n">
         <v>0.2796315248078718</v>
       </c>
+      <c r="M214" t="n">
+        <v>5312.998971349564</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -8976,10 +9664,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>-1.78085</v>
+        <v>53.5933432</v>
       </c>
       <c r="D215" t="n">
-        <v>53.64233</v>
+        <v>-1.8009509</v>
       </c>
       <c r="E215" t="n">
         <v>19000</v>
@@ -9005,10 +9693,13 @@
       <c r="L215" t="n">
         <v>0.04193060744527743</v>
       </c>
+      <c r="M215" t="n">
+        <v>796.6815414602712</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -9016,10 +9707,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>-4.21728</v>
+        <v>50.89284780000001</v>
       </c>
       <c r="D216" t="n">
-        <v>50.90739</v>
+        <v>-4.2654808</v>
       </c>
       <c r="E216" t="n">
         <v>19000</v>
@@ -9045,10 +9736,13 @@
       <c r="L216" t="n">
         <v>0.1693239593804773</v>
       </c>
+      <c r="M216" t="n">
+        <v>3217.155228229069</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -9056,10 +9750,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>-2.33089</v>
+        <v>52.1893836</v>
       </c>
       <c r="D217" t="n">
-        <v>52.16758</v>
+        <v>-2.3369784</v>
       </c>
       <c r="E217" t="n">
         <v>19000</v>
@@ -9083,12 +9777,15 @@
         <v>3851.650535333093</v>
       </c>
       <c r="L217" t="n">
-        <v>0.08045839600715016</v>
+        <v>0.0804583960071501</v>
+      </c>
+      <c r="M217" t="n">
+        <v>1528.709524135852</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -9096,10 +9793,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>-1.3509</v>
+        <v>52.931125</v>
       </c>
       <c r="D218" t="n">
-        <v>52.9382</v>
+        <v>-1.3255597</v>
       </c>
       <c r="E218" t="n">
         <v>19000</v>
@@ -9123,12 +9820,15 @@
         <v>1195.407397597327</v>
       </c>
       <c r="L218" t="n">
-        <v>0.08915652437968614</v>
+        <v>0.08915652437968613</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1693.973963214037</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -9136,10 +9836,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>-2.36572</v>
+        <v>53.4215129</v>
       </c>
       <c r="D219" t="n">
-        <v>53.41671</v>
+        <v>-2.3517259</v>
       </c>
       <c r="E219" t="n">
         <v>19000</v>
@@ -9163,7 +9863,10 @@
         <v>4377.430425076858</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06127185462143689</v>
+        <v>0.06127185462143681</v>
+      </c>
+      <c r="M219" t="n">
+        <v>1164.165237807299</v>
       </c>
     </row>
     <row r="220">
@@ -9176,10 +9879,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>-1.34049</v>
+        <v>52.65709400000001</v>
       </c>
       <c r="D220" t="n">
-        <v>54.30872</v>
+        <v>-0.666149</v>
       </c>
       <c r="E220" t="n">
         <v>18000</v>
@@ -9203,6 +9906,9 @@
         <v>7088.941420870034</v>
       </c>
       <c r="L220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9216,10 +9922,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1.64951</v>
+        <v>52.598233</v>
       </c>
       <c r="D221" t="n">
-        <v>52.68439</v>
+        <v>1.728047</v>
       </c>
       <c r="E221" t="n">
         <v>18000</v>
@@ -9243,7 +9949,10 @@
         <v>1435.22420137667</v>
       </c>
       <c r="L221" t="n">
-        <v>0.1265029301431064</v>
+        <v>0.1265029301431063</v>
+      </c>
+      <c r="M221" t="n">
+        <v>2277.052742575914</v>
       </c>
     </row>
     <row r="222">
@@ -9256,10 +9965,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>-1.41755</v>
+        <v>52.6302593</v>
       </c>
       <c r="D222" t="n">
-        <v>52.60877</v>
+        <v>-1.4115209</v>
       </c>
       <c r="E222" t="n">
         <v>18000</v>
@@ -9283,7 +9992,10 @@
         <v>1833.452659323431</v>
       </c>
       <c r="L222" t="n">
-        <v>0.1252165787283266</v>
+        <v>0.1252165787283267</v>
+      </c>
+      <c r="M222" t="n">
+        <v>2253.89841710988</v>
       </c>
     </row>
     <row r="223">
@@ -9296,10 +10008,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>0.542937</v>
+        <v>50.969873</v>
       </c>
       <c r="D223" t="n">
-        <v>50.94871</v>
+        <v>0.4159547</v>
       </c>
       <c r="E223" t="n">
         <v>18000</v>
@@ -9325,10 +10037,13 @@
       <c r="L223" t="n">
         <v>0.1446871594297152</v>
       </c>
+      <c r="M223" t="n">
+        <v>2604.368869734874</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -9336,10 +10051,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>-1.97044</v>
+        <v>52.586214</v>
       </c>
       <c r="D224" t="n">
-        <v>52.60503</v>
+        <v>-1.982919</v>
       </c>
       <c r="E224" t="n">
         <v>18000</v>
@@ -9365,10 +10080,13 @@
       <c r="L224" t="n">
         <v>0.1104826576819847</v>
       </c>
+      <c r="M224" t="n">
+        <v>1988.687838275725</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -9376,10 +10094,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>-1.43344</v>
+        <v>54.906869</v>
       </c>
       <c r="D225" t="n">
-        <v>54.85719</v>
+        <v>-1.383801</v>
       </c>
       <c r="E225" t="n">
         <v>17000</v>
@@ -9403,12 +10121,15 @@
         <v>5329.866135134011</v>
       </c>
       <c r="L225" t="n">
-        <v>0.5835397415445629</v>
+        <v>0.5835397415445628</v>
+      </c>
+      <c r="M225" t="n">
+        <v>9920.175606257568</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -9416,10 +10137,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>-2.23494</v>
+        <v>52.4038046</v>
       </c>
       <c r="D226" t="n">
-        <v>52.3853</v>
+        <v>-2.2537632</v>
       </c>
       <c r="E226" t="n">
         <v>17000</v>
@@ -9445,10 +10166,13 @@
       <c r="L226" t="n">
         <v>0.0526706639966068</v>
       </c>
+      <c r="M226" t="n">
+        <v>895.4012879423157</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -9456,10 +10180,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>-0.30382</v>
+        <v>53.7452888</v>
       </c>
       <c r="D227" t="n">
-        <v>53.7692</v>
+        <v>-0.33657</v>
       </c>
       <c r="E227" t="n">
         <v>17000</v>
@@ -9485,10 +10209,13 @@
       <c r="L227" t="n">
         <v>0.08534996439970899</v>
       </c>
+      <c r="M227" t="n">
+        <v>1450.949394795053</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -9496,10 +10223,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>-3.06701</v>
+        <v>53.3727181</v>
       </c>
       <c r="D228" t="n">
-        <v>53.37478</v>
+        <v>-3.073754</v>
       </c>
       <c r="E228" t="n">
         <v>16000</v>
@@ -9523,12 +10250,15 @@
         <v>8921.715330942252</v>
       </c>
       <c r="L228" t="n">
-        <v>-1.110223024625157e-16</v>
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -9536,10 +10266,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>-2.077</v>
+        <v>53.4805828</v>
       </c>
       <c r="D229" t="n">
-        <v>53.47867</v>
+        <v>-2.0809891</v>
       </c>
       <c r="E229" t="n">
         <v>16000</v>
@@ -9563,12 +10293,15 @@
         <v>2878.717295682888</v>
       </c>
       <c r="L229" t="n">
-        <v>0.3522504916054247</v>
+        <v>0.3522504916054248</v>
+      </c>
+      <c r="M229" t="n">
+        <v>5636.007865686796</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -9576,10 +10309,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>-1.65297</v>
+        <v>54.978252</v>
       </c>
       <c r="D230" t="n">
-        <v>55.021</v>
+        <v>-1.61778</v>
       </c>
       <c r="E230" t="n">
         <v>16000</v>
@@ -9605,10 +10338,13 @@
       <c r="L230" t="n">
         <v>0.05790337653751243</v>
       </c>
+      <c r="M230" t="n">
+        <v>926.4540246001989</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -9616,10 +10352,10 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>-1.47965</v>
+        <v>52.52249</v>
       </c>
       <c r="D231" t="n">
-        <v>52.50094</v>
+        <v>-1.4723491</v>
       </c>
       <c r="E231" t="n">
         <v>16000</v>
@@ -9643,12 +10379,15 @@
         <v>3565.762631078992</v>
       </c>
       <c r="L231" t="n">
-        <v>0.1697463483847247</v>
+        <v>0.1697463483847248</v>
+      </c>
+      <c r="M231" t="n">
+        <v>2715.941574155597</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -9656,10 +10395,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>-2.56167</v>
+        <v>53.39203999999999</v>
       </c>
       <c r="D232" t="n">
-        <v>53.39163</v>
+        <v>-2.6023453</v>
       </c>
       <c r="E232" t="n">
         <v>16000</v>
@@ -9685,10 +10424,13 @@
       <c r="L232" t="n">
         <v>0.3681856767787025</v>
       </c>
+      <c r="M232" t="n">
+        <v>5890.97082845924</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -9696,10 +10438,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>-1.21099</v>
+        <v>54.574227</v>
       </c>
       <c r="D233" t="n">
-        <v>54.54467</v>
+        <v>-1.234956</v>
       </c>
       <c r="E233" t="n">
         <v>16000</v>
@@ -9723,12 +10465,15 @@
         <v>13863.71380368516</v>
       </c>
       <c r="L233" t="n">
-        <v>-1.110223024625157e-16</v>
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -9736,10 +10481,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>-2.99203</v>
+        <v>53.04304</v>
       </c>
       <c r="D234" t="n">
-        <v>53.00167</v>
+        <v>-2.992494</v>
       </c>
       <c r="E234" t="n">
         <v>16000</v>
@@ -9765,18 +10510,25 @@
       <c r="L234" t="n">
         <v>0.191919732259873</v>
       </c>
+      <c r="M234" t="n">
+        <v>3070.715716157968</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Corby</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr"/>
+      <c r="C235" t="n">
+        <v>52.49229829999999</v>
+      </c>
+      <c r="D235" t="n">
+        <v>-0.6842332999999999</v>
+      </c>
       <c r="E235" t="n">
         <v>15000</v>
       </c>
@@ -9800,6 +10552,9 @@
       </c>
       <c r="L235" t="n">
         <v>0.06835076478777291</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1025.261471816594</v>
       </c>
     </row>
     <row r="236">
@@ -9812,10 +10567,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>-1.76049</v>
+        <v>52.681602</v>
       </c>
       <c r="D236" t="n">
-        <v>52.69615</v>
+        <v>-1.831672</v>
       </c>
       <c r="E236" t="n">
         <v>14000</v>
@@ -9839,7 +10594,10 @@
         <v>2257.509061045335</v>
       </c>
       <c r="L236" t="n">
-        <v>5.551115123125783e-17</v>
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -9852,10 +10610,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>-1.17804</v>
+        <v>53.147195</v>
       </c>
       <c r="D237" t="n">
-        <v>53.16703</v>
+        <v>-1.198674</v>
       </c>
       <c r="E237" t="n">
         <v>14000</v>
@@ -9879,12 +10637,15 @@
         <v>5442.871421058404</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05914686564753641</v>
+        <v>0.05914686564753646</v>
+      </c>
+      <c r="M237" t="n">
+        <v>828.0561190655104</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -9892,10 +10653,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>-0.13911</v>
+        <v>53.5668201</v>
       </c>
       <c r="D238" t="n">
-        <v>53.52327</v>
+        <v>-0.08150660000000001</v>
       </c>
       <c r="E238" t="n">
         <v>14000</v>
@@ -9921,10 +10682,13 @@
       <c r="L238" t="n">
         <v>0</v>
       </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -9932,10 +10696,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>-1.11907</v>
+        <v>52.97345499999999</v>
       </c>
       <c r="D239" t="n">
-        <v>53.02434</v>
+        <v>-1.0800559</v>
       </c>
       <c r="E239" t="n">
         <v>13000</v>
@@ -9959,12 +10723,15 @@
         <v>1191.681937137752</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06161131934265691</v>
+        <v>0.06161131934265696</v>
+      </c>
+      <c r="M239" t="n">
+        <v>800.9471514545404</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -9972,10 +10739,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>-1.46219</v>
+        <v>53.0151867</v>
       </c>
       <c r="D240" t="n">
-        <v>53.02884</v>
+        <v>-1.4823067</v>
       </c>
       <c r="E240" t="n">
         <v>13000</v>
@@ -9999,12 +10766,15 @@
         <v>816.5503563469456</v>
       </c>
       <c r="L240" t="n">
-        <v>0.07923622800182585</v>
+        <v>0.07923622800182584</v>
+      </c>
+      <c r="M240" t="n">
+        <v>1030.070964023736</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -10012,10 +10782,10 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>-2.99177</v>
+        <v>53.5034449</v>
       </c>
       <c r="D241" t="n">
-        <v>53.4821</v>
+        <v>-2.970359</v>
       </c>
       <c r="E241" t="n">
         <v>13000</v>
@@ -10041,10 +10811,13 @@
       <c r="L241" t="n">
         <v>0</v>
       </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -10052,10 +10825,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>-0.8544</v>
+        <v>52.82827839999999</v>
       </c>
       <c r="D242" t="n">
-        <v>52.80329</v>
+        <v>-0.8432685</v>
       </c>
       <c r="E242" t="n">
         <v>13000</v>
@@ -10079,12 +10852,15 @@
         <v>4141.772452407299</v>
       </c>
       <c r="L242" t="n">
-        <v>-5.551115123125783e-17</v>
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -10092,10 +10868,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>-0.32417</v>
+        <v>50.8348175</v>
       </c>
       <c r="D243" t="n">
-        <v>50.84572</v>
+        <v>-0.3101263</v>
       </c>
       <c r="E243" t="n">
         <v>13000</v>
@@ -10121,10 +10897,13 @@
       <c r="L243" t="n">
         <v>0.1128657236691015</v>
       </c>
+      <c r="M243" t="n">
+        <v>1467.25440769832</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -10132,10 +10911,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>-2.78108</v>
+        <v>54.33135499999999</v>
       </c>
       <c r="D244" t="n">
-        <v>54.29908</v>
+        <v>-2.74009</v>
       </c>
       <c r="E244" t="n">
         <v>13000</v>
@@ -10159,12 +10938,15 @@
         <v>5778.535721659304</v>
       </c>
       <c r="L244" t="n">
-        <v>0.1139109145384434</v>
+        <v>0.1139109145384433</v>
+      </c>
+      <c r="M244" t="n">
+        <v>1480.841888999762</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -10172,10 +10954,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>-2.32631</v>
+        <v>53.013208</v>
       </c>
       <c r="D245" t="n">
-        <v>53.00345</v>
+        <v>-2.2273002</v>
       </c>
       <c r="E245" t="n">
         <v>13000</v>
@@ -10201,10 +10983,13 @@
       <c r="L245" t="n">
         <v>0.1067567825093569</v>
       </c>
+      <c r="M245" t="n">
+        <v>1387.83817262164</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -10212,10 +10997,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>-1.093</v>
+        <v>52.5801686</v>
       </c>
       <c r="D246" t="n">
-        <v>52.58875</v>
+        <v>-1.0966272</v>
       </c>
       <c r="E246" t="n">
         <v>12000</v>
@@ -10241,10 +11026,13 @@
       <c r="L246" t="n">
         <v>0.1464382342643988</v>
       </c>
+      <c r="M246" t="n">
+        <v>1757.258811172786</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -10252,10 +11040,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>-2.47952</v>
+        <v>53.57686469999999</v>
       </c>
       <c r="D247" t="n">
-        <v>53.58449</v>
+        <v>-2.4282192</v>
       </c>
       <c r="E247" t="n">
         <v>12000</v>
@@ -10281,10 +11069,13 @@
       <c r="L247" t="n">
         <v>0.1201075227533708</v>
       </c>
+      <c r="M247" t="n">
+        <v>1441.290273040449</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -10292,10 +11083,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>-1.56835</v>
+        <v>54.52361</v>
       </c>
       <c r="D248" t="n">
-        <v>54.53534</v>
+        <v>-1.559458</v>
       </c>
       <c r="E248" t="n">
         <v>12000</v>
@@ -10321,10 +11112,13 @@
       <c r="L248" t="n">
         <v>0</v>
       </c>
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -10332,10 +11126,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>-1.9471</v>
+        <v>52.30897</v>
       </c>
       <c r="D249" t="n">
-        <v>52.28541</v>
+        <v>-1.940936</v>
       </c>
       <c r="E249" t="n">
         <v>12000</v>
@@ -10361,10 +11155,13 @@
       <c r="L249" t="n">
         <v>0.2168341402850877</v>
       </c>
+      <c r="M249" t="n">
+        <v>2602.009683421053</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -10372,10 +11169,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>-1.25422</v>
+        <v>53.09289279999999</v>
       </c>
       <c r="D250" t="n">
-        <v>53.09747</v>
+        <v>-1.2697006</v>
       </c>
       <c r="E250" t="n">
         <v>12000</v>
@@ -10401,10 +11198,13 @@
       <c r="L250" t="n">
         <v>0.527023854661812</v>
       </c>
+      <c r="M250" t="n">
+        <v>6324.286255941744</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -10412,10 +11212,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>-1.42092</v>
+        <v>53.683298</v>
       </c>
       <c r="D251" t="n">
-        <v>53.65922</v>
+        <v>-1.505924</v>
       </c>
       <c r="E251" t="n">
         <v>11000</v>
@@ -10440,6 +11240,9 @@
       </c>
       <c r="L251" t="n">
         <v>0.08617049865079307</v>
+      </c>
+      <c r="M251" t="n">
+        <v>947.8754851587238</v>
       </c>
     </row>
     <row r="252">
@@ -10452,10 +11255,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>-1.68696</v>
+        <v>54.95268</v>
       </c>
       <c r="D252" t="n">
-        <v>54.93115</v>
+        <v>-1.603411</v>
       </c>
       <c r="E252" t="n">
         <v>11000</v>
@@ -10479,12 +11282,15 @@
         <v>4174.424092291993</v>
       </c>
       <c r="L252" t="n">
-        <v>0.1865699382348694</v>
+        <v>0.1865699382348693</v>
+      </c>
+      <c r="M252" t="n">
+        <v>2052.269320583563</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -10492,10 +11298,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>-2.83297</v>
+        <v>53.454594</v>
       </c>
       <c r="D253" t="n">
-        <v>53.43788</v>
+        <v>-2.852907</v>
       </c>
       <c r="E253" t="n">
         <v>11000</v>
@@ -10519,12 +11325,15 @@
         <v>3589.337098611751</v>
       </c>
       <c r="L253" t="n">
-        <v>-5.551115123125783e-17</v>
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -10532,10 +11341,10 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>-1.54925</v>
+        <v>53.55263</v>
       </c>
       <c r="D254" t="n">
-        <v>53.52577</v>
+        <v>-1.479726</v>
       </c>
       <c r="E254" t="n">
         <v>11000</v>
@@ -10561,10 +11370,13 @@
       <c r="L254" t="n">
         <v>0</v>
       </c>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -10572,10 +11384,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>-3.35764</v>
+        <v>51.0192705</v>
       </c>
       <c r="D255" t="n">
-        <v>51.06348</v>
+        <v>-3.1059235</v>
       </c>
       <c r="E255" t="n">
         <v>10000</v>
@@ -10601,10 +11413,13 @@
       <c r="L255" t="n">
         <v>0.2369157696183143</v>
       </c>
+      <c r="M255" t="n">
+        <v>2369.157696183143</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -10612,10 +11427,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>-2.07523</v>
+        <v>55.2082542</v>
       </c>
       <c r="D256" t="n">
-        <v>55.30038</v>
+        <v>-2.0784138</v>
       </c>
       <c r="E256" t="n">
         <v>10000</v>
@@ -10641,10 +11456,13 @@
       <c r="L256" t="n">
         <v>0.3665239014231071</v>
       </c>
+      <c r="M256" t="n">
+        <v>3665.239014231071</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -10652,10 +11470,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>-1.42209</v>
+        <v>52.7466112</v>
       </c>
       <c r="D257" t="n">
-        <v>52.7425</v>
+        <v>-1.4735321</v>
       </c>
       <c r="E257" t="n">
         <v>10000</v>
@@ -10681,10 +11499,13 @@
       <c r="L257" t="n">
         <v>0</v>
       </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -10692,10 +11513,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>-1.81438</v>
+        <v>52.838654</v>
       </c>
       <c r="D258" t="n">
-        <v>52.83651</v>
+        <v>-1.8285789</v>
       </c>
       <c r="E258" t="n">
         <v>9000</v>
@@ -10721,10 +11542,13 @@
       <c r="L258" t="n">
         <v>0</v>
       </c>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -10732,10 +11556,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>-0.11218</v>
+        <v>52.97893999999999</v>
       </c>
       <c r="D259" t="n">
-        <v>52.97794</v>
+        <v>-0.026577</v>
       </c>
       <c r="E259" t="n">
         <v>9000</v>
@@ -10761,10 +11585,13 @@
       <c r="L259" t="n">
         <v>0.1127729786770896</v>
       </c>
+      <c r="M259" t="n">
+        <v>1014.956808093806</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -10772,10 +11599,10 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>-2.72435</v>
+        <v>55.9493383</v>
       </c>
       <c r="D260" t="n">
-        <v>55.94207</v>
+        <v>-2.7704464</v>
       </c>
       <c r="E260" t="n">
         <v>9000</v>
@@ -10801,10 +11628,13 @@
       <c r="L260" t="n">
         <v>0.3004983072242743</v>
       </c>
+      <c r="M260" t="n">
+        <v>2704.484765018468</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -10812,10 +11642,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>-3.18592</v>
+        <v>51.7875779</v>
       </c>
       <c r="D261" t="n">
-        <v>51.75364</v>
+        <v>-3.2043931</v>
       </c>
       <c r="E261" t="n">
         <v>9000</v>
@@ -10841,10 +11671,13 @@
       <c r="L261" t="n">
         <v>1.110223024625157e-16</v>
       </c>
+      <c r="M261" t="n">
+        <v>9.992007221626409e-13</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -10852,10 +11685,10 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>-0.50774</v>
+        <v>53.3465722</v>
       </c>
       <c r="D262" t="n">
-        <v>53.40044</v>
+        <v>-0.4531518</v>
       </c>
       <c r="E262" t="n">
         <v>9000</v>
@@ -10879,12 +11712,15 @@
         <v>2484.218515963216</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07552963053972234</v>
+        <v>0.07552963053972239</v>
+      </c>
+      <c r="M262" t="n">
+        <v>679.7666748575016</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -10892,10 +11728,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>-1.27228</v>
+        <v>53.231044</v>
       </c>
       <c r="D263" t="n">
-        <v>53.23875</v>
+        <v>-1.2897209</v>
       </c>
       <c r="E263" t="n">
         <v>9000</v>
@@ -10921,10 +11757,13 @@
       <c r="L263" t="n">
         <v>0.2524766363563594</v>
       </c>
+      <c r="M263" t="n">
+        <v>2272.289727207235</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -10932,10 +11771,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>-2.71809</v>
+        <v>53.763201</v>
       </c>
       <c r="D264" t="n">
-        <v>53.82202</v>
+        <v>-2.70309</v>
       </c>
       <c r="E264" t="n">
         <v>9000</v>
@@ -10961,10 +11800,13 @@
       <c r="L264" t="n">
         <v>0.1228879848316027</v>
       </c>
+      <c r="M264" t="n">
+        <v>1105.991863484424</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -10972,10 +11814,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>-3.83272</v>
+        <v>55.6735909</v>
       </c>
       <c r="D265" t="n">
-        <v>55.60453</v>
+        <v>-3.7819661</v>
       </c>
       <c r="E265" t="n">
         <v>9000</v>
@@ -11001,10 +11843,13 @@
       <c r="L265" t="n">
         <v>1.110223024625157e-16</v>
       </c>
+      <c r="M265" t="n">
+        <v>9.992007221626409e-13</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -11012,10 +11857,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>-3.77715</v>
+        <v>52.9277266</v>
       </c>
       <c r="D266" t="n">
-        <v>52.89883</v>
+        <v>-4.1334836</v>
       </c>
       <c r="E266" t="n">
         <v>9000</v>
@@ -11041,10 +11886,13 @@
       <c r="L266" t="n">
         <v>0.2624573580325029</v>
       </c>
+      <c r="M266" t="n">
+        <v>2362.116222292526</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -11052,10 +11900,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>-1.96182</v>
+        <v>53.7247845</v>
       </c>
       <c r="D267" t="n">
-        <v>53.72048</v>
+        <v>-1.8658357</v>
       </c>
       <c r="E267" t="n">
         <v>9000</v>
@@ -11079,12 +11927,15 @@
         <v>3882.05787825466</v>
       </c>
       <c r="L267" t="n">
-        <v>0.4589337378570718</v>
+        <v>0.4589337378570717</v>
+      </c>
+      <c r="M267" t="n">
+        <v>4130.403640713645</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -11092,10 +11943,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>-0.4767</v>
+        <v>53.0880498</v>
       </c>
       <c r="D268" t="n">
-        <v>53.08058</v>
+        <v>-0.4489081999999999</v>
       </c>
       <c r="E268" t="n">
         <v>9000</v>
@@ -11121,10 +11972,13 @@
       <c r="L268" t="n">
         <v>0.2244276829373311</v>
       </c>
+      <c r="M268" t="n">
+        <v>2019.849146435979</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -11132,10 +11986,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>-2.85869</v>
+        <v>55.54856969999999</v>
       </c>
       <c r="D269" t="n">
-        <v>55.52595</v>
+        <v>-2.7861388</v>
       </c>
       <c r="E269" t="n">
         <v>8000</v>
@@ -11159,12 +12013,15 @@
         <v>1751.121849138993</v>
       </c>
       <c r="L269" t="n">
-        <v>0.4373190740746482</v>
+        <v>0.4373190740746481</v>
+      </c>
+      <c r="M269" t="n">
+        <v>3498.552592597185</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -11172,10 +12029,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>-1.70711</v>
+        <v>53.1632937</v>
       </c>
       <c r="D270" t="n">
-        <v>53.12326</v>
+        <v>-1.6699826</v>
       </c>
       <c r="E270" t="n">
         <v>8000</v>
@@ -11199,12 +12056,15 @@
         <v>4836.621131912815</v>
       </c>
       <c r="L270" t="n">
-        <v>-1.110223024625157e-16</v>
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -11212,10 +12072,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>-1.68451</v>
+        <v>52.633584</v>
       </c>
       <c r="D271" t="n">
-        <v>52.62031</v>
+        <v>-1.691032</v>
       </c>
       <c r="E271" t="n">
         <v>8000</v>
@@ -11241,10 +12101,13 @@
       <c r="L271" t="n">
         <v>0.1613130691534328</v>
       </c>
+      <c r="M271" t="n">
+        <v>1290.504553227462</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -11252,10 +12115,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>-1.98552</v>
+        <v>54.3299809</v>
       </c>
       <c r="D272" t="n">
-        <v>54.35761</v>
+        <v>-2.0118584</v>
       </c>
       <c r="E272" t="n">
         <v>7000</v>
@@ -11281,10 +12144,13 @@
       <c r="L272" t="n">
         <v>0</v>
       </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -11292,10 +12158,10 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>-1.84398</v>
+        <v>53.3325341</v>
       </c>
       <c r="D273" t="n">
-        <v>53.38569</v>
+        <v>-1.8876721</v>
       </c>
       <c r="E273" t="n">
         <v>7000</v>
@@ -11319,12 +12185,15 @@
         <v>3497.533147685661</v>
       </c>
       <c r="L273" t="n">
-        <v>0.314574779765157</v>
+        <v>0.3145747797651569</v>
+      </c>
+      <c r="M273" t="n">
+        <v>2202.023458356098</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -11332,10 +12201,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>-2.6603</v>
+        <v>54.0449072</v>
       </c>
       <c r="D274" t="n">
-        <v>54.07901</v>
+        <v>-2.799346700000001</v>
       </c>
       <c r="E274" t="n">
         <v>7000</v>
@@ -11361,10 +12230,13 @@
       <c r="L274" t="n">
         <v>0</v>
       </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -11372,10 +12244,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>-3.18248</v>
+        <v>53.1668658</v>
       </c>
       <c r="D275" t="n">
-        <v>53.21471</v>
+        <v>-3.1418908</v>
       </c>
       <c r="E275" t="n">
         <v>7000</v>
@@ -11399,12 +12271,15 @@
         <v>1543.39974693487</v>
       </c>
       <c r="L275" t="n">
-        <v>0.2542654908472003</v>
+        <v>0.2542654908472002</v>
+      </c>
+      <c r="M275" t="n">
+        <v>1779.858435930401</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -11412,10 +12287,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>-2.20398</v>
+        <v>57.1498891</v>
       </c>
       <c r="D276" t="n">
-        <v>57.16697</v>
+        <v>-2.0937528</v>
       </c>
       <c r="E276" t="n">
         <v>7000</v>
@@ -11441,10 +12316,13 @@
       <c r="L276" t="n">
         <v>0</v>
       </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -11452,10 +12330,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>-2.3088</v>
+        <v>53.5933498</v>
       </c>
       <c r="D277" t="n">
-        <v>53.5931</v>
+        <v>-2.2966054</v>
       </c>
       <c r="E277" t="n">
         <v>7000</v>
@@ -11479,12 +12357,15 @@
         <v>0</v>
       </c>
       <c r="L277" t="n">
-        <v>0.1775133151878209</v>
+        <v>0.177513315187821</v>
+      </c>
+      <c r="M277" t="n">
+        <v>1242.593206314747</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -11492,10 +12373,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>-2.80498</v>
+        <v>54.892473</v>
       </c>
       <c r="D278" t="n">
-        <v>54.97833</v>
+        <v>-2.932931</v>
       </c>
       <c r="E278" t="n">
         <v>7000</v>
@@ -11519,12 +12400,15 @@
         <v>6457.316612382861</v>
       </c>
       <c r="L278" t="n">
-        <v>-1.110223024625157e-16</v>
+        <v>0</v>
+      </c>
+      <c r="M278" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -11532,10 +12416,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>-1.98277</v>
+        <v>52.7183027</v>
       </c>
       <c r="D279" t="n">
-        <v>52.70166</v>
+        <v>-1.9858812</v>
       </c>
       <c r="E279" t="n">
         <v>6000</v>
@@ -11559,12 +12443,15 @@
         <v>0</v>
       </c>
       <c r="L279" t="n">
-        <v>-8.326672684688674e-17</v>
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -11572,10 +12459,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>-2.15495</v>
+        <v>52.6615371</v>
       </c>
       <c r="D280" t="n">
-        <v>52.69692</v>
+        <v>-2.1727483</v>
       </c>
       <c r="E280" t="n">
         <v>6000</v>
@@ -11601,10 +12488,13 @@
       <c r="L280" t="n">
         <v>0</v>
       </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -11612,10 +12502,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>-3.1999</v>
+        <v>54.108967</v>
       </c>
       <c r="D281" t="n">
-        <v>54.15731</v>
+        <v>-3.218894</v>
       </c>
       <c r="E281" t="n">
         <v>6000</v>
@@ -11641,10 +12531,13 @@
       <c r="L281" t="n">
         <v>0</v>
       </c>
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -11652,10 +12545,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>-0.9787</v>
+        <v>53.3186178</v>
       </c>
       <c r="D282" t="n">
-        <v>53.35604</v>
+        <v>-0.9398502999999999</v>
       </c>
       <c r="E282" t="n">
         <v>6000</v>
@@ -11679,12 +12572,15 @@
         <v>0</v>
       </c>
       <c r="L282" t="n">
-        <v>0.3268241926198959</v>
+        <v>0.326824192619896</v>
+      </c>
+      <c r="M282" t="n">
+        <v>1960.945155719376</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -11692,10 +12588,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>-4.02863</v>
+        <v>55.0701073</v>
       </c>
       <c r="D283" t="n">
-        <v>55.09621</v>
+        <v>-3.6052581</v>
       </c>
       <c r="E283" t="n">
         <v>6000</v>
@@ -11721,10 +12617,13 @@
       <c r="L283" t="n">
         <v>0.1538591869138308</v>
       </c>
+      <c r="M283" t="n">
+        <v>923.1551214829849</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -11732,10 +12631,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>-1.27018</v>
+        <v>54.691745</v>
       </c>
       <c r="D284" t="n">
-        <v>54.67614</v>
+        <v>-1.212926</v>
       </c>
       <c r="E284" t="n">
         <v>6000</v>
@@ -11761,10 +12660,13 @@
       <c r="L284" t="n">
         <v>0</v>
       </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -11772,10 +12674,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>-1.44679</v>
+        <v>54.9636693</v>
       </c>
       <c r="D285" t="n">
-        <v>54.96988</v>
+        <v>-1.4418634</v>
       </c>
       <c r="E285" t="n">
         <v>6000</v>
@@ -11801,10 +12703,13 @@
       <c r="L285" t="n">
         <v>0.4680110148248089</v>
       </c>
+      <c r="M285" t="n">
+        <v>2808.066088948853</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -11812,10 +12717,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>-2.12467</v>
+        <v>53.41063159999999</v>
       </c>
       <c r="D286" t="n">
-        <v>53.39116</v>
+        <v>-2.1575332</v>
       </c>
       <c r="E286" t="n">
         <v>6000</v>
@@ -11839,12 +12744,15 @@
         <v>3121.691721834976</v>
       </c>
       <c r="L286" t="n">
-        <v>0.3479062792248085</v>
+        <v>0.3479062792248084</v>
+      </c>
+      <c r="M286" t="n">
+        <v>2087.43767534885</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -11852,10 +12760,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>-3.74646</v>
+        <v>53.282872</v>
       </c>
       <c r="D287" t="n">
-        <v>53.14739</v>
+        <v>-3.82948</v>
       </c>
       <c r="E287" t="n">
         <v>5000</v>
@@ -11881,10 +12789,13 @@
       <c r="L287" t="n">
         <v>0</v>
       </c>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -11892,10 +12803,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>-2.14784</v>
+        <v>53.6097136</v>
       </c>
       <c r="D288" t="n">
-        <v>53.60741</v>
+        <v>-2.1561</v>
       </c>
       <c r="E288" t="n">
         <v>5000</v>
@@ -11921,10 +12832,13 @@
       <c r="L288" t="n">
         <v>0.2632386599557668</v>
       </c>
+      <c r="M288" t="n">
+        <v>1316.193299778834</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -11932,10 +12846,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>-2.16168</v>
+        <v>54.1091134</v>
       </c>
       <c r="D289" t="n">
-        <v>54.05376</v>
+        <v>-2.1562821</v>
       </c>
       <c r="E289" t="n">
         <v>5000</v>
@@ -11961,10 +12875,13 @@
       <c r="L289" t="n">
         <v>0</v>
       </c>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -11972,10 +12889,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>-3.02199</v>
+        <v>53.81674229999999</v>
       </c>
       <c r="D290" t="n">
-        <v>53.82164</v>
+        <v>-3.0370485</v>
       </c>
       <c r="E290" t="n">
         <v>5000</v>
@@ -11999,12 +12916,15 @@
         <v>2904.018625632998</v>
       </c>
       <c r="L290" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -12012,10 +12932,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>-1.00608</v>
+        <v>54.59713439999999</v>
       </c>
       <c r="D291" t="n">
-        <v>54.56752</v>
+        <v>-1.0775997</v>
       </c>
       <c r="E291" t="n">
         <v>5000</v>
@@ -12041,10 +12961,13 @@
       <c r="L291" t="n">
         <v>0.2979706617594542</v>
       </c>
+      <c r="M291" t="n">
+        <v>1489.853308797271</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -12052,10 +12975,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>-2.61921</v>
+        <v>53.653511</v>
       </c>
       <c r="D292" t="n">
-        <v>53.6724</v>
+        <v>-2.632596</v>
       </c>
       <c r="E292" t="n">
         <v>5000</v>
@@ -12081,10 +13004,13 @@
       <c r="L292" t="n">
         <v>0.2820435928444838</v>
       </c>
+      <c r="M292" t="n">
+        <v>1410.217964222419</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -12092,10 +13018,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>-1.6242</v>
+        <v>52.5423152</v>
       </c>
       <c r="D293" t="n">
-        <v>52.56484</v>
+        <v>-1.6076567</v>
       </c>
       <c r="E293" t="n">
         <v>5000</v>
@@ -12119,12 +13045,15 @@
         <v>2728.292395867564</v>
       </c>
       <c r="L293" t="n">
-        <v>-1.110223024625157e-16</v>
+        <v>0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -12132,10 +13061,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>-4.66103</v>
+        <v>57.4595749</v>
       </c>
       <c r="D294" t="n">
-        <v>57.58657</v>
+        <v>-4.2263955</v>
       </c>
       <c r="E294" t="n">
         <v>5000</v>
@@ -12161,10 +13090,13 @@
       <c r="L294" t="n">
         <v>0.269662882641958</v>
       </c>
+      <c r="M294" t="n">
+        <v>1348.31441320979</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -12172,10 +13104,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>-1.30664</v>
+        <v>54.5704551</v>
       </c>
       <c r="D295" t="n">
-        <v>54.55691</v>
+        <v>-1.3289821</v>
       </c>
       <c r="E295" t="n">
         <v>5000</v>
@@ -12199,12 +13131,15 @@
         <v>0</v>
       </c>
       <c r="L295" t="n">
-        <v>-1.110223024625157e-16</v>
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -12212,10 +13147,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>-2.72871</v>
+        <v>53.7271964</v>
       </c>
       <c r="D296" t="n">
-        <v>53.72675</v>
+        <v>-2.6907306</v>
       </c>
       <c r="E296" t="n">
         <v>5000</v>
@@ -12239,12 +13174,15 @@
         <v>1651.888922789382</v>
       </c>
       <c r="L296" t="n">
-        <v>0.3094066357399542</v>
+        <v>0.3094066357399541</v>
+      </c>
+      <c r="M296" t="n">
+        <v>1547.03317869977</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -12252,10 +13190,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>-1.99334</v>
+        <v>53.0725787</v>
       </c>
       <c r="D297" t="n">
-        <v>53.06924</v>
+        <v>-1.9728995</v>
       </c>
       <c r="E297" t="n">
         <v>5000</v>
@@ -12279,7 +13217,10 @@
         <v>1288.255167688509</v>
       </c>
       <c r="L297" t="n">
-        <v>-5.551115123125783e-17</v>
+        <v>0</v>
+      </c>
+      <c r="M297" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="298">
@@ -12292,10 +13233,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>-2.97095</v>
+        <v>56.462018</v>
       </c>
       <c r="D298" t="n">
-        <v>56.4776</v>
+        <v>-2.970721</v>
       </c>
       <c r="E298" t="n">
         <v>4000</v>
@@ -12320,6 +13261,9 @@
       </c>
       <c r="L298" t="n">
         <v>1</v>
+      </c>
+      <c r="M298" t="n">
+        <v>4000</v>
       </c>
     </row>
     <row r="299">
@@ -12332,10 +13276,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>-2.68853</v>
+        <v>53.33172099999999</v>
       </c>
       <c r="D299" t="n">
-        <v>53.33424</v>
+        <v>-2.695822</v>
       </c>
       <c r="E299" t="n">
         <v>4000</v>
@@ -12359,6 +13303,9 @@
         <v>0</v>
       </c>
       <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12372,10 +13319,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>-2.91914</v>
+        <v>53.7669515</v>
       </c>
       <c r="D300" t="n">
-        <v>53.79709</v>
+        <v>-2.9030322</v>
       </c>
       <c r="E300" t="n">
         <v>4000</v>
@@ -12399,6 +13346,9 @@
         <v>0</v>
       </c>
       <c r="L300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M300" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12411,8 +13361,12 @@
           <t>Channel Islands</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr"/>
-      <c r="D301" t="inlineStr"/>
+      <c r="C301" t="n">
+        <v>55.378051</v>
+      </c>
+      <c r="D301" t="n">
+        <v>-3.435973</v>
+      </c>
       <c r="E301" t="n">
         <v>4000</v>
       </c>
@@ -12436,6 +13390,9 @@
       </c>
       <c r="L301" t="n">
         <v>0.2821729151720989</v>
+      </c>
+      <c r="M301" t="n">
+        <v>1128.691660688395</v>
       </c>
     </row>
     <row r="302">
@@ -12448,10 +13405,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>-3.83619</v>
+        <v>56.00187750000001</v>
       </c>
       <c r="D302" t="n">
-        <v>56.00077</v>
+        <v>-3.7839131</v>
       </c>
       <c r="E302" t="n">
         <v>4000</v>
@@ -12476,6 +13433,9 @@
       </c>
       <c r="L302" t="n">
         <v>0.4403138786874865</v>
+      </c>
+      <c r="M302" t="n">
+        <v>1761.255514749946</v>
       </c>
     </row>
     <row r="303">
@@ -12488,10 +13448,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>-2.4174</v>
+        <v>53.9289626</v>
       </c>
       <c r="D303" t="n">
-        <v>53.9245</v>
+        <v>-2.4627718</v>
       </c>
       <c r="E303" t="n">
         <v>4000</v>
@@ -12515,6 +13475,9 @@
         <v>1424.399150163224</v>
       </c>
       <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12528,10 +13491,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>-2.7031</v>
+        <v>53.456307</v>
       </c>
       <c r="D304" t="n">
-        <v>53.45862</v>
+        <v>-2.737095</v>
       </c>
       <c r="E304" t="n">
         <v>4000</v>
@@ -12557,10 +13520,13 @@
       <c r="L304" t="n">
         <v>0.2913425889446706</v>
       </c>
+      <c r="M304" t="n">
+        <v>1165.370355778682</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -12568,10 +13534,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>-2.2308</v>
+        <v>53.7892877</v>
       </c>
       <c r="D305" t="n">
-        <v>53.77406</v>
+        <v>-2.2405035</v>
       </c>
       <c r="E305" t="n">
         <v>4000</v>
@@ -12595,12 +13561,15 @@
         <v>0</v>
       </c>
       <c r="L305" t="n">
-        <v>-5.551115123125783e-17</v>
+        <v>0</v>
+      </c>
+      <c r="M305" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -12608,10 +13577,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>-3.34761</v>
+        <v>53.1842288</v>
       </c>
       <c r="D306" t="n">
-        <v>53.08833</v>
+        <v>-3.4224985</v>
       </c>
       <c r="E306" t="n">
         <v>3000</v>
@@ -12637,10 +13606,13 @@
       <c r="L306" t="n">
         <v>0.6889990597393734</v>
       </c>
+      <c r="M306" t="n">
+        <v>2066.99717921812</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -12648,10 +13620,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>-1.50923</v>
+        <v>55.0182399</v>
       </c>
       <c r="D307" t="n">
-        <v>55.02896</v>
+        <v>-1.4858436</v>
       </c>
       <c r="E307" t="n">
         <v>3000</v>
@@ -12677,10 +13649,13 @@
       <c r="L307" t="n">
         <v>0</v>
       </c>
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -12688,10 +13663,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>-2.4636</v>
+        <v>53.6957522</v>
       </c>
       <c r="D308" t="n">
-        <v>53.7008</v>
+        <v>-2.4682985</v>
       </c>
       <c r="E308" t="n">
         <v>3000</v>
@@ -12715,12 +13690,15 @@
         <v>1814.680700371504</v>
       </c>
       <c r="L308" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0</v>
+      </c>
+      <c r="M308" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -12728,10 +13706,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>-4.7246</v>
+        <v>55.6416731</v>
       </c>
       <c r="D309" t="n">
-        <v>55.72789</v>
+        <v>-4.75946</v>
       </c>
       <c r="E309" t="n">
         <v>3000</v>
@@ -12757,10 +13735,13 @@
       <c r="L309" t="n">
         <v>0</v>
       </c>
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -12768,10 +13749,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>-2.05274</v>
+        <v>53.5409298</v>
       </c>
       <c r="D310" t="n">
-        <v>53.55768</v>
+        <v>-2.1113659</v>
       </c>
       <c r="E310" t="n">
         <v>3000</v>
@@ -12797,10 +13778,13 @@
       <c r="L310" t="n">
         <v>0.7383778473044798</v>
       </c>
+      <c r="M310" t="n">
+        <v>2215.133541913439</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -12808,10 +13792,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>-5.22114</v>
+        <v>56.4006214</v>
       </c>
       <c r="D311" t="n">
-        <v>56.28944</v>
+        <v>-5.480748</v>
       </c>
       <c r="E311" t="n">
         <v>3000</v>
@@ -12837,10 +13821,13 @@
       <c r="L311" t="n">
         <v>0</v>
       </c>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -12848,10 +13835,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>-3.2809</v>
+        <v>54.6990638</v>
       </c>
       <c r="D312" t="n">
-        <v>54.68524</v>
+        <v>-3.1994197</v>
       </c>
       <c r="E312" t="n">
         <v>3000</v>
@@ -12877,10 +13864,13 @@
       <c r="L312" t="n">
         <v>0.7811572507492033</v>
       </c>
+      <c r="M312" t="n">
+        <v>2343.47175224761</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -12888,10 +13878,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>-2.80359</v>
+        <v>53.89960989999999</v>
       </c>
       <c r="D313" t="n">
-        <v>53.89991</v>
+        <v>-2.8093014</v>
       </c>
       <c r="E313" t="n">
         <v>3000</v>
@@ -12915,12 +13905,15 @@
         <v>1523.719316497794</v>
       </c>
       <c r="L313" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0</v>
+      </c>
+      <c r="M313" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -12928,10 +13921,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>-2.62678</v>
+        <v>54.6673412</v>
       </c>
       <c r="D314" t="n">
-        <v>54.63107</v>
+        <v>-2.6962179</v>
       </c>
       <c r="E314" t="n">
         <v>3000</v>
@@ -12957,10 +13950,13 @@
       <c r="L314" t="n">
         <v>0</v>
       </c>
+      <c r="M314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -12968,10 +13964,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>-2.8921</v>
+        <v>56.6979538</v>
       </c>
       <c r="D315" t="n">
-        <v>56.72518</v>
+        <v>-2.9124057</v>
       </c>
       <c r="E315" t="n">
         <v>3000</v>
@@ -12997,10 +13993,13 @@
       <c r="L315" t="n">
         <v>0</v>
       </c>
+      <c r="M315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -13008,10 +14007,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>-6.65722</v>
+        <v>57.75989180000001</v>
       </c>
       <c r="D316" t="n">
-        <v>58.19938</v>
+        <v>-7.0194035</v>
       </c>
       <c r="E316" t="n">
         <v>2000</v>
@@ -13037,10 +14036,13 @@
       <c r="L316" t="n">
         <v>0</v>
       </c>
+      <c r="M316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -13048,10 +14050,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>-4.32298</v>
+        <v>53.265325</v>
       </c>
       <c r="D317" t="n">
-        <v>53.27931</v>
+        <v>-4.429140299999999</v>
       </c>
       <c r="E317" t="n">
         <v>2000</v>
@@ -13077,10 +14079,13 @@
       <c r="L317" t="n">
         <v>0</v>
       </c>
+      <c r="M317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -13088,10 +14093,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>-3.37664</v>
+        <v>54.4305545</v>
       </c>
       <c r="D318" t="n">
-        <v>54.46617</v>
+        <v>-3.389242</v>
       </c>
       <c r="E318" t="n">
         <v>2000</v>
@@ -13117,10 +14122,13 @@
       <c r="L318" t="n">
         <v>0</v>
       </c>
+      <c r="M318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -13128,10 +14136,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>-3.60909</v>
+        <v>55.9070198</v>
       </c>
       <c r="D319" t="n">
-        <v>55.8992</v>
+        <v>-3.5517167</v>
       </c>
       <c r="E319" t="n">
         <v>2000</v>
@@ -13157,10 +14165,13 @@
       <c r="L319" t="n">
         <v>0</v>
       </c>
+      <c r="M319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -13168,10 +14179,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>-0.8573499999999999</v>
+        <v>54.1698076</v>
       </c>
       <c r="D320" t="n">
-        <v>54.19713</v>
+        <v>-0.7282461</v>
       </c>
       <c r="E320" t="n">
         <v>2000</v>
@@ -13197,10 +14208,13 @@
       <c r="L320" t="n">
         <v>0</v>
       </c>
+      <c r="M320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -13208,10 +14222,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>-3.88484</v>
+        <v>56.39538169999999</v>
       </c>
       <c r="D321" t="n">
-        <v>56.57528</v>
+        <v>-3.4283547</v>
       </c>
       <c r="E321" t="n">
         <v>2000</v>
@@ -13237,10 +14251,13 @@
       <c r="L321" t="n">
         <v>0.5334833670971781</v>
       </c>
+      <c r="M321" t="n">
+        <v>1066.966734194356</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -13248,10 +14265,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>-2.86893</v>
+        <v>53.5728525</v>
       </c>
       <c r="D322" t="n">
-        <v>53.61283</v>
+        <v>-2.8558128</v>
       </c>
       <c r="E322" t="n">
         <v>2000</v>
@@ -13275,6 +14292,9 @@
         <v>2000</v>
       </c>
       <c r="L322" t="n">
+        <v>0</v>
+      </c>
+      <c r="M322" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13288,10 +14308,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>-4.32595</v>
+        <v>56.1165227</v>
       </c>
       <c r="D323" t="n">
-        <v>56.24953</v>
+        <v>-3.9369029</v>
       </c>
       <c r="E323" t="n">
         <v>1000</v>
@@ -13316,6 +14336,9 @@
       </c>
       <c r="L323" t="n">
         <v>1</v>
+      </c>
+      <c r="M323" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="324">
@@ -13328,10 +14351,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>-1.12908</v>
+        <v>53.78352400000001</v>
       </c>
       <c r="D324" t="n">
-        <v>53.73327</v>
+        <v>-1.067189</v>
       </c>
       <c r="E324" t="n">
         <v>1000</v>
@@ -13355,7 +14378,10 @@
         <v>532.890324695079</v>
       </c>
       <c r="L324" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0</v>
+      </c>
+      <c r="M324" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -13368,10 +14394,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>-3.75316</v>
+        <v>56.1075351</v>
       </c>
       <c r="D325" t="n">
-        <v>56.14784</v>
+        <v>-3.7529409</v>
       </c>
       <c r="E325" t="n">
         <v>1000</v>
@@ -13395,6 +14421,9 @@
         <v>0</v>
       </c>
       <c r="L325" t="n">
+        <v>0</v>
+      </c>
+      <c r="M325" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13408,10 +14437,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>-2.98251</v>
+        <v>56.2082078</v>
       </c>
       <c r="D326" t="n">
-        <v>56.23112</v>
+        <v>-3.1495175</v>
       </c>
       <c r="E326" t="n">
         <v>1000</v>
@@ -13436,6 +14465,9 @@
       </c>
       <c r="L326" t="n">
         <v>1</v>
+      </c>
+      <c r="M326" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="327">
@@ -13448,10 +14480,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>-2.79208</v>
+        <v>57.28687230000001</v>
       </c>
       <c r="D327" t="n">
-        <v>57.23469</v>
+        <v>-2.3815684</v>
       </c>
       <c r="E327" t="n">
         <v>1000</v>
@@ -13475,6 +14507,9 @@
         <v>0</v>
       </c>
       <c r="L327" t="n">
+        <v>0</v>
+      </c>
+      <c r="M327" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13488,10 +14523,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>-3.9514</v>
+        <v>55.8662432</v>
       </c>
       <c r="D328" t="n">
-        <v>55.86814</v>
+        <v>-3.9613144</v>
       </c>
       <c r="E328" t="n">
         <v>1000</v>
@@ -13515,6 +14550,9 @@
         <v>0</v>
       </c>
       <c r="L328" t="n">
+        <v>0</v>
+      </c>
+      <c r="M328" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13528,10 +14566,10 @@
         </is>
       </c>
       <c r="C329" t="n">
-        <v>-3.36425</v>
+        <v>51.74872999999999</v>
       </c>
       <c r="D329" t="n">
-        <v>51.74858</v>
+        <v>-3.381646</v>
       </c>
       <c r="E329" t="n">
         <v>1000</v>
@@ -13556,6 +14594,9 @@
       </c>
       <c r="L329" t="n">
         <v>1</v>
+      </c>
+      <c r="M329" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="330">
@@ -13568,10 +14609,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>-6.30217</v>
+        <v>49.9232519</v>
       </c>
       <c r="D330" t="n">
-        <v>49.92332</v>
+        <v>-6.2965725</v>
       </c>
       <c r="E330" t="n">
         <v>1000</v>
@@ -13597,10 +14638,13 @@
       <c r="L330" t="n">
         <v>0</v>
       </c>
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -13608,10 +14652,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>-4.72899</v>
+        <v>55.4588988</v>
       </c>
       <c r="D331" t="n">
-        <v>55.23008</v>
+        <v>-4.6291994</v>
       </c>
       <c r="E331" t="n">
         <v>1000</v>
@@ -13635,12 +14679,15 @@
         <v>0</v>
       </c>
       <c r="L331" t="n">
-        <v>-5.551115123125783e-17</v>
+        <v>0</v>
+      </c>
+      <c r="M331" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -13648,10 +14695,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>-3.20202</v>
+        <v>57.64984759999999</v>
       </c>
       <c r="D332" t="n">
-        <v>57.4768</v>
+        <v>-3.3168039</v>
       </c>
       <c r="E332" t="n">
         <v>0</v>
@@ -13677,10 +14724,13 @@
       <c r="L332" t="n">
         <v>0</v>
       </c>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -13688,10 +14738,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>-2.18957</v>
+        <v>53.86945619999999</v>
       </c>
       <c r="D333" t="n">
-        <v>53.88636</v>
+        <v>-2.1639879</v>
       </c>
       <c r="E333" t="n">
         <v>0</v>
@@ -13717,10 +14767,13 @@
       <c r="L333" t="n">
         <v>0</v>
       </c>
+      <c r="M333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -13737,6 +14790,7 @@
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr"/>
+      <c r="M334" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
